--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46C2927-D3B6-44EA-9F95-619D741F1DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAB749-E613-49AC-9C37-B9A8896CB82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="852" firstSheet="5" activeTab="11" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="852" firstSheet="5" activeTab="10" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="147">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>RealGDPGrowth</t>
+  </si>
+  <si>
+    <t>L1_hourly_wage</t>
   </si>
 </sst>
 </file>
@@ -3579,9 +3582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C8444-64E3-46A6-8707-99C15C89A426}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Y1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3621,7 +3622,7 @@
         <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="L1" t="s">
         <v>87</v>
@@ -3671,76 +3672,76 @@
         <v>144</v>
       </c>
       <c r="B2" s="28">
-        <v>0.25753721615794484</v>
+        <v>0.13937490191697868</v>
       </c>
       <c r="C2">
-        <v>5.95714656141349E-2</v>
+        <v>9.1862140648868898E-2</v>
       </c>
       <c r="D2">
-        <v>-2.7580335854844934E-3</v>
+        <v>-7.9061866869369422E-3</v>
       </c>
       <c r="E2">
-        <v>-4.4227528951094972E-3</v>
+        <v>-7.6928622118868743E-3</v>
       </c>
       <c r="F2">
-        <v>-3.0101553470160913E-2</v>
+        <v>-2.4779614956179204E-2</v>
       </c>
       <c r="G2">
-        <v>6.7477969627558233E-3</v>
+        <v>6.0695273194271843E-3</v>
       </c>
       <c r="H2">
-        <v>1.7381987922607299E-4</v>
+        <v>-4.1923419036085843E-3</v>
       </c>
       <c r="I2">
-        <v>1.8975326102572201E-3</v>
+        <v>1.799529418391177E-3</v>
       </c>
       <c r="J2">
-        <v>-1.7588914427196412E-3</v>
+        <v>-2.0351395561085932E-3</v>
       </c>
       <c r="K2">
-        <v>2.5282097216740018E-3</v>
+        <v>-9.9183961826385467E-5</v>
       </c>
       <c r="L2">
-        <v>1.3291230667013067E-2</v>
+        <v>1.436046278028795E-2</v>
       </c>
       <c r="M2">
-        <v>4.5163068018624162E-3</v>
+        <v>6.9220679436423418E-3</v>
       </c>
       <c r="N2">
-        <v>1.036561008173428E-2</v>
+        <v>1.7451689890816746E-2</v>
       </c>
       <c r="O2">
-        <v>8.270172876976678E-3</v>
+        <v>1.4440825791191339E-2</v>
       </c>
       <c r="P2">
-        <v>3.6326346137162159E-3</v>
+        <v>5.6513204836884101E-3</v>
       </c>
       <c r="Q2">
-        <v>4.6511656485942153E-3</v>
+        <v>1.9766776784912593E-3</v>
       </c>
       <c r="R2">
-        <v>3.9272257873377067E-3</v>
+        <v>4.6846492494128228E-3</v>
       </c>
       <c r="S2">
-        <v>9.0164703008346822E-3</v>
+        <v>1.2686614753749284E-2</v>
       </c>
       <c r="T2">
-        <v>4.677629974442446E-3</v>
+        <v>1.0761750685467711E-2</v>
       </c>
       <c r="U2">
-        <v>1.7802789660290051E-2</v>
+        <v>3.0078683257696727E-2</v>
       </c>
       <c r="V2">
-        <v>6.3206753664585905E-3</v>
+        <v>9.23838811834507E-3</v>
       </c>
       <c r="W2">
-        <v>-0.12859751300421518</v>
+        <v>-0.49909184781068894</v>
       </c>
       <c r="X2">
-        <v>1.2878847130870961E-3</v>
+        <v>9.4308232184674781E-3</v>
       </c>
       <c r="Y2">
-        <v>0.10062466744780638</v>
+        <v>0.35850112933657174</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -3748,76 +3749,76 @@
         <v>99</v>
       </c>
       <c r="B3" s="28">
-        <v>-0.86485191616799995</v>
+        <v>-0.81850665132027145</v>
       </c>
       <c r="C3">
-        <v>-2.7580335854844934E-3</v>
+        <v>-7.9061866869369422E-3</v>
       </c>
       <c r="D3">
-        <v>6.7934379003829606E-2</v>
+        <v>8.5973446120168939E-2</v>
       </c>
       <c r="E3">
-        <v>4.6421772920972541E-2</v>
+        <v>5.9410821672562106E-2</v>
       </c>
       <c r="F3">
-        <v>4.9245247403055491E-3</v>
+        <v>3.5420279590641429E-3</v>
       </c>
       <c r="G3">
-        <v>1.1734401520416271E-3</v>
+        <v>7.7628755574513306E-3</v>
       </c>
       <c r="H3">
-        <v>-3.9909542875011623E-3</v>
+        <v>-4.2892696443911707E-3</v>
       </c>
       <c r="I3">
-        <v>6.4661463639600555E-3</v>
+        <v>2.4009107249805914E-2</v>
       </c>
       <c r="J3">
-        <v>1.9464818209498774E-3</v>
+        <v>1.9240519982464538E-3</v>
       </c>
       <c r="K3">
-        <v>2.4138049156638972E-4</v>
+        <v>3.4033318043258549E-4</v>
       </c>
       <c r="L3">
-        <v>-1.4012202193975212E-2</v>
+        <v>-1.4077473347480204E-2</v>
       </c>
       <c r="M3">
-        <v>-1.0930141029429716E-2</v>
+        <v>-1.0904699692027738E-2</v>
       </c>
       <c r="N3">
-        <v>-8.1863878695853168E-3</v>
+        <v>-8.937408573629943E-3</v>
       </c>
       <c r="O3">
-        <v>-1.6046243935155365E-2</v>
+        <v>-1.4597769225485474E-2</v>
       </c>
       <c r="P3">
-        <v>-2.8788524312352917E-3</v>
+        <v>-5.6020297237818761E-4</v>
       </c>
       <c r="Q3">
-        <v>-8.2247944361459879E-3</v>
+        <v>-6.2085119454594606E-3</v>
       </c>
       <c r="R3">
-        <v>-1.2361470457209763E-2</v>
+        <v>-1.6382424858995062E-2</v>
       </c>
       <c r="S3">
-        <v>-1.136685627626529E-2</v>
+        <v>-1.1485756972139591E-2</v>
       </c>
       <c r="T3">
-        <v>-1.4576270915288583E-2</v>
+        <v>-1.7701984247219638E-2</v>
       </c>
       <c r="U3">
-        <v>-2.0700040476634624E-2</v>
+        <v>-2.5915912104090617E-2</v>
       </c>
       <c r="V3">
-        <v>-1.1480691743811389E-2</v>
+        <v>-1.2049797758661496E-2</v>
       </c>
       <c r="W3">
-        <v>0.1770734298214712</v>
+        <v>0.30259720862195666</v>
       </c>
       <c r="X3">
-        <v>-3.5638620644135198E-3</v>
+        <v>-5.8798245187188123E-3</v>
       </c>
       <c r="Y3">
-        <v>-0.16574530152585606</v>
+        <v>-0.26976885796582967</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -3825,76 +3826,76 @@
         <v>100</v>
       </c>
       <c r="B4" s="28">
-        <v>-1.9339962881601449</v>
+        <v>-1.7517111220985719</v>
       </c>
       <c r="C4">
-        <v>-4.4227528951094972E-3</v>
+        <v>-7.6928622118868743E-3</v>
       </c>
       <c r="D4">
-        <v>4.6421772920972541E-2</v>
+        <v>5.9410821672562106E-2</v>
       </c>
       <c r="E4">
-        <v>8.299459518203739E-2</v>
+        <v>0.11140390576527447</v>
       </c>
       <c r="F4">
-        <v>5.169303678367332E-3</v>
+        <v>1.135454725083479E-2</v>
       </c>
       <c r="G4">
-        <v>7.8636206533017096E-3</v>
+        <v>1.831049072014505E-2</v>
       </c>
       <c r="H4">
-        <v>-1.5275680196849394E-3</v>
+        <v>3.6402034133134302E-5</v>
       </c>
       <c r="I4">
-        <v>1.0756345666420621E-2</v>
+        <v>8.9310152661675295E-3</v>
       </c>
       <c r="J4">
-        <v>4.383797119618219E-3</v>
+        <v>4.7068017580606161E-3</v>
       </c>
       <c r="K4">
-        <v>1.1884124322444727E-3</v>
+        <v>4.3175630681401581E-4</v>
       </c>
       <c r="L4">
-        <v>-5.9197976887454609E-3</v>
+        <v>4.6984751753052084E-4</v>
       </c>
       <c r="M4">
-        <v>-1.9273324511565292E-3</v>
+        <v>4.0110970870882411E-3</v>
       </c>
       <c r="N4">
-        <v>1.73419599372171E-3</v>
+        <v>5.0878896610192341E-3</v>
       </c>
       <c r="O4">
-        <v>-3.3167244440372723E-3</v>
+        <v>5.2441726494273158E-3</v>
       </c>
       <c r="P4">
-        <v>1.7582866181414109E-4</v>
+        <v>6.0858907004433943E-3</v>
       </c>
       <c r="Q4">
-        <v>2.6732900577197682E-4</v>
+        <v>1.0366089694286873E-2</v>
       </c>
       <c r="R4">
-        <v>8.5844585569955917E-4</v>
+        <v>5.2912155902574247E-3</v>
       </c>
       <c r="S4">
-        <v>-1.4058153812108454E-3</v>
+        <v>5.5514772783760852E-3</v>
       </c>
       <c r="T4">
-        <v>-7.890926965583106E-3</v>
+        <v>-4.6745526778994434E-3</v>
       </c>
       <c r="U4">
-        <v>-9.9409563042813995E-3</v>
+        <v>-8.8346045426468747E-3</v>
       </c>
       <c r="V4">
-        <v>-7.4874865499970356E-3</v>
+        <v>3.2369187177399145E-3</v>
       </c>
       <c r="W4">
-        <v>6.2142406410686524E-3</v>
+        <v>0.17187058027941179</v>
       </c>
       <c r="X4">
-        <v>6.7409750167927432E-4</v>
+        <v>-3.0855420892277148E-3</v>
       </c>
       <c r="Y4">
-        <v>-8.186503916477611E-2</v>
+        <v>-0.21544635656109054</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -3902,76 +3903,76 @@
         <v>139</v>
       </c>
       <c r="B5" s="28">
-        <v>0.84800121888354163</v>
+        <v>1.2502156169531469</v>
       </c>
       <c r="C5">
-        <v>-3.0101553470160913E-2</v>
+        <v>-2.4779614956179204E-2</v>
       </c>
       <c r="D5">
-        <v>4.9245247403055491E-3</v>
+        <v>3.5420279590641429E-3</v>
       </c>
       <c r="E5">
-        <v>5.169303678367332E-3</v>
+        <v>1.135454725083479E-2</v>
       </c>
       <c r="F5">
-        <v>0.21848457869027135</v>
+        <v>8.5231401434311765E-2</v>
       </c>
       <c r="G5">
-        <v>1.6670223793524352E-2</v>
+        <v>2.9348963488305714E-3</v>
       </c>
       <c r="H5">
-        <v>6.2692776348592123E-3</v>
+        <v>8.8833477883090983E-3</v>
       </c>
       <c r="I5">
-        <v>2.8817017051284734E-2</v>
+        <v>1.2914076460165558E-2</v>
       </c>
       <c r="J5">
-        <v>-6.4393283714407491E-3</v>
+        <v>-9.6065904693438398E-3</v>
       </c>
       <c r="K5">
-        <v>-2.1758463596310555E-2</v>
+        <v>-2.4504356561933562E-4</v>
       </c>
       <c r="L5">
-        <v>-5.2250514042813858E-3</v>
+        <v>-9.4476862386802651E-3</v>
       </c>
       <c r="M5">
-        <v>-2.2954173392850073E-3</v>
+        <v>-4.5815373878275341E-3</v>
       </c>
       <c r="N5">
-        <v>-6.6196711599207803E-3</v>
+        <v>-1.1717316561958518E-2</v>
       </c>
       <c r="O5">
-        <v>-5.9571927191093207E-3</v>
+        <v>-1.6600383072309089E-2</v>
       </c>
       <c r="P5">
-        <v>2.9973889028888333E-4</v>
+        <v>-1.1956730471953461E-2</v>
       </c>
       <c r="Q5">
-        <v>-7.9732776127569259E-3</v>
+        <v>-6.6405122162020956E-3</v>
       </c>
       <c r="R5">
-        <v>-1.0658843709390076E-2</v>
+        <v>-7.9437022184900979E-3</v>
       </c>
       <c r="S5">
-        <v>-9.3217748714856039E-3</v>
+        <v>-1.1219747640836412E-2</v>
       </c>
       <c r="T5">
-        <v>-6.3383861452735828E-3</v>
+        <v>-9.9687609496605708E-3</v>
       </c>
       <c r="U5">
-        <v>-2.7404599490629573E-3</v>
+        <v>-8.4462357562314939E-3</v>
       </c>
       <c r="V5">
-        <v>-6.8614152929517072E-3</v>
+        <v>2.3106493170582665E-5</v>
       </c>
       <c r="W5">
-        <v>-9.4748967033658829E-3</v>
+        <v>-3.7449364467653252E-3</v>
       </c>
       <c r="X5">
-        <v>-4.3509181755516579E-4</v>
+        <v>-2.5863207909175687E-4</v>
       </c>
       <c r="Y5">
-        <v>6.1738594960714238E-3</v>
+        <v>-1.169781030315196E-2</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -3979,76 +3980,76 @@
         <v>103</v>
       </c>
       <c r="B6" s="28">
-        <v>-0.485422663849228</v>
+        <v>-0.17757928971163472</v>
       </c>
       <c r="C6">
-        <v>6.7477969627558233E-3</v>
+        <v>6.0695273194271843E-3</v>
       </c>
       <c r="D6">
-        <v>1.1734401520416271E-3</v>
+        <v>7.7628755574513306E-3</v>
       </c>
       <c r="E6">
-        <v>7.8636206533017096E-3</v>
+        <v>1.831049072014505E-2</v>
       </c>
       <c r="F6">
-        <v>1.6670223793524352E-2</v>
+        <v>2.9348963488305714E-3</v>
       </c>
       <c r="G6">
-        <v>0.28335114311260234</v>
+        <v>0.33692562321296532</v>
       </c>
       <c r="H6">
-        <v>1.5400257600742633E-2</v>
+        <v>1.8955002492610527E-2</v>
       </c>
       <c r="I6">
-        <v>2.5637537968523673E-2</v>
+        <v>3.3092128997953024E-2</v>
       </c>
       <c r="J6">
-        <v>-4.6234977210094994E-4</v>
+        <v>-1.566573674745303E-3</v>
       </c>
       <c r="K6">
-        <v>-1.59244555982373E-3</v>
+        <v>1.8669213344427675E-4</v>
       </c>
       <c r="L6">
-        <v>2.0618087830267945E-3</v>
+        <v>8.8025159127544939E-3</v>
       </c>
       <c r="M6">
-        <v>1.1507578069408494E-2</v>
+        <v>1.495913678547614E-2</v>
       </c>
       <c r="N6">
-        <v>3.8319754585348503E-3</v>
+        <v>6.0664421063431201E-3</v>
       </c>
       <c r="O6">
-        <v>7.5495253552309571E-3</v>
+        <v>1.6070337363201723E-2</v>
       </c>
       <c r="P6">
-        <v>2.1976760475354851E-3</v>
+        <v>1.0705885560449435E-2</v>
       </c>
       <c r="Q6">
-        <v>8.0673847068077967E-3</v>
+        <v>1.7384254433432625E-2</v>
       </c>
       <c r="R6">
-        <v>2.6863390895296373E-2</v>
+        <v>3.8423704110529359E-2</v>
       </c>
       <c r="S6">
-        <v>2.1122285969539918E-2</v>
+        <v>3.2754378936420261E-2</v>
       </c>
       <c r="T6">
-        <v>1.1381805881844204E-2</v>
+        <v>2.6220920390710695E-2</v>
       </c>
       <c r="U6">
-        <v>1.4355189390636861E-2</v>
+        <v>2.3804769729267136E-2</v>
       </c>
       <c r="V6">
-        <v>6.2169779290617289E-3</v>
+        <v>1.2762979654432599E-2</v>
       </c>
       <c r="W6">
-        <v>0.44835790866042852</v>
+        <v>0.67520338388582224</v>
       </c>
       <c r="X6">
-        <v>-9.0805752208120514E-3</v>
+        <v>-1.2753389154642867E-2</v>
       </c>
       <c r="Y6">
-        <v>-0.34254788914150153</v>
+        <v>-0.52783804092838593</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -4056,76 +4057,76 @@
         <v>104</v>
       </c>
       <c r="B7" s="28">
-        <v>-0.25816687297316837</v>
+        <v>-0.1885988581669136</v>
       </c>
       <c r="C7">
-        <v>1.7381987922607299E-4</v>
+        <v>-4.1923419036085843E-3</v>
       </c>
       <c r="D7">
-        <v>-3.9909542875011623E-3</v>
+        <v>-4.2892696443911707E-3</v>
       </c>
       <c r="E7">
-        <v>-1.5275680196849394E-3</v>
+        <v>3.6402034133134302E-5</v>
       </c>
       <c r="F7">
-        <v>6.2692776348592123E-3</v>
+        <v>8.8833477883090983E-3</v>
       </c>
       <c r="G7">
-        <v>1.5400257600742633E-2</v>
+        <v>1.8955002492610527E-2</v>
       </c>
       <c r="H7">
-        <v>5.4044603082643243E-2</v>
+        <v>7.0481104217524751E-2</v>
       </c>
       <c r="I7">
-        <v>1.6102586656290909E-2</v>
+        <v>1.7250902446205474E-2</v>
       </c>
       <c r="J7">
-        <v>1.3670514360807915E-3</v>
+        <v>2.6004084854767025E-3</v>
       </c>
       <c r="K7">
-        <v>2.2783173732603091E-4</v>
+        <v>6.6725617321959077E-5</v>
       </c>
       <c r="L7">
-        <v>-1.6316119816999625E-3</v>
+        <v>-1.0435350534517135E-2</v>
       </c>
       <c r="M7">
-        <v>-1.3148131155760676E-3</v>
+        <v>-8.6671329194928717E-3</v>
       </c>
       <c r="N7">
-        <v>-2.8539887751991705E-4</v>
+        <v>-5.2898114164224297E-3</v>
       </c>
       <c r="O7">
-        <v>1.1583515079843926E-3</v>
+        <v>-2.2404681610428967E-3</v>
       </c>
       <c r="P7">
-        <v>2.4397538701321914E-3</v>
+        <v>-2.8561636157380249E-3</v>
       </c>
       <c r="Q7">
-        <v>1.0944915455193931E-3</v>
+        <v>-1.531864003406741E-3</v>
       </c>
       <c r="R7">
-        <v>2.4723807910925419E-3</v>
+        <v>-2.4729128864216798E-3</v>
       </c>
       <c r="S7">
-        <v>2.218659369730442E-3</v>
+        <v>9.2166909737528835E-4</v>
       </c>
       <c r="T7">
-        <v>5.0724609843613572E-3</v>
+        <v>2.5447735050496134E-4</v>
       </c>
       <c r="U7">
-        <v>6.3329104904553297E-3</v>
+        <v>5.1830568021328516E-3</v>
       </c>
       <c r="V7">
-        <v>-5.386090787335443E-3</v>
+        <v>-7.8847001118066973E-3</v>
       </c>
       <c r="W7">
-        <v>0.16581199600601518</v>
+        <v>0.19026725533048905</v>
       </c>
       <c r="X7">
-        <v>-3.7589510799761962E-3</v>
+        <v>-4.427860264708228E-3</v>
       </c>
       <c r="Y7">
-        <v>-0.13297975441268098</v>
+        <v>-0.15299354988962166</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -4133,76 +4134,76 @@
         <v>105</v>
       </c>
       <c r="B8" s="28">
-        <v>-1.8626388218328325</v>
+        <v>-1.4347390865986227</v>
       </c>
       <c r="C8">
-        <v>1.8975326102572201E-3</v>
+        <v>1.799529418391177E-3</v>
       </c>
       <c r="D8">
-        <v>6.4661463639600555E-3</v>
+        <v>2.4009107249805914E-2</v>
       </c>
       <c r="E8">
-        <v>1.0756345666420621E-2</v>
+        <v>8.9310152661675295E-3</v>
       </c>
       <c r="F8">
-        <v>2.8817017051284734E-2</v>
+        <v>1.2914076460165558E-2</v>
       </c>
       <c r="G8">
-        <v>2.5637537968523673E-2</v>
+        <v>3.3092128997953024E-2</v>
       </c>
       <c r="H8">
-        <v>1.6102586656290909E-2</v>
+        <v>1.7250902446205474E-2</v>
       </c>
       <c r="I8">
-        <v>2.2301798586705326</v>
+        <v>2.928368377690755</v>
       </c>
       <c r="J8">
-        <v>1.5292724507459318E-3</v>
+        <v>-7.8510610699686137E-3</v>
       </c>
       <c r="K8">
-        <v>-2.8247914836934296E-3</v>
+        <v>1.679347105639555E-4</v>
       </c>
       <c r="L8">
-        <v>3.7872386698837496E-2</v>
+        <v>6.3549667420949807E-2</v>
       </c>
       <c r="M8">
-        <v>1.1919966010008595E-2</v>
+        <v>2.6150067191342219E-2</v>
       </c>
       <c r="N8">
-        <v>-2.6637954924914609E-3</v>
+        <v>6.7453252365120953E-2</v>
       </c>
       <c r="O8">
-        <v>3.9275171997395331E-2</v>
+        <v>6.2961990483366981E-2</v>
       </c>
       <c r="P8">
-        <v>4.0937706280476521E-2</v>
+        <v>7.0303442078546108E-2</v>
       </c>
       <c r="Q8">
-        <v>4.2429339555317164E-2</v>
+        <v>5.3631581734316036E-2</v>
       </c>
       <c r="R8">
-        <v>3.9718345080824641E-2</v>
+        <v>6.4125504081869567E-2</v>
       </c>
       <c r="S8">
-        <v>4.1173819527528743E-2</v>
+        <v>6.8856750884901341E-2</v>
       </c>
       <c r="T8">
-        <v>1.9657391728534201E-2</v>
+        <v>2.7564447175786766E-2</v>
       </c>
       <c r="U8">
-        <v>4.3251802117939608E-2</v>
+        <v>6.9694960238182668E-2</v>
       </c>
       <c r="V8">
-        <v>3.7901231694003723E-2</v>
+        <v>6.8159608276641359E-2</v>
       </c>
       <c r="W8">
-        <v>0.80297652089649851</v>
+        <v>1.243657955007619</v>
       </c>
       <c r="X8">
-        <v>-1.6209879001932173E-2</v>
+        <v>-2.4206046454630925E-2</v>
       </c>
       <c r="Y8">
-        <v>-0.61752305240079197</v>
+        <v>-0.94747786620384689</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -4210,153 +4211,153 @@
         <v>85</v>
       </c>
       <c r="B9" s="28">
-        <v>0.20591378836965996</v>
+        <v>0.19260116839801417</v>
       </c>
       <c r="C9">
-        <v>-1.7588914427196412E-3</v>
+        <v>-2.0351395561085932E-3</v>
       </c>
       <c r="D9">
-        <v>1.9464818209498774E-3</v>
+        <v>1.9240519982464538E-3</v>
       </c>
       <c r="E9">
-        <v>4.383797119618219E-3</v>
+        <v>4.7068017580606161E-3</v>
       </c>
       <c r="F9">
-        <v>-6.4393283714407491E-3</v>
+        <v>-9.6065904693438398E-3</v>
       </c>
       <c r="G9">
-        <v>-4.6234977210094994E-4</v>
+        <v>-1.566573674745303E-3</v>
       </c>
       <c r="H9">
-        <v>1.3670514360807915E-3</v>
+        <v>2.6004084854767025E-3</v>
       </c>
       <c r="I9">
-        <v>1.5292724507459318E-3</v>
+        <v>-7.8510610699686137E-3</v>
       </c>
       <c r="J9">
-        <v>8.7182223289109378E-3</v>
+        <v>1.170069625934644E-2</v>
       </c>
       <c r="K9">
-        <v>-2.4752202335701946E-4</v>
+        <v>-4.5379425153057007E-5</v>
       </c>
       <c r="L9">
-        <v>1.2956087926007387E-3</v>
+        <v>-1.8884763082885753E-3</v>
       </c>
       <c r="M9">
-        <v>1.9824519917849264E-3</v>
+        <v>9.6499460693572417E-4</v>
       </c>
       <c r="N9">
-        <v>-3.0333166376464091E-4</v>
+        <v>-1.7803044128895246E-3</v>
       </c>
       <c r="O9">
-        <v>1.0888739948411164E-3</v>
+        <v>2.2445298234975639E-3</v>
       </c>
       <c r="P9">
-        <v>-4.5297912090492068E-4</v>
+        <v>-1.3761566682159027E-3</v>
       </c>
       <c r="Q9">
-        <v>1.4143056169158182E-3</v>
+        <v>2.2121249963394374E-4</v>
       </c>
       <c r="R9">
-        <v>3.354013412493825E-3</v>
+        <v>2.8940153707164608E-3</v>
       </c>
       <c r="S9">
-        <v>1.1557299792795024E-3</v>
+        <v>1.9301016037318944E-3</v>
       </c>
       <c r="T9">
-        <v>9.1289437508450255E-4</v>
+        <v>-1.1267893663378242E-3</v>
       </c>
       <c r="U9">
-        <v>-1.2741078469166167E-3</v>
+        <v>-2.8450322456401028E-3</v>
       </c>
       <c r="V9">
-        <v>1.5356764501257836E-3</v>
+        <v>-1.2180361960801023E-3</v>
       </c>
       <c r="W9">
-        <v>9.732603082362172E-2</v>
+        <v>0.1487602517616321</v>
       </c>
       <c r="X9">
-        <v>-2.2591520193440697E-3</v>
+        <v>-3.5649193954222919E-3</v>
       </c>
       <c r="Y9">
-        <v>-8.7895924857041868E-2</v>
+        <v>-0.1270444315462424</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B10" s="28">
-        <v>7.1518872395938071E-2</v>
+        <v>1.8893364253986839E-3</v>
       </c>
       <c r="C10">
-        <v>2.5282097216740018E-3</v>
+        <v>-9.9183961826385467E-5</v>
       </c>
       <c r="D10">
-        <v>2.4138049156638972E-4</v>
+        <v>3.4033318043258549E-4</v>
       </c>
       <c r="E10">
-        <v>1.1884124322444727E-3</v>
+        <v>4.3175630681401581E-4</v>
       </c>
       <c r="F10">
-        <v>-2.1758463596310555E-2</v>
+        <v>-2.4504356561933562E-4</v>
       </c>
       <c r="G10">
-        <v>-1.59244555982373E-3</v>
+        <v>1.8669213344427675E-4</v>
       </c>
       <c r="H10">
-        <v>2.2783173732603091E-4</v>
+        <v>6.6725617321959077E-5</v>
       </c>
       <c r="I10">
-        <v>-2.8247914836934296E-3</v>
+        <v>1.679347105639555E-4</v>
       </c>
       <c r="J10">
-        <v>-2.4752202335701946E-4</v>
+        <v>-4.5379425153057007E-5</v>
       </c>
       <c r="K10">
-        <v>2.9959543346597551E-3</v>
+        <v>2.5003937521954629E-5</v>
       </c>
       <c r="L10">
-        <v>-5.0724779235327084E-4</v>
+        <v>9.939072593046435E-5</v>
       </c>
       <c r="M10">
-        <v>-4.7866177210160966E-5</v>
+        <v>8.3501032164255592E-5</v>
       </c>
       <c r="N10">
-        <v>2.7249314730435053E-4</v>
+        <v>8.8745004312389521E-5</v>
       </c>
       <c r="O10">
-        <v>-1.0779516239298311E-4</v>
+        <v>6.9153602464497297E-5</v>
       </c>
       <c r="P10">
-        <v>-1.0186499461616767E-3</v>
+        <v>1.0561772035569227E-4</v>
       </c>
       <c r="Q10">
-        <v>8.6987516164464644E-5</v>
+        <v>1.2934305696620874E-4</v>
       </c>
       <c r="R10">
-        <v>4.6777039952655523E-4</v>
+        <v>1.8961697431795946E-5</v>
       </c>
       <c r="S10">
-        <v>2.8249183400097175E-4</v>
+        <v>8.1360577123522007E-5</v>
       </c>
       <c r="T10">
-        <v>5.768544494111922E-4</v>
+        <v>8.6534115583630241E-5</v>
       </c>
       <c r="U10">
-        <v>-3.3581427123569908E-4</v>
+        <v>-1.9968931484756918E-5</v>
       </c>
       <c r="V10">
-        <v>6.4430694030079803E-4</v>
+        <v>1.5171193759525069E-4</v>
       </c>
       <c r="W10">
-        <v>4.3378494090640981E-3</v>
+        <v>-1.1724764118938046E-3</v>
       </c>
       <c r="X10">
-        <v>-5.9376932972964031E-5</v>
+        <v>2.4345436624344039E-5</v>
       </c>
       <c r="Y10">
-        <v>-4.3345736870255723E-3</v>
+        <v>3.3640744664203092E-4</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -4364,76 +4365,76 @@
         <v>87</v>
       </c>
       <c r="B11" s="28">
-        <v>0.13222441515260436</v>
+        <v>0.63583086716133286</v>
       </c>
       <c r="C11">
-        <v>1.3291230667013067E-2</v>
+        <v>1.436046278028795E-2</v>
       </c>
       <c r="D11">
-        <v>-1.4012202193975212E-2</v>
+        <v>-1.4077473347480204E-2</v>
       </c>
       <c r="E11">
-        <v>-5.9197976887454609E-3</v>
+        <v>4.6984751753052084E-4</v>
       </c>
       <c r="F11">
-        <v>-5.2250514042813858E-3</v>
+        <v>-9.4476862386802651E-3</v>
       </c>
       <c r="G11">
-        <v>2.0618087830267945E-3</v>
+        <v>8.8025159127544939E-3</v>
       </c>
       <c r="H11">
-        <v>-1.6316119816999625E-3</v>
+        <v>-1.0435350534517135E-2</v>
       </c>
       <c r="I11">
-        <v>3.7872386698837496E-2</v>
+        <v>6.3549667420949807E-2</v>
       </c>
       <c r="J11">
-        <v>1.2956087926007387E-3</v>
+        <v>-1.8884763082885753E-3</v>
       </c>
       <c r="K11">
-        <v>-5.0724779235327084E-4</v>
+        <v>9.939072593046435E-5</v>
       </c>
       <c r="L11">
-        <v>0.32546013979253258</v>
+        <v>0.40071703933056074</v>
       </c>
       <c r="M11">
-        <v>0.13822905109360953</v>
+        <v>0.1891061642012529</v>
       </c>
       <c r="N11">
-        <v>0.13877751525069174</v>
+        <v>0.18927396685125364</v>
       </c>
       <c r="O11">
-        <v>0.14094288062056839</v>
+        <v>0.19201225703033936</v>
       </c>
       <c r="P11">
-        <v>0.13642524629259536</v>
+        <v>0.18690227805592691</v>
       </c>
       <c r="Q11">
-        <v>0.13785851985849451</v>
+        <v>0.18776297744623732</v>
       </c>
       <c r="R11">
-        <v>0.13952857491760662</v>
+        <v>0.19080537975914158</v>
       </c>
       <c r="S11">
-        <v>0.13961045589861248</v>
+        <v>0.19073318105157361</v>
       </c>
       <c r="T11">
-        <v>0.13788649388700666</v>
+        <v>0.18962159228676551</v>
       </c>
       <c r="U11">
-        <v>0.14261457446171158</v>
+        <v>0.19408478138086677</v>
       </c>
       <c r="V11">
-        <v>0.13833042090879705</v>
+        <v>0.19010985351486348</v>
       </c>
       <c r="W11">
-        <v>-3.7503386531868715E-2</v>
+        <v>7.0786223483476102E-2</v>
       </c>
       <c r="X11">
-        <v>-5.9653397388223939E-4</v>
+        <v>-3.5332025381847299E-3</v>
       </c>
       <c r="Y11">
-        <v>-8.7450093713317981E-2</v>
+        <v>-0.19332056057601318</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -4441,76 +4442,76 @@
         <v>88</v>
       </c>
       <c r="B12" s="28">
-        <v>-3.3846715499224918E-2</v>
+        <v>0.2797295608539539</v>
       </c>
       <c r="C12">
-        <v>4.5163068018624162E-3</v>
+        <v>6.9220679436423418E-3</v>
       </c>
       <c r="D12">
-        <v>-1.0930141029429716E-2</v>
+        <v>-1.0904699692027738E-2</v>
       </c>
       <c r="E12">
-        <v>-1.9273324511565292E-3</v>
+        <v>4.0110970870882411E-3</v>
       </c>
       <c r="F12">
-        <v>-2.2954173392850073E-3</v>
+        <v>-4.5815373878275341E-3</v>
       </c>
       <c r="G12">
-        <v>1.1507578069408494E-2</v>
+        <v>1.495913678547614E-2</v>
       </c>
       <c r="H12">
-        <v>-1.3148131155760676E-3</v>
+        <v>-8.6671329194928717E-3</v>
       </c>
       <c r="I12">
-        <v>1.1919966010008595E-2</v>
+        <v>2.6150067191342219E-2</v>
       </c>
       <c r="J12">
-        <v>1.9824519917849264E-3</v>
+        <v>9.6499460693572417E-4</v>
       </c>
       <c r="K12">
-        <v>-4.7866177210160966E-5</v>
+        <v>8.3501032164255592E-5</v>
       </c>
       <c r="L12">
-        <v>0.13822905109360953</v>
+        <v>0.1891061642012529</v>
       </c>
       <c r="M12">
-        <v>0.22814298501401281</v>
+        <v>0.30409749386566765</v>
       </c>
       <c r="N12">
-        <v>0.13703868049445736</v>
+        <v>0.18703211373470402</v>
       </c>
       <c r="O12">
-        <v>0.13928066022962149</v>
+        <v>0.19048341310705832</v>
       </c>
       <c r="P12">
-        <v>0.13547065851406515</v>
+        <v>0.18555552805839842</v>
       </c>
       <c r="Q12">
-        <v>0.1369075191779808</v>
+        <v>0.1869722229027129</v>
       </c>
       <c r="R12">
-        <v>0.13884507419325101</v>
+        <v>0.18962668184200676</v>
       </c>
       <c r="S12">
-        <v>0.13827271145221542</v>
+        <v>0.18929820658552521</v>
       </c>
       <c r="T12">
-        <v>0.13729894599220865</v>
+        <v>0.18730787262394169</v>
       </c>
       <c r="U12">
-        <v>0.13976709720897484</v>
+        <v>0.19027875301512884</v>
       </c>
       <c r="V12">
-        <v>0.13888971722945245</v>
+        <v>0.18985528984816238</v>
       </c>
       <c r="W12">
-        <v>-0.47629053572111707</v>
+        <v>-0.72606337747770833</v>
       </c>
       <c r="X12">
-        <v>1.127844940061358E-2</v>
+        <v>1.5715366747501732E-2</v>
       </c>
       <c r="Y12">
-        <v>0.16870606570262309</v>
+        <v>0.30241143864756126</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -4518,76 +4519,76 @@
         <v>89</v>
       </c>
       <c r="B13" s="28">
-        <v>0.39730609805790379</v>
+        <v>0.73381773060193223</v>
       </c>
       <c r="C13">
-        <v>1.036561008173428E-2</v>
+        <v>1.7451689890816746E-2</v>
       </c>
       <c r="D13">
-        <v>-8.1863878695853168E-3</v>
+        <v>-8.937408573629943E-3</v>
       </c>
       <c r="E13">
-        <v>1.73419599372171E-3</v>
+        <v>5.0878896610192341E-3</v>
       </c>
       <c r="F13">
-        <v>-6.6196711599207803E-3</v>
+        <v>-1.1717316561958518E-2</v>
       </c>
       <c r="G13">
-        <v>3.8319754585348503E-3</v>
+        <v>6.0664421063431201E-3</v>
       </c>
       <c r="H13">
-        <v>-2.8539887751991705E-4</v>
+        <v>-5.2898114164224297E-3</v>
       </c>
       <c r="I13">
-        <v>-2.6637954924914609E-3</v>
+        <v>6.7453252365120953E-2</v>
       </c>
       <c r="J13">
-        <v>-3.0333166376464091E-4</v>
+        <v>-1.7803044128895246E-3</v>
       </c>
       <c r="K13">
-        <v>2.7249314730435053E-4</v>
+        <v>8.8745004312389521E-5</v>
       </c>
       <c r="L13">
-        <v>0.13877751525069174</v>
+        <v>0.18927396685125364</v>
       </c>
       <c r="M13">
-        <v>0.13703868049445736</v>
+        <v>0.18703211373470402</v>
       </c>
       <c r="N13">
-        <v>0.2547766222253004</v>
+        <v>0.33279185812201334</v>
       </c>
       <c r="O13">
-        <v>0.1385266821729628</v>
+        <v>0.19105742845284895</v>
       </c>
       <c r="P13">
-        <v>0.13549594227647477</v>
+        <v>0.18668192997179056</v>
       </c>
       <c r="Q13">
-        <v>0.13704354491561083</v>
+        <v>0.18681883557334117</v>
       </c>
       <c r="R13">
-        <v>0.13835143647315257</v>
+        <v>0.18975200989035329</v>
       </c>
       <c r="S13">
-        <v>0.13905906835222076</v>
+        <v>0.19042554188087848</v>
       </c>
       <c r="T13">
-        <v>0.13714168558349824</v>
+        <v>0.18951486497810319</v>
       </c>
       <c r="U13">
-        <v>0.14114969872977745</v>
+        <v>0.19378022843078829</v>
       </c>
       <c r="V13">
-        <v>0.13647566974159259</v>
+        <v>0.18913824308930896</v>
       </c>
       <c r="W13">
-        <v>0.11599415316129086</v>
+        <v>-3.8463226074749723E-3</v>
       </c>
       <c r="X13">
-        <v>-2.6961462379318088E-3</v>
+        <v>1.9541752136296997E-4</v>
       </c>
       <c r="Y13">
-        <v>-0.20870654950559547</v>
+        <v>-0.17521584172208476</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -4595,76 +4596,76 @@
         <v>90</v>
       </c>
       <c r="B14" s="28">
-        <v>-0.13781991042411104</v>
+        <v>0.2867535644992058</v>
       </c>
       <c r="C14">
-        <v>8.270172876976678E-3</v>
+        <v>1.4440825791191339E-2</v>
       </c>
       <c r="D14">
-        <v>-1.6046243935155365E-2</v>
+        <v>-1.4597769225485474E-2</v>
       </c>
       <c r="E14">
-        <v>-3.3167244440372723E-3</v>
+        <v>5.2441726494273158E-3</v>
       </c>
       <c r="F14">
-        <v>-5.9571927191093207E-3</v>
+        <v>-1.6600383072309089E-2</v>
       </c>
       <c r="G14">
-        <v>7.5495253552309571E-3</v>
+        <v>1.6070337363201723E-2</v>
       </c>
       <c r="H14">
-        <v>1.1583515079843926E-3</v>
+        <v>-2.2404681610428967E-3</v>
       </c>
       <c r="I14">
-        <v>3.9275171997395331E-2</v>
+        <v>6.2961990483366981E-2</v>
       </c>
       <c r="J14">
-        <v>1.0888739948411164E-3</v>
+        <v>2.2445298234975639E-3</v>
       </c>
       <c r="K14">
-        <v>-1.0779516239298311E-4</v>
+        <v>6.9153602464497297E-5</v>
       </c>
       <c r="L14">
-        <v>0.14094288062056839</v>
+        <v>0.19201225703033936</v>
       </c>
       <c r="M14">
-        <v>0.13928066022962149</v>
+        <v>0.19048341310705832</v>
       </c>
       <c r="N14">
-        <v>0.1385266821729628</v>
+        <v>0.19105742845284895</v>
       </c>
       <c r="O14">
-        <v>0.26155900867685528</v>
+        <v>0.36165162451999261</v>
       </c>
       <c r="P14">
-        <v>0.13691225119399403</v>
+        <v>0.18890838919191932</v>
       </c>
       <c r="Q14">
-        <v>0.1385482042308436</v>
+        <v>0.1895765035698575</v>
       </c>
       <c r="R14">
-        <v>0.14042672140561174</v>
+        <v>0.19360537668002203</v>
       </c>
       <c r="S14">
-        <v>0.14056313354411173</v>
+        <v>0.19374826294765113</v>
       </c>
       <c r="T14">
-        <v>0.13872615122187681</v>
+        <v>0.19148534418381091</v>
       </c>
       <c r="U14">
-        <v>0.14267622226087329</v>
+        <v>0.19500797028035471</v>
       </c>
       <c r="V14">
-        <v>0.13893919841289901</v>
+        <v>0.19102095956629414</v>
       </c>
       <c r="W14">
-        <v>-0.42615256513551447</v>
+        <v>-0.72233406193415584</v>
       </c>
       <c r="X14">
-        <v>9.8289830290368783E-3</v>
+        <v>1.6125037368900481E-2</v>
       </c>
       <c r="Y14">
-        <v>0.14522530054084687</v>
+        <v>0.29295095846103436</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -4672,76 +4673,76 @@
         <v>91</v>
       </c>
       <c r="B15" s="28">
-        <v>0.16923685457527518</v>
+        <v>0.38409203980643469</v>
       </c>
       <c r="C15">
-        <v>3.6326346137162159E-3</v>
+        <v>5.6513204836884101E-3</v>
       </c>
       <c r="D15">
-        <v>-2.8788524312352917E-3</v>
+        <v>-5.6020297237818761E-4</v>
       </c>
       <c r="E15">
-        <v>1.7582866181414109E-4</v>
+        <v>6.0858907004433943E-3</v>
       </c>
       <c r="F15">
-        <v>2.9973889028888333E-4</v>
+        <v>-1.1956730471953461E-2</v>
       </c>
       <c r="G15">
-        <v>2.1976760475354851E-3</v>
+        <v>1.0705885560449435E-2</v>
       </c>
       <c r="H15">
-        <v>2.4397538701321914E-3</v>
+        <v>-2.8561636157380249E-3</v>
       </c>
       <c r="I15">
-        <v>4.0937706280476521E-2</v>
+        <v>7.0303442078546108E-2</v>
       </c>
       <c r="J15">
-        <v>-4.5297912090492068E-4</v>
+        <v>-1.3761566682159027E-3</v>
       </c>
       <c r="K15">
-        <v>-1.0186499461616767E-3</v>
+        <v>1.0561772035569227E-4</v>
       </c>
       <c r="L15">
-        <v>0.13642524629259536</v>
+        <v>0.18690227805592691</v>
       </c>
       <c r="M15">
-        <v>0.13547065851406515</v>
+        <v>0.18555552805839842</v>
       </c>
       <c r="N15">
-        <v>0.13549594227647477</v>
+        <v>0.18668192997179056</v>
       </c>
       <c r="O15">
-        <v>0.13691225119399403</v>
+        <v>0.18890838919191932</v>
       </c>
       <c r="P15">
-        <v>0.2450004729428375</v>
+        <v>0.32667008326638342</v>
       </c>
       <c r="Q15">
-        <v>0.13604909093253664</v>
+        <v>0.18641514136237708</v>
       </c>
       <c r="R15">
-        <v>0.13647920357151694</v>
+        <v>0.18686687378306654</v>
       </c>
       <c r="S15">
-        <v>0.13700805709483871</v>
+        <v>0.18798826283785347</v>
       </c>
       <c r="T15">
-        <v>0.13557253126474933</v>
+        <v>0.18694342026590494</v>
       </c>
       <c r="U15">
-        <v>0.13804336856311111</v>
+        <v>0.18815583397774779</v>
       </c>
       <c r="V15">
-        <v>0.13505269994242194</v>
+        <v>0.18679119950985817</v>
       </c>
       <c r="W15">
-        <v>-0.11509244332893384</v>
+        <v>-0.60702832070221002</v>
       </c>
       <c r="X15">
-        <v>3.3610853237174112E-3</v>
+        <v>1.3925104862851095E-2</v>
       </c>
       <c r="Y15">
-        <v>-6.5207608733103981E-2</v>
+        <v>0.21857776684485214</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -4749,76 +4750,76 @@
         <v>92</v>
       </c>
       <c r="B16" s="28">
-        <v>-0.14049531099382473</v>
+        <v>0.42849320408399871</v>
       </c>
       <c r="C16">
-        <v>4.6511656485942153E-3</v>
+        <v>1.9766776784912593E-3</v>
       </c>
       <c r="D16">
-        <v>-8.2247944361459879E-3</v>
+        <v>-6.2085119454594606E-3</v>
       </c>
       <c r="E16">
-        <v>2.6732900577197682E-4</v>
+        <v>1.0366089694286873E-2</v>
       </c>
       <c r="F16">
-        <v>-7.9732776127569259E-3</v>
+        <v>-6.6405122162020956E-3</v>
       </c>
       <c r="G16">
-        <v>8.0673847068077967E-3</v>
+        <v>1.7384254433432625E-2</v>
       </c>
       <c r="H16">
-        <v>1.0944915455193931E-3</v>
+        <v>-1.531864003406741E-3</v>
       </c>
       <c r="I16">
-        <v>4.2429339555317164E-2</v>
+        <v>5.3631581734316036E-2</v>
       </c>
       <c r="J16">
-        <v>1.4143056169158182E-3</v>
+        <v>2.2121249963394374E-4</v>
       </c>
       <c r="K16">
-        <v>8.6987516164464644E-5</v>
+        <v>1.2934305696620874E-4</v>
       </c>
       <c r="L16">
-        <v>0.13785851985849451</v>
+        <v>0.18776297744623732</v>
       </c>
       <c r="M16">
-        <v>0.1369075191779808</v>
+        <v>0.1869722229027129</v>
       </c>
       <c r="N16">
-        <v>0.13704354491561083</v>
+        <v>0.18681883557334117</v>
       </c>
       <c r="O16">
-        <v>0.1385482042308436</v>
+        <v>0.1895765035698575</v>
       </c>
       <c r="P16">
-        <v>0.13604909093253664</v>
+        <v>0.18641514136237708</v>
       </c>
       <c r="Q16">
-        <v>0.22728092440897288</v>
+        <v>0.29391504697790449</v>
       </c>
       <c r="R16">
-        <v>0.13872974830375762</v>
+        <v>0.18993363646523581</v>
       </c>
       <c r="S16">
-        <v>0.13838720315095043</v>
+        <v>0.18979718142853658</v>
       </c>
       <c r="T16">
-        <v>0.13655551316437087</v>
+        <v>0.1874719901067915</v>
       </c>
       <c r="U16">
-        <v>0.13856897922970421</v>
+        <v>0.18877084444502645</v>
       </c>
       <c r="V16">
-        <v>0.13636254026823591</v>
+        <v>0.18791263205542014</v>
       </c>
       <c r="W16">
-        <v>6.5764027832735036E-2</v>
+        <v>-8.2335548991857022E-3</v>
       </c>
       <c r="X16">
-        <v>-1.6946303186395916E-3</v>
+        <v>-2.0717033716601083E-4</v>
       </c>
       <c r="Y16">
-        <v>-0.17588469911021309</v>
+        <v>-0.17635087517557402</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -4826,76 +4827,76 @@
         <v>93</v>
       </c>
       <c r="B17" s="28">
-        <v>-0.22188335905556267</v>
+        <v>-4.0235902478336694E-2</v>
       </c>
       <c r="C17">
-        <v>3.9272257873377067E-3</v>
+        <v>4.6846492494128228E-3</v>
       </c>
       <c r="D17">
-        <v>-1.2361470457209763E-2</v>
+        <v>-1.6382424858995062E-2</v>
       </c>
       <c r="E17">
-        <v>8.5844585569955917E-4</v>
+        <v>5.2912155902574247E-3</v>
       </c>
       <c r="F17">
-        <v>-1.0658843709390076E-2</v>
+        <v>-7.9437022184900979E-3</v>
       </c>
       <c r="G17">
-        <v>2.6863390895296373E-2</v>
+        <v>3.8423704110529359E-2</v>
       </c>
       <c r="H17">
-        <v>2.4723807910925419E-3</v>
+        <v>-2.4729128864216798E-3</v>
       </c>
       <c r="I17">
-        <v>3.9718345080824641E-2</v>
+        <v>6.4125504081869567E-2</v>
       </c>
       <c r="J17">
-        <v>3.354013412493825E-3</v>
+        <v>2.8940153707164608E-3</v>
       </c>
       <c r="K17">
-        <v>4.6777039952655523E-4</v>
+        <v>1.8961697431795946E-5</v>
       </c>
       <c r="L17">
-        <v>0.13952857491760662</v>
+        <v>0.19080537975914158</v>
       </c>
       <c r="M17">
-        <v>0.13884507419325101</v>
+        <v>0.18962668184200676</v>
       </c>
       <c r="N17">
-        <v>0.13835143647315257</v>
+        <v>0.18975200989035329</v>
       </c>
       <c r="O17">
-        <v>0.14042672140561174</v>
+        <v>0.19360537668002203</v>
       </c>
       <c r="P17">
-        <v>0.13647920357151694</v>
+        <v>0.18686687378306654</v>
       </c>
       <c r="Q17">
-        <v>0.13872974830375762</v>
+        <v>0.18993363646523581</v>
       </c>
       <c r="R17">
-        <v>0.21114807163570892</v>
+        <v>0.28225608280083775</v>
       </c>
       <c r="S17">
-        <v>0.14091502804559528</v>
+        <v>0.19411522269911713</v>
       </c>
       <c r="T17">
-        <v>0.13844860634705738</v>
+        <v>0.19029165437604778</v>
       </c>
       <c r="U17">
-        <v>0.14072479685219674</v>
+        <v>0.19365518163494377</v>
       </c>
       <c r="V17">
-        <v>0.13805389812207758</v>
+        <v>0.1901526002252997</v>
       </c>
       <c r="W17">
-        <v>5.7515752855614943E-2</v>
+        <v>9.7789982217011684E-2</v>
       </c>
       <c r="X17">
-        <v>-1.8835040584636656E-3</v>
+        <v>-3.8038996083055695E-3</v>
       </c>
       <c r="Y17">
-        <v>-0.17243155637274582</v>
+        <v>-0.23360105990890823</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -4903,76 +4904,76 @@
         <v>94</v>
       </c>
       <c r="B18" s="28">
-        <v>-0.24808631643640941</v>
+        <v>9.5244657500010946E-2</v>
       </c>
       <c r="C18">
-        <v>9.0164703008346822E-3</v>
+        <v>1.2686614753749284E-2</v>
       </c>
       <c r="D18">
-        <v>-1.136685627626529E-2</v>
+        <v>-1.1485756972139591E-2</v>
       </c>
       <c r="E18">
-        <v>-1.4058153812108454E-3</v>
+        <v>5.5514772783760852E-3</v>
       </c>
       <c r="F18">
-        <v>-9.3217748714856039E-3</v>
+        <v>-1.1219747640836412E-2</v>
       </c>
       <c r="G18">
-        <v>2.1122285969539918E-2</v>
+        <v>3.2754378936420261E-2</v>
       </c>
       <c r="H18">
-        <v>2.218659369730442E-3</v>
+        <v>9.2166909737528835E-4</v>
       </c>
       <c r="I18">
-        <v>4.1173819527528743E-2</v>
+        <v>6.8856750884901341E-2</v>
       </c>
       <c r="J18">
-        <v>1.1557299792795024E-3</v>
+        <v>1.9301016037318944E-3</v>
       </c>
       <c r="K18">
-        <v>2.8249183400097175E-4</v>
+        <v>8.1360577123522007E-5</v>
       </c>
       <c r="L18">
-        <v>0.13961045589861248</v>
+        <v>0.19073318105157361</v>
       </c>
       <c r="M18">
-        <v>0.13827271145221542</v>
+        <v>0.18929820658552521</v>
       </c>
       <c r="N18">
-        <v>0.13905906835222076</v>
+        <v>0.19042554188087848</v>
       </c>
       <c r="O18">
-        <v>0.14056313354411173</v>
+        <v>0.19374826294765113</v>
       </c>
       <c r="P18">
-        <v>0.13700805709483871</v>
+        <v>0.18798826283785347</v>
       </c>
       <c r="Q18">
-        <v>0.13838720315095043</v>
+        <v>0.18979718142853658</v>
       </c>
       <c r="R18">
-        <v>0.14091502804559528</v>
+        <v>0.19411522269911713</v>
       </c>
       <c r="S18">
-        <v>0.23041000744837092</v>
+        <v>0.31453233268032837</v>
       </c>
       <c r="T18">
-        <v>0.13859671052132089</v>
+        <v>0.19152767443232441</v>
       </c>
       <c r="U18">
-        <v>0.14205117081678353</v>
+        <v>0.19422897558934643</v>
       </c>
       <c r="V18">
-        <v>0.13806272961039726</v>
+        <v>0.18991762436398457</v>
       </c>
       <c r="W18">
-        <v>0.4847821570226748</v>
+        <v>0.66779087699612016</v>
       </c>
       <c r="X18">
-        <v>-1.0843384197784573E-2</v>
+        <v>-1.5832638096922175E-2</v>
       </c>
       <c r="Y18">
-        <v>-0.45761475908321869</v>
+        <v>-0.62132320106729944</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -4980,76 +4981,76 @@
         <v>95</v>
       </c>
       <c r="B19" s="28">
-        <v>-0.2496338898015889</v>
+        <v>0.34709555193946529</v>
       </c>
       <c r="C19">
-        <v>4.677629974442446E-3</v>
+        <v>1.0761750685467711E-2</v>
       </c>
       <c r="D19">
-        <v>-1.4576270915288583E-2</v>
+        <v>-1.7701984247219638E-2</v>
       </c>
       <c r="E19">
-        <v>-7.890926965583106E-3</v>
+        <v>-4.6745526778994434E-3</v>
       </c>
       <c r="F19">
-        <v>-6.3383861452735828E-3</v>
+        <v>-9.9687609496605708E-3</v>
       </c>
       <c r="G19">
-        <v>1.1381805881844204E-2</v>
+        <v>2.6220920390710695E-2</v>
       </c>
       <c r="H19">
-        <v>5.0724609843613572E-3</v>
+        <v>2.5447735050496134E-4</v>
       </c>
       <c r="I19">
-        <v>1.9657391728534201E-2</v>
+        <v>2.7564447175786766E-2</v>
       </c>
       <c r="J19">
-        <v>9.1289437508450255E-4</v>
+        <v>-1.1267893663378242E-3</v>
       </c>
       <c r="K19">
-        <v>5.768544494111922E-4</v>
+        <v>8.6534115583630241E-5</v>
       </c>
       <c r="L19">
-        <v>0.13788649388700666</v>
+        <v>0.18962159228676551</v>
       </c>
       <c r="M19">
-        <v>0.13729894599220865</v>
+        <v>0.18730787262394169</v>
       </c>
       <c r="N19">
-        <v>0.13714168558349824</v>
+        <v>0.18951486497810319</v>
       </c>
       <c r="O19">
-        <v>0.13872615122187681</v>
+        <v>0.19148534418381091</v>
       </c>
       <c r="P19">
-        <v>0.13557253126474933</v>
+        <v>0.18694342026590494</v>
       </c>
       <c r="Q19">
-        <v>0.13655551316437087</v>
+        <v>0.1874719901067915</v>
       </c>
       <c r="R19">
-        <v>0.13844860634705738</v>
+        <v>0.19029165437604778</v>
       </c>
       <c r="S19">
-        <v>0.13859671052132089</v>
+        <v>0.19152767443232441</v>
       </c>
       <c r="T19">
-        <v>0.33195554264354493</v>
+        <v>0.47243144039235108</v>
       </c>
       <c r="U19">
-        <v>0.14043637006728496</v>
+        <v>0.19447906190870481</v>
       </c>
       <c r="V19">
-        <v>0.13798798732221448</v>
+        <v>0.19023273428014406</v>
       </c>
       <c r="W19">
-        <v>0.1049260683066425</v>
+        <v>-4.1617124731729682E-2</v>
       </c>
       <c r="X19">
-        <v>-1.716221360690487E-3</v>
+        <v>1.7547418374308104E-3</v>
       </c>
       <c r="Y19">
-        <v>-0.21164515906158132</v>
+        <v>-0.15836539069987138</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -5057,76 +5058,76 @@
         <v>96</v>
       </c>
       <c r="B20" s="28">
-        <v>-0.23703830407842028</v>
+        <v>1.3450726515789881E-2</v>
       </c>
       <c r="C20">
-        <v>1.7802789660290051E-2</v>
+        <v>3.0078683257696727E-2</v>
       </c>
       <c r="D20">
-        <v>-2.0700040476634624E-2</v>
+        <v>-2.5915912104090617E-2</v>
       </c>
       <c r="E20">
-        <v>-9.9409563042813995E-3</v>
+        <v>-8.8346045426468747E-3</v>
       </c>
       <c r="F20">
-        <v>-2.7404599490629573E-3</v>
+        <v>-8.4462357562314939E-3</v>
       </c>
       <c r="G20">
-        <v>1.4355189390636861E-2</v>
+        <v>2.3804769729267136E-2</v>
       </c>
       <c r="H20">
-        <v>6.3329104904553297E-3</v>
+        <v>5.1830568021328516E-3</v>
       </c>
       <c r="I20">
-        <v>4.3251802117939608E-2</v>
+        <v>6.9694960238182668E-2</v>
       </c>
       <c r="J20">
-        <v>-1.2741078469166167E-3</v>
+        <v>-2.8450322456401028E-3</v>
       </c>
       <c r="K20">
-        <v>-3.3581427123569908E-4</v>
+        <v>-1.9968931484756918E-5</v>
       </c>
       <c r="L20">
-        <v>0.14261457446171158</v>
+        <v>0.19408478138086677</v>
       </c>
       <c r="M20">
-        <v>0.13976709720897484</v>
+        <v>0.19027875301512884</v>
       </c>
       <c r="N20">
-        <v>0.14114969872977745</v>
+        <v>0.19378022843078829</v>
       </c>
       <c r="O20">
-        <v>0.14267622226087329</v>
+        <v>0.19500797028035471</v>
       </c>
       <c r="P20">
-        <v>0.13804336856311111</v>
+        <v>0.18815583397774779</v>
       </c>
       <c r="Q20">
-        <v>0.13856897922970421</v>
+        <v>0.18877084444502645</v>
       </c>
       <c r="R20">
-        <v>0.14072479685219674</v>
+        <v>0.19365518163494377</v>
       </c>
       <c r="S20">
-        <v>0.14205117081678353</v>
+        <v>0.19422897558934643</v>
       </c>
       <c r="T20">
-        <v>0.14043637006728496</v>
+        <v>0.19447906190870481</v>
       </c>
       <c r="U20">
-        <v>0.29594824973281159</v>
+        <v>0.39266768298086474</v>
       </c>
       <c r="V20">
-        <v>0.13869640789632268</v>
+        <v>0.19090255234737857</v>
       </c>
       <c r="W20">
-        <v>0.21760313856555041</v>
+        <v>0.22346771741558402</v>
       </c>
       <c r="X20">
-        <v>-5.4010660469046672E-3</v>
+        <v>-6.7519442816171248E-3</v>
       </c>
       <c r="Y20">
-        <v>-0.26433693905838362</v>
+        <v>-0.29443021758590893</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -5134,76 +5135,76 @@
         <v>97</v>
       </c>
       <c r="B21" s="28">
-        <v>-0.37214961042727246</v>
+        <v>0.19891318272947825</v>
       </c>
       <c r="C21">
-        <v>6.3206753664585905E-3</v>
+        <v>9.23838811834507E-3</v>
       </c>
       <c r="D21">
-        <v>-1.1480691743811389E-2</v>
+        <v>-1.2049797758661496E-2</v>
       </c>
       <c r="E21">
-        <v>-7.4874865499970356E-3</v>
+        <v>3.2369187177399145E-3</v>
       </c>
       <c r="F21">
-        <v>-6.8614152929517072E-3</v>
+        <v>2.3106493170582665E-5</v>
       </c>
       <c r="G21">
-        <v>6.2169779290617289E-3</v>
+        <v>1.2762979654432599E-2</v>
       </c>
       <c r="H21">
-        <v>-5.386090787335443E-3</v>
+        <v>-7.8847001118066973E-3</v>
       </c>
       <c r="I21">
-        <v>3.7901231694003723E-2</v>
+        <v>6.8159608276641359E-2</v>
       </c>
       <c r="J21">
-        <v>1.5356764501257836E-3</v>
+        <v>-1.2180361960801023E-3</v>
       </c>
       <c r="K21">
-        <v>6.4430694030079803E-4</v>
+        <v>1.5171193759525069E-4</v>
       </c>
       <c r="L21">
-        <v>0.13833042090879705</v>
+        <v>0.19010985351486348</v>
       </c>
       <c r="M21">
-        <v>0.13888971722945245</v>
+        <v>0.18985528984816238</v>
       </c>
       <c r="N21">
-        <v>0.13647566974159259</v>
+        <v>0.18913824308930896</v>
       </c>
       <c r="O21">
-        <v>0.13893919841289901</v>
+        <v>0.19102095956629414</v>
       </c>
       <c r="P21">
-        <v>0.13505269994242194</v>
+        <v>0.18679119950985817</v>
       </c>
       <c r="Q21">
-        <v>0.13636254026823591</v>
+        <v>0.18791263205542014</v>
       </c>
       <c r="R21">
-        <v>0.13805389812207758</v>
+        <v>0.1901526002252997</v>
       </c>
       <c r="S21">
-        <v>0.13806272961039726</v>
+        <v>0.18991762436398457</v>
       </c>
       <c r="T21">
-        <v>0.13798798732221448</v>
+        <v>0.19023273428014406</v>
       </c>
       <c r="U21">
-        <v>0.13869640789632268</v>
+        <v>0.19090255234737857</v>
       </c>
       <c r="V21">
-        <v>0.28520797104145335</v>
+        <v>0.42004500264454547</v>
       </c>
       <c r="W21">
-        <v>-0.48756932160776489</v>
+        <v>-0.63181997319708749</v>
       </c>
       <c r="X21">
-        <v>1.2286298802938333E-2</v>
+        <v>1.5853738601201622E-2</v>
       </c>
       <c r="Y21">
-        <v>0.16985752770684215</v>
+        <v>0.21094408675263757</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -5211,76 +5212,76 @@
         <v>145</v>
       </c>
       <c r="B22" s="28">
-        <v>42.179682434095078</v>
+        <v>50.145408985199175</v>
       </c>
       <c r="C22">
-        <v>-0.12859751300421518</v>
+        <v>-0.49909184781068894</v>
       </c>
       <c r="D22">
-        <v>0.1770734298214712</v>
+        <v>0.30259720862195666</v>
       </c>
       <c r="E22">
-        <v>6.2142406410686524E-3</v>
+        <v>0.17187058027941179</v>
       </c>
       <c r="F22">
-        <v>-9.4748967033658829E-3</v>
+        <v>-3.7449364467653252E-3</v>
       </c>
       <c r="G22">
-        <v>0.44835790866042852</v>
+        <v>0.67520338388582224</v>
       </c>
       <c r="H22">
-        <v>0.16581199600601518</v>
+        <v>0.19026725533048905</v>
       </c>
       <c r="I22">
-        <v>0.80297652089649851</v>
+        <v>1.243657955007619</v>
       </c>
       <c r="J22">
-        <v>9.732603082362172E-2</v>
+        <v>0.1487602517616321</v>
       </c>
       <c r="K22">
-        <v>4.3378494090640981E-3</v>
+        <v>-1.1724764118938046E-3</v>
       </c>
       <c r="L22">
-        <v>-3.7503386531868715E-2</v>
+        <v>7.0786223483476102E-2</v>
       </c>
       <c r="M22">
-        <v>-0.47629053572111707</v>
+        <v>-0.72606337747770833</v>
       </c>
       <c r="N22">
-        <v>0.11599415316129086</v>
+        <v>-3.8463226074749723E-3</v>
       </c>
       <c r="O22">
-        <v>-0.42615256513551447</v>
+        <v>-0.72233406193415584</v>
       </c>
       <c r="P22">
-        <v>-0.11509244332893384</v>
+        <v>-0.60702832070221002</v>
       </c>
       <c r="Q22">
-        <v>6.5764027832735036E-2</v>
+        <v>-8.2335548991857022E-3</v>
       </c>
       <c r="R22">
-        <v>5.7515752855614943E-2</v>
+        <v>9.7789982217011684E-2</v>
       </c>
       <c r="S22">
-        <v>0.4847821570226748</v>
+        <v>0.66779087699612016</v>
       </c>
       <c r="T22">
-        <v>0.1049260683066425</v>
+        <v>-4.1617124731729682E-2</v>
       </c>
       <c r="U22">
-        <v>0.21760313856555041</v>
+        <v>0.22346771741558402</v>
       </c>
       <c r="V22">
-        <v>-0.48756932160776489</v>
+        <v>-0.63181997319708749</v>
       </c>
       <c r="W22">
-        <v>552.37737274383687</v>
+        <v>697.40510602159395</v>
       </c>
       <c r="X22">
-        <v>-12.573855322478787</v>
+        <v>-15.883347604547385</v>
       </c>
       <c r="Y22">
-        <v>-363.25255138877515</v>
+        <v>-458.43589242199107</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -5288,76 +5289,76 @@
         <v>141</v>
       </c>
       <c r="B23" s="28">
-        <v>-1.011127669650139</v>
+        <v>-1.2169192910445317</v>
       </c>
       <c r="C23">
-        <v>1.2878847130870961E-3</v>
+        <v>9.4308232184674781E-3</v>
       </c>
       <c r="D23">
-        <v>-3.5638620644135198E-3</v>
+        <v>-5.8798245187188123E-3</v>
       </c>
       <c r="E23">
-        <v>6.7409750167927432E-4</v>
+        <v>-3.0855420892277148E-3</v>
       </c>
       <c r="F23">
-        <v>-4.3509181755516579E-4</v>
+        <v>-2.5863207909175687E-4</v>
       </c>
       <c r="G23">
-        <v>-9.0805752208120514E-3</v>
+        <v>-1.2753389154642867E-2</v>
       </c>
       <c r="H23">
-        <v>-3.7589510799761962E-3</v>
+        <v>-4.427860264708228E-3</v>
       </c>
       <c r="I23">
-        <v>-1.6209879001932173E-2</v>
+        <v>-2.4206046454630925E-2</v>
       </c>
       <c r="J23">
-        <v>-2.2591520193440697E-3</v>
+        <v>-3.5649193954222919E-3</v>
       </c>
       <c r="K23">
-        <v>-5.9376932972964031E-5</v>
+        <v>2.4345436624344039E-5</v>
       </c>
       <c r="L23">
-        <v>-5.9653397388223939E-4</v>
+        <v>-3.5332025381847299E-3</v>
       </c>
       <c r="M23">
-        <v>1.127844940061358E-2</v>
+        <v>1.5715366747501732E-2</v>
       </c>
       <c r="N23">
-        <v>-2.6961462379318088E-3</v>
+        <v>1.9541752136296997E-4</v>
       </c>
       <c r="O23">
-        <v>9.8289830290368783E-3</v>
+        <v>1.6125037368900481E-2</v>
       </c>
       <c r="P23">
-        <v>3.3610853237174112E-3</v>
+        <v>1.3925104862851095E-2</v>
       </c>
       <c r="Q23">
-        <v>-1.6946303186395916E-3</v>
+        <v>-2.0717033716601083E-4</v>
       </c>
       <c r="R23">
-        <v>-1.8835040584636656E-3</v>
+        <v>-3.8038996083055695E-3</v>
       </c>
       <c r="S23">
-        <v>-1.0843384197784573E-2</v>
+        <v>-1.5832638096922175E-2</v>
       </c>
       <c r="T23">
-        <v>-1.716221360690487E-3</v>
+        <v>1.7547418374308104E-3</v>
       </c>
       <c r="U23">
-        <v>-5.4010660469046672E-3</v>
+        <v>-6.7519442816171248E-3</v>
       </c>
       <c r="V23">
-        <v>1.2286298802938333E-2</v>
+        <v>1.5853738601201622E-2</v>
       </c>
       <c r="W23">
-        <v>-12.573855322478787</v>
+        <v>-15.883347604547385</v>
       </c>
       <c r="X23">
-        <v>0.28920828836471713</v>
+        <v>0.36558256194946082</v>
       </c>
       <c r="Y23">
-        <v>8.2279481890129098</v>
+        <v>10.38903520851577</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -5365,76 +5366,76 @@
         <v>29</v>
       </c>
       <c r="B24" s="28">
-        <v>-23.28697614320123</v>
+        <v>-28.366486641942963</v>
       </c>
       <c r="C24">
-        <v>0.10062466744780638</v>
+        <v>0.35850112933657174</v>
       </c>
       <c r="D24">
-        <v>-0.16574530152585606</v>
+        <v>-0.26976885796582967</v>
       </c>
       <c r="E24">
-        <v>-8.186503916477611E-2</v>
+        <v>-0.21544635656109054</v>
       </c>
       <c r="F24">
-        <v>6.1738594960714238E-3</v>
+        <v>-1.169781030315196E-2</v>
       </c>
       <c r="G24">
-        <v>-0.34254788914150153</v>
+        <v>-0.52783804092838593</v>
       </c>
       <c r="H24">
-        <v>-0.13297975441268098</v>
+        <v>-0.15299354988962166</v>
       </c>
       <c r="I24">
-        <v>-0.61752305240079197</v>
+        <v>-0.94747786620384689</v>
       </c>
       <c r="J24">
-        <v>-8.7895924857041868E-2</v>
+        <v>-0.1270444315462424</v>
       </c>
       <c r="K24">
-        <v>-4.3345736870255723E-3</v>
+        <v>3.3640744664203092E-4</v>
       </c>
       <c r="L24">
-        <v>-8.7450093713317981E-2</v>
+        <v>-0.19332056057601318</v>
       </c>
       <c r="M24">
-        <v>0.16870606570262309</v>
+        <v>0.30241143864756126</v>
       </c>
       <c r="N24">
-        <v>-0.20870654950559547</v>
+        <v>-0.17521584172208476</v>
       </c>
       <c r="O24">
-        <v>0.14522530054084687</v>
+        <v>0.29295095846103436</v>
       </c>
       <c r="P24">
-        <v>-6.5207608733103981E-2</v>
+        <v>0.21857776684485214</v>
       </c>
       <c r="Q24">
-        <v>-0.17588469911021309</v>
+        <v>-0.17635087517557402</v>
       </c>
       <c r="R24">
-        <v>-0.17243155637274582</v>
+        <v>-0.23360105990890823</v>
       </c>
       <c r="S24">
-        <v>-0.45761475908321869</v>
+        <v>-0.62132320106729944</v>
       </c>
       <c r="T24">
-        <v>-0.21164515906158132</v>
+        <v>-0.15836539069987138</v>
       </c>
       <c r="U24">
-        <v>-0.26433693905838362</v>
+        <v>-0.29443021758590893</v>
       </c>
       <c r="V24">
-        <v>0.16985752770684215</v>
+        <v>0.21094408675263757</v>
       </c>
       <c r="W24">
-        <v>-363.25255138877515</v>
+        <v>-458.43589242199107</v>
       </c>
       <c r="X24">
-        <v>8.2279481890129098</v>
+        <v>10.38903520851577</v>
       </c>
       <c r="Y24">
-        <v>239.70960398760809</v>
+        <v>302.41363316006527</v>
       </c>
     </row>
   </sheetData>
@@ -5446,7 +5447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6790290-45A4-4DB4-B610-7B89AD61C200}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAB749-E613-49AC-9C37-B9A8896CB82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD0F82A-DFD3-44F6-8B77-2882BA0C24A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="852" firstSheet="5" activeTab="10" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="852" firstSheet="9" activeTab="15" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -25,19 +25,23 @@
     <sheet name="UK_I3c" sheetId="27" r:id="rId10"/>
     <sheet name="UK_I4a" sheetId="35" r:id="rId11"/>
     <sheet name="UK_I4b" sheetId="36" r:id="rId12"/>
-    <sheet name="IT_I3a_selection" sheetId="30" r:id="rId13"/>
-    <sheet name="IT_I3b_selection" sheetId="32" r:id="rId14"/>
-    <sheet name="IT_I3a" sheetId="22" r:id="rId15"/>
-    <sheet name="IT_I3b" sheetId="23" r:id="rId16"/>
-    <sheet name="IT_I3c" sheetId="24" r:id="rId17"/>
-    <sheet name="UK_Process I1a" sheetId="12" r:id="rId18"/>
-    <sheet name="UK_Process I1b" sheetId="13" r:id="rId19"/>
-    <sheet name="UK_Process I1a - In educ VC" sheetId="14" r:id="rId20"/>
-    <sheet name="UK_Process I1b - Not in educ VC" sheetId="15" r:id="rId21"/>
-    <sheet name="IT_Process I1a" sheetId="16" r:id="rId22"/>
-    <sheet name="IT_Process I1b" sheetId="17" r:id="rId23"/>
-    <sheet name="IT Process I1a VCE" sheetId="28" r:id="rId24"/>
-    <sheet name="IT Process I1b VCE" sheetId="29" r:id="rId25"/>
+    <sheet name="UK_I5a_selection" sheetId="37" r:id="rId13"/>
+    <sheet name="UK_I5b_amount" sheetId="38" r:id="rId14"/>
+    <sheet name="UK_I6a_selection" sheetId="39" r:id="rId15"/>
+    <sheet name="UK_I6b_amount" sheetId="41" r:id="rId16"/>
+    <sheet name="IT_I3a_selection" sheetId="30" r:id="rId17"/>
+    <sheet name="IT_I3b_selection" sheetId="32" r:id="rId18"/>
+    <sheet name="IT_I3a" sheetId="22" r:id="rId19"/>
+    <sheet name="IT_I3b" sheetId="23" r:id="rId20"/>
+    <sheet name="IT_I3c" sheetId="24" r:id="rId21"/>
+    <sheet name="UK_Process I1a" sheetId="12" r:id="rId22"/>
+    <sheet name="UK_Process I1b" sheetId="13" r:id="rId23"/>
+    <sheet name="UK_Process I1a - In educ VC" sheetId="14" r:id="rId24"/>
+    <sheet name="UK_Process I1b - Not in educ VC" sheetId="15" r:id="rId25"/>
+    <sheet name="IT_Process I1a" sheetId="16" r:id="rId26"/>
+    <sheet name="IT_Process I1b" sheetId="17" r:id="rId27"/>
+    <sheet name="IT Process I1a VCE" sheetId="28" r:id="rId28"/>
+    <sheet name="IT Process I1b VCE" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="148">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -498,6 +502,9 @@
   </si>
   <si>
     <t>L1_hourly_wage</t>
+  </si>
+  <si>
+    <t>RealWageGrowth</t>
   </si>
 </sst>
 </file>
@@ -3582,7 +3589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C8444-64E3-46A6-8707-99C15C89A426}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7461,6 +7468,6894 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C2E849-502C-4818-A96C-18EB09FB1CE0}">
+  <dimension ref="A1:Y24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>0.28084732301452725</v>
+      </c>
+      <c r="C2">
+        <v>3.7599594254189399E-2</v>
+      </c>
+      <c r="D2">
+        <v>-2.1849729513359261E-3</v>
+      </c>
+      <c r="E2">
+        <v>-3.387270817931257E-3</v>
+      </c>
+      <c r="F2">
+        <v>-8.2805382637603613E-3</v>
+      </c>
+      <c r="G2">
+        <v>3.1103378244956258E-3</v>
+      </c>
+      <c r="H2">
+        <v>-1.2211704010586578E-3</v>
+      </c>
+      <c r="I2">
+        <v>-8.2714264448791605E-4</v>
+      </c>
+      <c r="J2">
+        <v>-6.5756953258593672E-4</v>
+      </c>
+      <c r="K2">
+        <v>-2.2530107267794432E-5</v>
+      </c>
+      <c r="L2">
+        <v>4.8964533065653229E-3</v>
+      </c>
+      <c r="M2">
+        <v>2.3522190312631969E-3</v>
+      </c>
+      <c r="N2">
+        <v>5.4469044095730897E-3</v>
+      </c>
+      <c r="O2">
+        <v>4.5770881405105754E-3</v>
+      </c>
+      <c r="P2">
+        <v>1.2250329418366287E-3</v>
+      </c>
+      <c r="Q2">
+        <v>7.1088114716593744E-4</v>
+      </c>
+      <c r="R2">
+        <v>2.2226671732321016E-3</v>
+      </c>
+      <c r="S2">
+        <v>4.5626310998825555E-3</v>
+      </c>
+      <c r="T2">
+        <v>4.0420603737897354E-3</v>
+      </c>
+      <c r="U2">
+        <v>9.6470483071662769E-3</v>
+      </c>
+      <c r="V2">
+        <v>2.5184874906066766E-3</v>
+      </c>
+      <c r="W2">
+        <v>-2.5700323725217272E-2</v>
+      </c>
+      <c r="X2">
+        <v>-6.1583796690698302E-4</v>
+      </c>
+      <c r="Y2">
+        <v>3.5077609725710904E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>-0.31730312421355017</v>
+      </c>
+      <c r="C3">
+        <v>-2.1849729513359261E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.9707290692820666E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.0476553524482931E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.0728596789063641E-4</v>
+      </c>
+      <c r="G3">
+        <v>2.6360080235925715E-3</v>
+      </c>
+      <c r="H3">
+        <v>-1.4494437951383455E-3</v>
+      </c>
+      <c r="I3">
+        <v>1.1399324281143781E-2</v>
+      </c>
+      <c r="J3">
+        <v>7.662385248566573E-4</v>
+      </c>
+      <c r="K3">
+        <v>8.580359473102302E-5</v>
+      </c>
+      <c r="L3">
+        <v>-5.0637945000191545E-3</v>
+      </c>
+      <c r="M3">
+        <v>-4.5480657696435169E-3</v>
+      </c>
+      <c r="N3">
+        <v>-4.3565644157479728E-3</v>
+      </c>
+      <c r="O3">
+        <v>-5.8442826121490599E-3</v>
+      </c>
+      <c r="P3">
+        <v>-2.6908312161685356E-4</v>
+      </c>
+      <c r="Q3">
+        <v>-2.330906949361878E-3</v>
+      </c>
+      <c r="R3">
+        <v>-5.1329399491004922E-3</v>
+      </c>
+      <c r="S3">
+        <v>-4.1870374570760482E-3</v>
+      </c>
+      <c r="T3">
+        <v>-6.6733357624621827E-3</v>
+      </c>
+      <c r="U3">
+        <v>-8.9577997707501692E-3</v>
+      </c>
+      <c r="V3">
+        <v>-5.1895909201246301E-3</v>
+      </c>
+      <c r="W3">
+        <v>2.9892470585877698E-2</v>
+      </c>
+      <c r="X3">
+        <v>3.4455705572551296E-4</v>
+      </c>
+      <c r="Y3">
+        <v>-5.3593322114958639E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>-0.68735547000274011</v>
+      </c>
+      <c r="C4">
+        <v>-3.387270817931257E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.0476553524482931E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.9903894644392875E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.1157371013883555E-3</v>
+      </c>
+      <c r="G4">
+        <v>6.2643185132424586E-3</v>
+      </c>
+      <c r="H4">
+        <v>4.4458765843875461E-4</v>
+      </c>
+      <c r="I4">
+        <v>8.0259989856577112E-3</v>
+      </c>
+      <c r="J4">
+        <v>1.6201368953311097E-3</v>
+      </c>
+      <c r="K4">
+        <v>1.1167412482781351E-4</v>
+      </c>
+      <c r="L4">
+        <v>-3.4460015648853422E-3</v>
+      </c>
+      <c r="M4">
+        <v>-1.7421696256504993E-3</v>
+      </c>
+      <c r="N4">
+        <v>-2.6922751146722448E-3</v>
+      </c>
+      <c r="O4">
+        <v>-2.0028529626171347E-3</v>
+      </c>
+      <c r="P4">
+        <v>-1.0520530000524431E-3</v>
+      </c>
+      <c r="Q4">
+        <v>6.2826077579648289E-4</v>
+      </c>
+      <c r="R4">
+        <v>-8.8953255139460896E-5</v>
+      </c>
+      <c r="S4">
+        <v>1.5132884464965669E-4</v>
+      </c>
+      <c r="T4">
+        <v>-6.2197552678278437E-3</v>
+      </c>
+      <c r="U4">
+        <v>-5.4595926077699673E-3</v>
+      </c>
+      <c r="V4">
+        <v>-2.8215059432800602E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.5552443859094533E-2</v>
+      </c>
+      <c r="X4">
+        <v>2.3456021562854494E-4</v>
+      </c>
+      <c r="Y4">
+        <v>-5.5732769382555052E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>0.65540334241617171</v>
+      </c>
+      <c r="C5">
+        <v>-8.2805382637603613E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.0728596789063641E-4</v>
+      </c>
+      <c r="E5">
+        <v>2.1157371013883555E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.7361112752886614E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.0740592064186882E-4</v>
+      </c>
+      <c r="H5">
+        <v>2.1662393322838223E-3</v>
+      </c>
+      <c r="I5">
+        <v>2.7509186665843409E-3</v>
+      </c>
+      <c r="J5">
+        <v>-2.9195606302096309E-3</v>
+      </c>
+      <c r="K5">
+        <v>-6.2297990867210199E-5</v>
+      </c>
+      <c r="L5">
+        <v>-2.0464348567017848E-3</v>
+      </c>
+      <c r="M5">
+        <v>1.2083686455021357E-4</v>
+      </c>
+      <c r="N5">
+        <v>-2.6695146472361731E-3</v>
+      </c>
+      <c r="O5">
+        <v>-5.4538764644359557E-3</v>
+      </c>
+      <c r="P5">
+        <v>-2.4413193948422379E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-1.3781727071517239E-3</v>
+      </c>
+      <c r="R5">
+        <v>-2.8699791277050513E-3</v>
+      </c>
+      <c r="S5">
+        <v>-3.3492921666001593E-3</v>
+      </c>
+      <c r="T5">
+        <v>-1.9242135119860952E-3</v>
+      </c>
+      <c r="U5">
+        <v>-2.6247409530123153E-3</v>
+      </c>
+      <c r="V5">
+        <v>1.2750482496979056E-3</v>
+      </c>
+      <c r="W5">
+        <v>-2.4364351437088386E-2</v>
+      </c>
+      <c r="X5">
+        <v>9.2908428630843816E-5</v>
+      </c>
+      <c r="Y5">
+        <v>1.6582927248629267E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>-0.22546725703829154</v>
+      </c>
+      <c r="C6">
+        <v>3.1103378244956258E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.6360080235925715E-3</v>
+      </c>
+      <c r="E6">
+        <v>6.2643185132424586E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.0740592064186882E-4</v>
+      </c>
+      <c r="G6">
+        <v>9.9327078126118296E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.3645766307379604E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.251698823576409E-2</v>
+      </c>
+      <c r="J6">
+        <v>-7.0398712378995083E-4</v>
+      </c>
+      <c r="K6">
+        <v>4.7632129738283519E-5</v>
+      </c>
+      <c r="L6">
+        <v>6.243579364694038E-3</v>
+      </c>
+      <c r="M6">
+        <v>6.5057011694979565E-3</v>
+      </c>
+      <c r="N6">
+        <v>5.0843596665347147E-3</v>
+      </c>
+      <c r="O6">
+        <v>7.246080838119142E-3</v>
+      </c>
+      <c r="P6">
+        <v>5.9318300839071129E-3</v>
+      </c>
+      <c r="Q6">
+        <v>7.894140950940421E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.2247354166386523E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.3012204144526092E-2</v>
+      </c>
+      <c r="T6">
+        <v>1.0719274087290377E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.0552506494875154E-2</v>
+      </c>
+      <c r="V6">
+        <v>6.7051761198873572E-3</v>
+      </c>
+      <c r="W6">
+        <v>2.9441612230761693E-2</v>
+      </c>
+      <c r="X6">
+        <v>6.4998652422143923E-4</v>
+      </c>
+      <c r="Y6">
+        <v>-5.5001949832979471E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>-5.1684894560239662E-2</v>
+      </c>
+      <c r="C7">
+        <v>-1.2211704010586578E-3</v>
+      </c>
+      <c r="D7">
+        <v>-1.4494437951383455E-3</v>
+      </c>
+      <c r="E7">
+        <v>4.4458765843875461E-4</v>
+      </c>
+      <c r="F7">
+        <v>2.1662393322838223E-3</v>
+      </c>
+      <c r="G7">
+        <v>6.3645766307379604E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.5637196970539521E-2</v>
+      </c>
+      <c r="I7">
+        <v>5.2031780398241068E-3</v>
+      </c>
+      <c r="J7">
+        <v>9.2422585167111122E-4</v>
+      </c>
+      <c r="K7">
+        <v>2.0580573286614384E-5</v>
+      </c>
+      <c r="L7">
+        <v>-4.9916828360010504E-3</v>
+      </c>
+      <c r="M7">
+        <v>-3.8584105616218944E-3</v>
+      </c>
+      <c r="N7">
+        <v>-2.0568144369658495E-3</v>
+      </c>
+      <c r="O7">
+        <v>-1.9100224054566491E-3</v>
+      </c>
+      <c r="P7">
+        <v>-1.5671408090974868E-3</v>
+      </c>
+      <c r="Q7">
+        <v>-1.2402690589285396E-3</v>
+      </c>
+      <c r="R7">
+        <v>-1.5923870293554155E-3</v>
+      </c>
+      <c r="S7">
+        <v>1.5234749835603845E-4</v>
+      </c>
+      <c r="T7">
+        <v>-8.1426527079042806E-4</v>
+      </c>
+      <c r="U7">
+        <v>9.0649022530547938E-4</v>
+      </c>
+      <c r="V7">
+        <v>-3.4181415675868659E-3</v>
+      </c>
+      <c r="W7">
+        <v>1.0473318790607113E-2</v>
+      </c>
+      <c r="X7">
+        <v>-8.9328180004096707E-5</v>
+      </c>
+      <c r="Y7">
+        <v>-1.8279811616181415E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>-0.54755950266759357</v>
+      </c>
+      <c r="C8">
+        <v>-8.2714264448791605E-4</v>
+      </c>
+      <c r="D8">
+        <v>1.1399324281143781E-2</v>
+      </c>
+      <c r="E8">
+        <v>8.0259989856577112E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.7509186665843409E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.251698823576409E-2</v>
+      </c>
+      <c r="H8">
+        <v>5.2031780398241068E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.365439050943215</v>
+      </c>
+      <c r="J8">
+        <v>-2.5782328499780547E-3</v>
+      </c>
+      <c r="K8">
+        <v>6.154349657042267E-5</v>
+      </c>
+      <c r="L8">
+        <v>2.7676192007461107E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.2686380775487463E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.8916321663721132E-2</v>
+      </c>
+      <c r="O8">
+        <v>2.7458042752481905E-2</v>
+      </c>
+      <c r="P8">
+        <v>3.1088244561791871E-2</v>
+      </c>
+      <c r="Q8">
+        <v>3.1952460550786689E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.84524789124527E-2</v>
+      </c>
+      <c r="S8">
+        <v>2.9747113394393059E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.1596823820313129E-2</v>
+      </c>
+      <c r="U8">
+        <v>2.9686860776467219E-2</v>
+      </c>
+      <c r="V8">
+        <v>2.962966373660092E-2</v>
+      </c>
+      <c r="W8">
+        <v>-3.0036133380589913E-2</v>
+      </c>
+      <c r="X8">
+        <v>2.2513810612190951E-3</v>
+      </c>
+      <c r="Y8">
+        <v>-3.4647197688578421E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>7.9135202312553568E-2</v>
+      </c>
+      <c r="C9">
+        <v>-6.5756953258593672E-4</v>
+      </c>
+      <c r="D9">
+        <v>7.662385248566573E-4</v>
+      </c>
+      <c r="E9">
+        <v>1.6201368953311097E-3</v>
+      </c>
+      <c r="F9">
+        <v>-2.9195606302096309E-3</v>
+      </c>
+      <c r="G9">
+        <v>-7.0398712378995083E-4</v>
+      </c>
+      <c r="H9">
+        <v>9.2422585167111122E-4</v>
+      </c>
+      <c r="I9">
+        <v>-2.5782328499780547E-3</v>
+      </c>
+      <c r="J9">
+        <v>3.9500648049606204E-3</v>
+      </c>
+      <c r="K9">
+        <v>-8.1644914264673754E-6</v>
+      </c>
+      <c r="L9">
+        <v>-5.8959224983805118E-4</v>
+      </c>
+      <c r="M9">
+        <v>5.5292872154920954E-4</v>
+      </c>
+      <c r="N9">
+        <v>-6.8879829809175355E-5</v>
+      </c>
+      <c r="O9">
+        <v>9.1317397143829762E-4</v>
+      </c>
+      <c r="P9">
+        <v>-2.884069508758292E-4</v>
+      </c>
+      <c r="Q9">
+        <v>1.673261731175435E-4</v>
+      </c>
+      <c r="R9">
+        <v>8.092157026713797E-4</v>
+      </c>
+      <c r="S9">
+        <v>9.1775231840486148E-4</v>
+      </c>
+      <c r="T9">
+        <v>-3.6848465420245835E-4</v>
+      </c>
+      <c r="U9">
+        <v>-6.8354294576941296E-4</v>
+      </c>
+      <c r="V9">
+        <v>-3.5666910897893395E-4</v>
+      </c>
+      <c r="W9">
+        <v>2.2829072451151261E-2</v>
+      </c>
+      <c r="X9">
+        <v>-1.9565079782057925E-4</v>
+      </c>
+      <c r="Y9">
+        <v>-3.1370722668376372E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>-5.5896186907594247E-4</v>
+      </c>
+      <c r="C10">
+        <v>-2.2530107267794432E-5</v>
+      </c>
+      <c r="D10">
+        <v>8.580359473102302E-5</v>
+      </c>
+      <c r="E10">
+        <v>1.1167412482781351E-4</v>
+      </c>
+      <c r="F10">
+        <v>-6.2297990867210199E-5</v>
+      </c>
+      <c r="G10">
+        <v>4.7632129738283519E-5</v>
+      </c>
+      <c r="H10">
+        <v>2.0580573286614384E-5</v>
+      </c>
+      <c r="I10">
+        <v>6.154349657042267E-5</v>
+      </c>
+      <c r="J10">
+        <v>-8.1644914264673754E-6</v>
+      </c>
+      <c r="K10">
+        <v>5.4372452799153299E-6</v>
+      </c>
+      <c r="L10">
+        <v>1.6527650128308894E-5</v>
+      </c>
+      <c r="M10">
+        <v>-2.1620410705963026E-6</v>
+      </c>
+      <c r="N10">
+        <v>1.5629268780478745E-5</v>
+      </c>
+      <c r="O10">
+        <v>1.5302092689690474E-5</v>
+      </c>
+      <c r="P10">
+        <v>1.8604237604369529E-5</v>
+      </c>
+      <c r="Q10">
+        <v>2.7213602865935502E-5</v>
+      </c>
+      <c r="R10">
+        <v>9.806959599056121E-7</v>
+      </c>
+      <c r="S10">
+        <v>1.7803803321926509E-5</v>
+      </c>
+      <c r="T10">
+        <v>-1.0179932362302082E-5</v>
+      </c>
+      <c r="U10">
+        <v>-2.081242687427588E-5</v>
+      </c>
+      <c r="V10">
+        <v>2.8716514470435845E-5</v>
+      </c>
+      <c r="W10">
+        <v>-5.0240005480962479E-5</v>
+      </c>
+      <c r="X10">
+        <v>-7.5494138287115533E-7</v>
+      </c>
+      <c r="Y10">
+        <v>-5.2869249676403682E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>0.55000101754799713</v>
+      </c>
+      <c r="C11">
+        <v>4.8964533065653229E-3</v>
+      </c>
+      <c r="D11">
+        <v>-5.0637945000191545E-3</v>
+      </c>
+      <c r="E11">
+        <v>-3.4460015648853422E-3</v>
+      </c>
+      <c r="F11">
+        <v>-2.0464348567017848E-3</v>
+      </c>
+      <c r="G11">
+        <v>6.243579364694038E-3</v>
+      </c>
+      <c r="H11">
+        <v>-4.9916828360010504E-3</v>
+      </c>
+      <c r="I11">
+        <v>2.7676192007461107E-2</v>
+      </c>
+      <c r="J11">
+        <v>-5.8959224983805118E-4</v>
+      </c>
+      <c r="K11">
+        <v>1.6527650128308894E-5</v>
+      </c>
+      <c r="L11">
+        <v>0.14299279734912032</v>
+      </c>
+      <c r="M11">
+        <v>6.2207746927524739E-2</v>
+      </c>
+      <c r="N11">
+        <v>6.2131988141677995E-2</v>
+      </c>
+      <c r="O11">
+        <v>6.299100742667943E-2</v>
+      </c>
+      <c r="P11">
+        <v>6.1077960509277329E-2</v>
+      </c>
+      <c r="Q11">
+        <v>6.1592545761240583E-2</v>
+      </c>
+      <c r="R11">
+        <v>6.2215846196686041E-2</v>
+      </c>
+      <c r="S11">
+        <v>6.2693771285655342E-2</v>
+      </c>
+      <c r="T11">
+        <v>6.2263991948027307E-2</v>
+      </c>
+      <c r="U11">
+        <v>6.3313098966214842E-2</v>
+      </c>
+      <c r="V11">
+        <v>6.2721359446333724E-2</v>
+      </c>
+      <c r="W11">
+        <v>4.941991869973246E-3</v>
+      </c>
+      <c r="X11">
+        <v>-6.1631704159865975E-4</v>
+      </c>
+      <c r="Y11">
+        <v>-5.2258437783417634E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>0.43756986996394798</v>
+      </c>
+      <c r="C12">
+        <v>2.3522190312631969E-3</v>
+      </c>
+      <c r="D12">
+        <v>-4.5480657696435169E-3</v>
+      </c>
+      <c r="E12">
+        <v>-1.7421696256504993E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.2083686455021357E-4</v>
+      </c>
+      <c r="G12">
+        <v>6.5057011694979565E-3</v>
+      </c>
+      <c r="H12">
+        <v>-3.8584105616218944E-3</v>
+      </c>
+      <c r="I12">
+        <v>1.2686380775487463E-2</v>
+      </c>
+      <c r="J12">
+        <v>5.5292872154920954E-4</v>
+      </c>
+      <c r="K12">
+        <v>-2.1620410705963026E-6</v>
+      </c>
+      <c r="L12">
+        <v>6.2207746927524739E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.1065192281084896</v>
+      </c>
+      <c r="N12">
+        <v>6.1514856855309386E-2</v>
+      </c>
+      <c r="O12">
+        <v>6.2358549524142069E-2</v>
+      </c>
+      <c r="P12">
+        <v>6.0525120939828148E-2</v>
+      </c>
+      <c r="Q12">
+        <v>6.1315326633447076E-2</v>
+      </c>
+      <c r="R12">
+        <v>6.2126772272601605E-2</v>
+      </c>
+      <c r="S12">
+        <v>6.2372991083458486E-2</v>
+      </c>
+      <c r="T12">
+        <v>6.1584166267974139E-2</v>
+      </c>
+      <c r="U12">
+        <v>6.2308857738260955E-2</v>
+      </c>
+      <c r="V12">
+        <v>6.2422847665577902E-2</v>
+      </c>
+      <c r="W12">
+        <v>-3.6598446305553138E-2</v>
+      </c>
+      <c r="X12">
+        <v>-3.0964462343020165E-4</v>
+      </c>
+      <c r="Y12">
+        <v>-2.0032879105772599E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>0.54596556879524771</v>
+      </c>
+      <c r="C13">
+        <v>5.4469044095730897E-3</v>
+      </c>
+      <c r="D13">
+        <v>-4.3565644157479728E-3</v>
+      </c>
+      <c r="E13">
+        <v>-2.6922751146722448E-3</v>
+      </c>
+      <c r="F13">
+        <v>-2.6695146472361731E-3</v>
+      </c>
+      <c r="G13">
+        <v>5.0843596665347147E-3</v>
+      </c>
+      <c r="H13">
+        <v>-2.0568144369658495E-3</v>
+      </c>
+      <c r="I13">
+        <v>2.8916321663721132E-2</v>
+      </c>
+      <c r="J13">
+        <v>-6.8879829809175355E-5</v>
+      </c>
+      <c r="K13">
+        <v>1.5629268780478745E-5</v>
+      </c>
+      <c r="L13">
+        <v>6.2131988141677995E-2</v>
+      </c>
+      <c r="M13">
+        <v>6.1514856855309386E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.11830518838215408</v>
+      </c>
+      <c r="O13">
+        <v>6.2718270760739964E-2</v>
+      </c>
+      <c r="P13">
+        <v>6.1027415654732478E-2</v>
+      </c>
+      <c r="Q13">
+        <v>6.1285329857647855E-2</v>
+      </c>
+      <c r="R13">
+        <v>6.2239146031464895E-2</v>
+      </c>
+      <c r="S13">
+        <v>6.2912524370478007E-2</v>
+      </c>
+      <c r="T13">
+        <v>6.2158943637113849E-2</v>
+      </c>
+      <c r="U13">
+        <v>6.3420486991428326E-2</v>
+      </c>
+      <c r="V13">
+        <v>6.2471768092944385E-2</v>
+      </c>
+      <c r="W13">
+        <v>4.942043549354963E-2</v>
+      </c>
+      <c r="X13">
+        <v>-1.9199805458777644E-4</v>
+      </c>
+      <c r="Y13">
+        <v>-0.10471412662595581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>0.29417055282339361</v>
+      </c>
+      <c r="C14">
+        <v>4.5770881405105754E-3</v>
+      </c>
+      <c r="D14">
+        <v>-5.8442826121490599E-3</v>
+      </c>
+      <c r="E14">
+        <v>-2.0028529626171347E-3</v>
+      </c>
+      <c r="F14">
+        <v>-5.4538764644359557E-3</v>
+      </c>
+      <c r="G14">
+        <v>7.246080838119142E-3</v>
+      </c>
+      <c r="H14">
+        <v>-1.9100224054566491E-3</v>
+      </c>
+      <c r="I14">
+        <v>2.7458042752481905E-2</v>
+      </c>
+      <c r="J14">
+        <v>9.1317397143829762E-4</v>
+      </c>
+      <c r="K14">
+        <v>1.5302092689690474E-5</v>
+      </c>
+      <c r="L14">
+        <v>6.299100742667943E-2</v>
+      </c>
+      <c r="M14">
+        <v>6.2358549524142069E-2</v>
+      </c>
+      <c r="N14">
+        <v>6.2718270760739964E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.11978728232048719</v>
+      </c>
+      <c r="P14">
+        <v>6.1540273851954347E-2</v>
+      </c>
+      <c r="Q14">
+        <v>6.2176282117721623E-2</v>
+      </c>
+      <c r="R14">
+        <v>6.338187612864879E-2</v>
+      </c>
+      <c r="S14">
+        <v>6.3823141770443126E-2</v>
+      </c>
+      <c r="T14">
+        <v>6.2789631670261498E-2</v>
+      </c>
+      <c r="U14">
+        <v>6.3845584348124401E-2</v>
+      </c>
+      <c r="V14">
+        <v>6.2661186215036926E-2</v>
+      </c>
+      <c r="W14">
+        <v>-5.1279840938479086E-2</v>
+      </c>
+      <c r="X14">
+        <v>-1.118296393709476E-4</v>
+      </c>
+      <c r="Y14">
+        <v>-7.0026381440478442E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>0.47018663083867296</v>
+      </c>
+      <c r="C15">
+        <v>1.2250329418366287E-3</v>
+      </c>
+      <c r="D15">
+        <v>-2.6908312161685356E-4</v>
+      </c>
+      <c r="E15">
+        <v>-1.0520530000524431E-3</v>
+      </c>
+      <c r="F15">
+        <v>-2.4413193948422379E-3</v>
+      </c>
+      <c r="G15">
+        <v>5.9318300839071129E-3</v>
+      </c>
+      <c r="H15">
+        <v>-1.5671408090974868E-3</v>
+      </c>
+      <c r="I15">
+        <v>3.1088244561791871E-2</v>
+      </c>
+      <c r="J15">
+        <v>-2.884069508758292E-4</v>
+      </c>
+      <c r="K15">
+        <v>1.8604237604369529E-5</v>
+      </c>
+      <c r="L15">
+        <v>6.1077960509277329E-2</v>
+      </c>
+      <c r="M15">
+        <v>6.0525120939828148E-2</v>
+      </c>
+      <c r="N15">
+        <v>6.1027415654732478E-2</v>
+      </c>
+      <c r="O15">
+        <v>6.1540273851954347E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.1146371199221746</v>
+      </c>
+      <c r="Q15">
+        <v>6.096492423511659E-2</v>
+      </c>
+      <c r="R15">
+        <v>6.1084727703536408E-2</v>
+      </c>
+      <c r="S15">
+        <v>6.1751135121598626E-2</v>
+      </c>
+      <c r="T15">
+        <v>6.1100098584253464E-2</v>
+      </c>
+      <c r="U15">
+        <v>6.132224442274925E-2</v>
+      </c>
+      <c r="V15">
+        <v>6.1277796891815464E-2</v>
+      </c>
+      <c r="W15">
+        <v>-3.3302175911298214E-2</v>
+      </c>
+      <c r="X15">
+        <v>1.9170870935948539E-4</v>
+      </c>
+      <c r="Y15">
+        <v>-2.8168355707573305E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>0.39936772223565348</v>
+      </c>
+      <c r="C16">
+        <v>7.1088114716593744E-4</v>
+      </c>
+      <c r="D16">
+        <v>-2.330906949361878E-3</v>
+      </c>
+      <c r="E16">
+        <v>6.2826077579648289E-4</v>
+      </c>
+      <c r="F16">
+        <v>-1.3781727071517239E-3</v>
+      </c>
+      <c r="G16">
+        <v>7.894140950940421E-3</v>
+      </c>
+      <c r="H16">
+        <v>-1.2402690589285396E-3</v>
+      </c>
+      <c r="I16">
+        <v>3.1952460550786689E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.673261731175435E-4</v>
+      </c>
+      <c r="K16">
+        <v>2.7213602865935502E-5</v>
+      </c>
+      <c r="L16">
+        <v>6.1592545761240583E-2</v>
+      </c>
+      <c r="M16">
+        <v>6.1315326633447076E-2</v>
+      </c>
+      <c r="N16">
+        <v>6.1285329857647855E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.2176282117721623E-2</v>
+      </c>
+      <c r="P16">
+        <v>6.096492423511659E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.10159784360529069</v>
+      </c>
+      <c r="R16">
+        <v>6.2055589069801291E-2</v>
+      </c>
+      <c r="S16">
+        <v>6.2446678433523722E-2</v>
+      </c>
+      <c r="T16">
+        <v>6.1370825371022099E-2</v>
+      </c>
+      <c r="U16">
+        <v>6.1861086716563901E-2</v>
+      </c>
+      <c r="V16">
+        <v>6.1801037798532431E-2</v>
+      </c>
+      <c r="W16">
+        <v>-3.3245129798014209E-2</v>
+      </c>
+      <c r="X16">
+        <v>-2.1705970870422098E-4</v>
+      </c>
+      <c r="Y16">
+        <v>-2.4970152312709191E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>9.646851677268295E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.2226671732321016E-3</v>
+      </c>
+      <c r="D17">
+        <v>-5.1329399491004922E-3</v>
+      </c>
+      <c r="E17">
+        <v>-8.8953255139460896E-5</v>
+      </c>
+      <c r="F17">
+        <v>-2.8699791277050513E-3</v>
+      </c>
+      <c r="G17">
+        <v>1.2247354166386523E-2</v>
+      </c>
+      <c r="H17">
+        <v>-1.5923870293554155E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.84524789124527E-2</v>
+      </c>
+      <c r="J17">
+        <v>8.092157026713797E-4</v>
+      </c>
+      <c r="K17">
+        <v>9.806959599056121E-7</v>
+      </c>
+      <c r="L17">
+        <v>6.2215846196686041E-2</v>
+      </c>
+      <c r="M17">
+        <v>6.2126772272601605E-2</v>
+      </c>
+      <c r="N17">
+        <v>6.2239146031464895E-2</v>
+      </c>
+      <c r="O17">
+        <v>6.338187612864879E-2</v>
+      </c>
+      <c r="P17">
+        <v>6.1084727703536408E-2</v>
+      </c>
+      <c r="Q17">
+        <v>6.2055589069801291E-2</v>
+      </c>
+      <c r="R17">
+        <v>9.197249634319693E-2</v>
+      </c>
+      <c r="S17">
+        <v>6.3703085475335847E-2</v>
+      </c>
+      <c r="T17">
+        <v>6.2128723343431377E-2</v>
+      </c>
+      <c r="U17">
+        <v>6.316929477426754E-2</v>
+      </c>
+      <c r="V17">
+        <v>6.2233876901962443E-2</v>
+      </c>
+      <c r="W17">
+        <v>2.4382534156825189E-2</v>
+      </c>
+      <c r="X17">
+        <v>-6.586543963882053E-4</v>
+      </c>
+      <c r="Y17">
+        <v>-7.6380207918901183E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>0.2455302312772302</v>
+      </c>
+      <c r="C18">
+        <v>4.5626310998825555E-3</v>
+      </c>
+      <c r="D18">
+        <v>-4.1870374570760482E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.5132884464965669E-4</v>
+      </c>
+      <c r="F18">
+        <v>-3.3492921666001593E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.3012204144526092E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.5234749835603845E-4</v>
+      </c>
+      <c r="I18">
+        <v>2.9747113394393059E-2</v>
+      </c>
+      <c r="J18">
+        <v>9.1775231840486148E-4</v>
+      </c>
+      <c r="K18">
+        <v>1.7803803321926509E-5</v>
+      </c>
+      <c r="L18">
+        <v>6.2693771285655342E-2</v>
+      </c>
+      <c r="M18">
+        <v>6.2372991083458486E-2</v>
+      </c>
+      <c r="N18">
+        <v>6.2912524370478007E-2</v>
+      </c>
+      <c r="O18">
+        <v>6.3823141770443126E-2</v>
+      </c>
+      <c r="P18">
+        <v>6.1751135121598626E-2</v>
+      </c>
+      <c r="Q18">
+        <v>6.2446678433523722E-2</v>
+      </c>
+      <c r="R18">
+        <v>6.3703085475335847E-2</v>
+      </c>
+      <c r="S18">
+        <v>0.10672198916207935</v>
+      </c>
+      <c r="T18">
+        <v>6.2709763010470959E-2</v>
+      </c>
+      <c r="U18">
+        <v>6.3847936329021179E-2</v>
+      </c>
+      <c r="V18">
+        <v>6.2671983247115606E-2</v>
+      </c>
+      <c r="W18">
+        <v>6.9134907116619848E-2</v>
+      </c>
+      <c r="X18">
+        <v>-5.5497838255634383E-4</v>
+      </c>
+      <c r="Y18">
+        <v>-0.12450746301237582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>0.33315137607394707</v>
+      </c>
+      <c r="C19">
+        <v>4.0420603737897354E-3</v>
+      </c>
+      <c r="D19">
+        <v>-6.6733357624621827E-3</v>
+      </c>
+      <c r="E19">
+        <v>-6.2197552678278437E-3</v>
+      </c>
+      <c r="F19">
+        <v>-1.9242135119860952E-3</v>
+      </c>
+      <c r="G19">
+        <v>1.0719274087290377E-2</v>
+      </c>
+      <c r="H19">
+        <v>-8.1426527079042806E-4</v>
+      </c>
+      <c r="I19">
+        <v>1.1596823820313129E-2</v>
+      </c>
+      <c r="J19">
+        <v>-3.6848465420245835E-4</v>
+      </c>
+      <c r="K19">
+        <v>-1.0179932362302082E-5</v>
+      </c>
+      <c r="L19">
+        <v>6.2263991948027307E-2</v>
+      </c>
+      <c r="M19">
+        <v>6.1584166267974139E-2</v>
+      </c>
+      <c r="N19">
+        <v>6.2158943637113849E-2</v>
+      </c>
+      <c r="O19">
+        <v>6.2789631670261498E-2</v>
+      </c>
+      <c r="P19">
+        <v>6.1100098584253464E-2</v>
+      </c>
+      <c r="Q19">
+        <v>6.1370825371022099E-2</v>
+      </c>
+      <c r="R19">
+        <v>6.2128723343431377E-2</v>
+      </c>
+      <c r="S19">
+        <v>6.2709763010470959E-2</v>
+      </c>
+      <c r="T19">
+        <v>0.15054495142347296</v>
+      </c>
+      <c r="U19">
+        <v>6.3602017038780323E-2</v>
+      </c>
+      <c r="V19">
+        <v>6.251775937261235E-2</v>
+      </c>
+      <c r="W19">
+        <v>-3.9294058378218227E-2</v>
+      </c>
+      <c r="X19">
+        <v>2.4676629320440557E-4</v>
+      </c>
+      <c r="Y19">
+        <v>-1.9903219594336774E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>7.6763521358310188E-2</v>
+      </c>
+      <c r="C20">
+        <v>9.6470483071662769E-3</v>
+      </c>
+      <c r="D20">
+        <v>-8.9577997707501692E-3</v>
+      </c>
+      <c r="E20">
+        <v>-5.4595926077699673E-3</v>
+      </c>
+      <c r="F20">
+        <v>-2.6247409530123153E-3</v>
+      </c>
+      <c r="G20">
+        <v>1.0552506494875154E-2</v>
+      </c>
+      <c r="H20">
+        <v>9.0649022530547938E-4</v>
+      </c>
+      <c r="I20">
+        <v>2.9686860776467219E-2</v>
+      </c>
+      <c r="J20">
+        <v>-6.8354294576941296E-4</v>
+      </c>
+      <c r="K20">
+        <v>-2.081242687427588E-5</v>
+      </c>
+      <c r="L20">
+        <v>6.3313098966214842E-2</v>
+      </c>
+      <c r="M20">
+        <v>6.2308857738260955E-2</v>
+      </c>
+      <c r="N20">
+        <v>6.3420486991428326E-2</v>
+      </c>
+      <c r="O20">
+        <v>6.3845584348124401E-2</v>
+      </c>
+      <c r="P20">
+        <v>6.132224442274925E-2</v>
+      </c>
+      <c r="Q20">
+        <v>6.1861086716563901E-2</v>
+      </c>
+      <c r="R20">
+        <v>6.316929477426754E-2</v>
+      </c>
+      <c r="S20">
+        <v>6.3847936329021179E-2</v>
+      </c>
+      <c r="T20">
+        <v>6.3602017038780323E-2</v>
+      </c>
+      <c r="U20">
+        <v>0.12479736251844632</v>
+      </c>
+      <c r="V20">
+        <v>6.2716353771403083E-2</v>
+      </c>
+      <c r="W20">
+        <v>2.6571250766611751E-2</v>
+      </c>
+      <c r="X20">
+        <v>-6.8944947763666217E-4</v>
+      </c>
+      <c r="Y20">
+        <v>-7.2085089310485781E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>0.1376634715671862</v>
+      </c>
+      <c r="C21">
+        <v>2.5184874906066766E-3</v>
+      </c>
+      <c r="D21">
+        <v>-5.1895909201246301E-3</v>
+      </c>
+      <c r="E21">
+        <v>-2.8215059432800602E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.2750482496979056E-3</v>
+      </c>
+      <c r="G21">
+        <v>6.7051761198873572E-3</v>
+      </c>
+      <c r="H21">
+        <v>-3.4181415675868659E-3</v>
+      </c>
+      <c r="I21">
+        <v>2.962966373660092E-2</v>
+      </c>
+      <c r="J21">
+        <v>-3.5666910897893395E-4</v>
+      </c>
+      <c r="K21">
+        <v>2.8716514470435845E-5</v>
+      </c>
+      <c r="L21">
+        <v>6.2721359446333724E-2</v>
+      </c>
+      <c r="M21">
+        <v>6.2422847665577902E-2</v>
+      </c>
+      <c r="N21">
+        <v>6.2471768092944385E-2</v>
+      </c>
+      <c r="O21">
+        <v>6.2661186215036926E-2</v>
+      </c>
+      <c r="P21">
+        <v>6.1277796891815464E-2</v>
+      </c>
+      <c r="Q21">
+        <v>6.1801037798532431E-2</v>
+      </c>
+      <c r="R21">
+        <v>6.2233876901962443E-2</v>
+      </c>
+      <c r="S21">
+        <v>6.2671983247115606E-2</v>
+      </c>
+      <c r="T21">
+        <v>6.251775937261235E-2</v>
+      </c>
+      <c r="U21">
+        <v>6.2716353771403083E-2</v>
+      </c>
+      <c r="V21">
+        <v>0.13895897723771333</v>
+      </c>
+      <c r="W21">
+        <v>-3.2600604331258394E-2</v>
+      </c>
+      <c r="X21">
+        <v>5.3238712664179086E-4</v>
+      </c>
+      <c r="Y21">
+        <v>-3.4181136803692461E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>-1.5102465339860676</v>
+      </c>
+      <c r="C22">
+        <v>-2.5700323725217272E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.9892470585877698E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.5552443859094533E-2</v>
+      </c>
+      <c r="F22">
+        <v>-2.4364351437088386E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.9441612230761693E-2</v>
+      </c>
+      <c r="H22">
+        <v>1.0473318790607113E-2</v>
+      </c>
+      <c r="I22">
+        <v>-3.0036133380589913E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.2829072451151261E-2</v>
+      </c>
+      <c r="K22">
+        <v>-5.0240005480962479E-5</v>
+      </c>
+      <c r="L22">
+        <v>4.941991869973246E-3</v>
+      </c>
+      <c r="M22">
+        <v>-3.6598446305553138E-2</v>
+      </c>
+      <c r="N22">
+        <v>4.942043549354963E-2</v>
+      </c>
+      <c r="O22">
+        <v>-5.1279840938479086E-2</v>
+      </c>
+      <c r="P22">
+        <v>-3.3302175911298214E-2</v>
+      </c>
+      <c r="Q22">
+        <v>-3.3245129798014209E-2</v>
+      </c>
+      <c r="R22">
+        <v>2.4382534156825189E-2</v>
+      </c>
+      <c r="S22">
+        <v>6.9134907116619848E-2</v>
+      </c>
+      <c r="T22">
+        <v>-3.9294058378218227E-2</v>
+      </c>
+      <c r="U22">
+        <v>2.6571250766611751E-2</v>
+      </c>
+      <c r="V22">
+        <v>-3.2600604331258394E-2</v>
+      </c>
+      <c r="W22">
+        <v>25.253861279197089</v>
+      </c>
+      <c r="X22">
+        <v>-9.7064341704317325E-2</v>
+      </c>
+      <c r="Y22">
+        <v>-23.859818606943737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <v>-3.5656093359091943E-2</v>
+      </c>
+      <c r="C23">
+        <v>-6.1583796690698302E-4</v>
+      </c>
+      <c r="D23">
+        <v>3.4455705572551296E-4</v>
+      </c>
+      <c r="E23">
+        <v>2.3456021562854494E-4</v>
+      </c>
+      <c r="F23">
+        <v>9.2908428630843816E-5</v>
+      </c>
+      <c r="G23">
+        <v>6.4998652422143923E-4</v>
+      </c>
+      <c r="H23">
+        <v>-8.9328180004096707E-5</v>
+      </c>
+      <c r="I23">
+        <v>2.2513810612190951E-3</v>
+      </c>
+      <c r="J23">
+        <v>-1.9565079782057925E-4</v>
+      </c>
+      <c r="K23">
+        <v>-7.5494138287115533E-7</v>
+      </c>
+      <c r="L23">
+        <v>-6.1631704159865975E-4</v>
+      </c>
+      <c r="M23">
+        <v>-3.0964462343020165E-4</v>
+      </c>
+      <c r="N23">
+        <v>-1.9199805458777644E-4</v>
+      </c>
+      <c r="O23">
+        <v>-1.118296393709476E-4</v>
+      </c>
+      <c r="P23">
+        <v>1.9170870935948539E-4</v>
+      </c>
+      <c r="Q23">
+        <v>-2.1705970870422098E-4</v>
+      </c>
+      <c r="R23">
+        <v>-6.586543963882053E-4</v>
+      </c>
+      <c r="S23">
+        <v>-5.5497838255634383E-4</v>
+      </c>
+      <c r="T23">
+        <v>2.4676629320440557E-4</v>
+      </c>
+      <c r="U23">
+        <v>-6.8944947763666217E-4</v>
+      </c>
+      <c r="V23">
+        <v>5.3238712664179086E-4</v>
+      </c>
+      <c r="W23">
+        <v>-9.7064341704317325E-2</v>
+      </c>
+      <c r="X23">
+        <v>1.7112485572276584E-3</v>
+      </c>
+      <c r="Y23">
+        <v>7.3641308202241837E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>1.6985615325764329</v>
+      </c>
+      <c r="C24">
+        <v>3.5077609725710904E-2</v>
+      </c>
+      <c r="D24">
+        <v>-5.3593322114958639E-2</v>
+      </c>
+      <c r="E24">
+        <v>-5.5732769382555052E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.6582927248629267E-2</v>
+      </c>
+      <c r="G24">
+        <v>-5.5001949832979471E-2</v>
+      </c>
+      <c r="H24">
+        <v>-1.8279811616181415E-2</v>
+      </c>
+      <c r="I24">
+        <v>-3.4647197688578421E-2</v>
+      </c>
+      <c r="J24">
+        <v>-3.1370722668376372E-2</v>
+      </c>
+      <c r="K24">
+        <v>-5.2869249676403682E-5</v>
+      </c>
+      <c r="L24">
+        <v>-5.2258437783417634E-2</v>
+      </c>
+      <c r="M24">
+        <v>-2.0032879105772599E-2</v>
+      </c>
+      <c r="N24">
+        <v>-0.10471412662595581</v>
+      </c>
+      <c r="O24">
+        <v>-7.0026381440478442E-3</v>
+      </c>
+      <c r="P24">
+        <v>-2.8168355707573305E-2</v>
+      </c>
+      <c r="Q24">
+        <v>-2.4970152312709191E-2</v>
+      </c>
+      <c r="R24">
+        <v>-7.6380207918901183E-2</v>
+      </c>
+      <c r="S24">
+        <v>-0.12450746301237582</v>
+      </c>
+      <c r="T24">
+        <v>-1.9903219594336774E-2</v>
+      </c>
+      <c r="U24">
+        <v>-7.2085089310485781E-2</v>
+      </c>
+      <c r="V24">
+        <v>-3.4181136803692461E-2</v>
+      </c>
+      <c r="W24">
+        <v>-23.859818606943737</v>
+      </c>
+      <c r="X24">
+        <v>7.3641308202241837E-2</v>
+      </c>
+      <c r="Y24">
+        <v>22.907317823907071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900C46DD-84AD-4B63-A50E-1119804E1956}">
+  <dimension ref="A1:Y24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>-398.11133797481205</v>
+      </c>
+      <c r="C2">
+        <v>10590.969638147244</v>
+      </c>
+      <c r="D2">
+        <v>1916.3156511245202</v>
+      </c>
+      <c r="E2">
+        <v>769.09888382146528</v>
+      </c>
+      <c r="F2">
+        <v>-3777.2724945239893</v>
+      </c>
+      <c r="G2">
+        <v>4322.603832572333</v>
+      </c>
+      <c r="H2">
+        <v>1359.457180948747</v>
+      </c>
+      <c r="I2">
+        <v>352.55391585802499</v>
+      </c>
+      <c r="J2">
+        <v>-486.41750505001119</v>
+      </c>
+      <c r="K2">
+        <v>-16.378721279476395</v>
+      </c>
+      <c r="L2">
+        <v>13365.033318361413</v>
+      </c>
+      <c r="M2">
+        <v>13365.986381778879</v>
+      </c>
+      <c r="N2">
+        <v>15039.531919488898</v>
+      </c>
+      <c r="O2">
+        <v>7230.4065919250479</v>
+      </c>
+      <c r="P2">
+        <v>12348.425391171499</v>
+      </c>
+      <c r="Q2">
+        <v>11867.913529788279</v>
+      </c>
+      <c r="R2">
+        <v>12626.203761205859</v>
+      </c>
+      <c r="S2">
+        <v>14690.515325670916</v>
+      </c>
+      <c r="T2">
+        <v>13619.005549516005</v>
+      </c>
+      <c r="U2">
+        <v>11784.071452113043</v>
+      </c>
+      <c r="V2">
+        <v>13005.154036489403</v>
+      </c>
+      <c r="W2">
+        <v>-66247.060041251621</v>
+      </c>
+      <c r="X2">
+        <v>538.90097246737514</v>
+      </c>
+      <c r="Y2">
+        <v>46553.859819575286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>-331.86723237478628</v>
+      </c>
+      <c r="C3">
+        <v>1916.3156511245202</v>
+      </c>
+      <c r="D3">
+        <v>10130.248740141711</v>
+      </c>
+      <c r="E3">
+        <v>8059.4036388399636</v>
+      </c>
+      <c r="F3">
+        <v>-2975.2794654314648</v>
+      </c>
+      <c r="G3">
+        <v>4683.4812164861378</v>
+      </c>
+      <c r="H3">
+        <v>2234.5243886380767</v>
+      </c>
+      <c r="I3">
+        <v>4434.5600011403158</v>
+      </c>
+      <c r="J3">
+        <v>-22.443815073419046</v>
+      </c>
+      <c r="K3">
+        <v>126.64175080959018</v>
+      </c>
+      <c r="L3">
+        <v>11584.751662953706</v>
+      </c>
+      <c r="M3">
+        <v>11167.788246637632</v>
+      </c>
+      <c r="N3">
+        <v>13652.906866989426</v>
+      </c>
+      <c r="O3">
+        <v>14884.344287476441</v>
+      </c>
+      <c r="P3">
+        <v>12823.755383104712</v>
+      </c>
+      <c r="Q3">
+        <v>10295.450056553211</v>
+      </c>
+      <c r="R3">
+        <v>10644.409478948292</v>
+      </c>
+      <c r="S3">
+        <v>15144.064837845137</v>
+      </c>
+      <c r="T3">
+        <v>12292.759908869426</v>
+      </c>
+      <c r="U3">
+        <v>13347.880315515824</v>
+      </c>
+      <c r="V3">
+        <v>11929.381481763958</v>
+      </c>
+      <c r="W3">
+        <v>5821.5880151432066</v>
+      </c>
+      <c r="X3">
+        <v>585.85967036590432</v>
+      </c>
+      <c r="Y3">
+        <v>-33273.609463188535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>-676.11953625155945</v>
+      </c>
+      <c r="C4">
+        <v>769.09888382146528</v>
+      </c>
+      <c r="D4">
+        <v>8059.4036388399636</v>
+      </c>
+      <c r="E4">
+        <v>14144.18579096123</v>
+      </c>
+      <c r="F4">
+        <v>-750.30183056418173</v>
+      </c>
+      <c r="G4">
+        <v>5532.6319982901914</v>
+      </c>
+      <c r="H4">
+        <v>1838.7464568448436</v>
+      </c>
+      <c r="I4">
+        <v>3417.4917490185826</v>
+      </c>
+      <c r="J4">
+        <v>-116.01320648594674</v>
+      </c>
+      <c r="K4">
+        <v>174.92913926234934</v>
+      </c>
+      <c r="L4">
+        <v>14405.110931779447</v>
+      </c>
+      <c r="M4">
+        <v>14389.098208131138</v>
+      </c>
+      <c r="N4">
+        <v>14649.504469092295</v>
+      </c>
+      <c r="O4">
+        <v>22641.22158918425</v>
+      </c>
+      <c r="P4">
+        <v>15040.931081518946</v>
+      </c>
+      <c r="Q4">
+        <v>13012.268774374585</v>
+      </c>
+      <c r="R4">
+        <v>14482.307433912218</v>
+      </c>
+      <c r="S4">
+        <v>15640.169707379107</v>
+      </c>
+      <c r="T4">
+        <v>15600.30962907034</v>
+      </c>
+      <c r="U4">
+        <v>17357.27457033188</v>
+      </c>
+      <c r="V4">
+        <v>17075.200447185169</v>
+      </c>
+      <c r="W4">
+        <v>48002.602522749134</v>
+      </c>
+      <c r="X4">
+        <v>1118.8173643622199</v>
+      </c>
+      <c r="Y4">
+        <v>-88140.366693882461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>126.78412772574609</v>
+      </c>
+      <c r="C5">
+        <v>-3777.2724945239893</v>
+      </c>
+      <c r="D5">
+        <v>-2975.2794654314648</v>
+      </c>
+      <c r="E5">
+        <v>-750.30183056418173</v>
+      </c>
+      <c r="F5">
+        <v>12103.588048764101</v>
+      </c>
+      <c r="G5">
+        <v>-1525.4886360143155</v>
+      </c>
+      <c r="H5">
+        <v>1688.6273987546761</v>
+      </c>
+      <c r="I5">
+        <v>1925.752428580483</v>
+      </c>
+      <c r="J5">
+        <v>-1258.5307937257473</v>
+      </c>
+      <c r="K5">
+        <v>-126.85406335758157</v>
+      </c>
+      <c r="L5">
+        <v>-7264.4039811039038</v>
+      </c>
+      <c r="M5">
+        <v>-7073.0422166339085</v>
+      </c>
+      <c r="N5">
+        <v>-10216.18540472016</v>
+      </c>
+      <c r="O5">
+        <v>-3390.7681222149131</v>
+      </c>
+      <c r="P5">
+        <v>-8224.6763308017362</v>
+      </c>
+      <c r="Q5">
+        <v>-8577.3200896003436</v>
+      </c>
+      <c r="R5">
+        <v>-7763.3328967218149</v>
+      </c>
+      <c r="S5">
+        <v>-13366.263635154628</v>
+      </c>
+      <c r="T5">
+        <v>-9019.8375641435778</v>
+      </c>
+      <c r="U5">
+        <v>-9002.1331934026748</v>
+      </c>
+      <c r="V5">
+        <v>-8278.1828950123236</v>
+      </c>
+      <c r="W5">
+        <v>-57390.130055015296</v>
+      </c>
+      <c r="X5">
+        <v>-665.08468233055396</v>
+      </c>
+      <c r="Y5">
+        <v>73115.960412528482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>-129.87769530827248</v>
+      </c>
+      <c r="C6">
+        <v>4322.603832572333</v>
+      </c>
+      <c r="D6">
+        <v>4683.4812164861378</v>
+      </c>
+      <c r="E6">
+        <v>5532.6319982901914</v>
+      </c>
+      <c r="F6">
+        <v>-1525.4886360143155</v>
+      </c>
+      <c r="G6">
+        <v>20315.638523700727</v>
+      </c>
+      <c r="H6">
+        <v>4621.2409016320671</v>
+      </c>
+      <c r="I6">
+        <v>4291.9205247406626</v>
+      </c>
+      <c r="J6">
+        <v>-1284.8657075139677</v>
+      </c>
+      <c r="K6">
+        <v>58.791308056802052</v>
+      </c>
+      <c r="L6">
+        <v>18694.014053008676</v>
+      </c>
+      <c r="M6">
+        <v>19312.138251945908</v>
+      </c>
+      <c r="N6">
+        <v>19348.882376011607</v>
+      </c>
+      <c r="O6">
+        <v>17980.505150263714</v>
+      </c>
+      <c r="P6">
+        <v>18718.636781882102</v>
+      </c>
+      <c r="Q6">
+        <v>17214.224388601462</v>
+      </c>
+      <c r="R6">
+        <v>18776.376971186681</v>
+      </c>
+      <c r="S6">
+        <v>20681.680239048692</v>
+      </c>
+      <c r="T6">
+        <v>20629.747728800026</v>
+      </c>
+      <c r="U6">
+        <v>20754.745116404174</v>
+      </c>
+      <c r="V6">
+        <v>19099.907108435946</v>
+      </c>
+      <c r="W6">
+        <v>-29791.656756020981</v>
+      </c>
+      <c r="X6">
+        <v>1024.9115717259078</v>
+      </c>
+      <c r="Y6">
+        <v>-5617.8262821222161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>-184.97004232420772</v>
+      </c>
+      <c r="C7">
+        <v>1359.457180948747</v>
+      </c>
+      <c r="D7">
+        <v>2234.5243886380767</v>
+      </c>
+      <c r="E7">
+        <v>1838.7464568448436</v>
+      </c>
+      <c r="F7">
+        <v>1688.6273987546761</v>
+      </c>
+      <c r="G7">
+        <v>4621.2409016320671</v>
+      </c>
+      <c r="H7">
+        <v>10470.744696239468</v>
+      </c>
+      <c r="I7">
+        <v>4587.0884136783498</v>
+      </c>
+      <c r="J7">
+        <v>-695.92565544101194</v>
+      </c>
+      <c r="K7">
+        <v>20.306495055478564</v>
+      </c>
+      <c r="L7">
+        <v>10567.52276015723</v>
+      </c>
+      <c r="M7">
+        <v>10934.344025090264</v>
+      </c>
+      <c r="N7">
+        <v>11456.064346671166</v>
+      </c>
+      <c r="O7">
+        <v>19062.511845462468</v>
+      </c>
+      <c r="P7">
+        <v>11319.536538105742</v>
+      </c>
+      <c r="Q7">
+        <v>10157.090335695699</v>
+      </c>
+      <c r="R7">
+        <v>11943.423191738115</v>
+      </c>
+      <c r="S7">
+        <v>10638.28067144025</v>
+      </c>
+      <c r="T7">
+        <v>12005.333008440575</v>
+      </c>
+      <c r="U7">
+        <v>12939.927073826741</v>
+      </c>
+      <c r="V7">
+        <v>9759.0895984366616</v>
+      </c>
+      <c r="W7">
+        <v>-64206.111880231038</v>
+      </c>
+      <c r="X7">
+        <v>295.44854833929878</v>
+      </c>
+      <c r="Y7">
+        <v>44900.409288225077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>-252.97038804117886</v>
+      </c>
+      <c r="C8">
+        <v>352.55391585802499</v>
+      </c>
+      <c r="D8">
+        <v>4434.5600011403158</v>
+      </c>
+      <c r="E8">
+        <v>3417.4917490185826</v>
+      </c>
+      <c r="F8">
+        <v>1925.752428580483</v>
+      </c>
+      <c r="G8">
+        <v>4291.9205247406626</v>
+      </c>
+      <c r="H8">
+        <v>4587.0884136783498</v>
+      </c>
+      <c r="I8">
+        <v>31498.258716655604</v>
+      </c>
+      <c r="J8">
+        <v>-480.60389797398238</v>
+      </c>
+      <c r="K8">
+        <v>73.348406885656459</v>
+      </c>
+      <c r="L8">
+        <v>7972.1861414520536</v>
+      </c>
+      <c r="M8">
+        <v>7663.9920229336713</v>
+      </c>
+      <c r="N8">
+        <v>8613.8675478849327</v>
+      </c>
+      <c r="O8">
+        <v>10323.31971635067</v>
+      </c>
+      <c r="P8">
+        <v>8447.2879932246869</v>
+      </c>
+      <c r="Q8">
+        <v>711.31499024078948</v>
+      </c>
+      <c r="R8">
+        <v>8121.3640373093658</v>
+      </c>
+      <c r="S8">
+        <v>9355.2262861143099</v>
+      </c>
+      <c r="T8">
+        <v>7178.746456776862</v>
+      </c>
+      <c r="U8">
+        <v>9640.2230469068745</v>
+      </c>
+      <c r="V8">
+        <v>7454.8804596090922</v>
+      </c>
+      <c r="W8">
+        <v>50463.287591031753</v>
+      </c>
+      <c r="X8">
+        <v>-186.3134937849718</v>
+      </c>
+      <c r="Y8">
+        <v>-60879.223519942025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>92.074948146755318</v>
+      </c>
+      <c r="C9">
+        <v>-486.41750505001119</v>
+      </c>
+      <c r="D9">
+        <v>-22.443815073419046</v>
+      </c>
+      <c r="E9">
+        <v>-116.01320648594674</v>
+      </c>
+      <c r="F9">
+        <v>-1258.5307937257473</v>
+      </c>
+      <c r="G9">
+        <v>-1284.8657075139677</v>
+      </c>
+      <c r="H9">
+        <v>-695.92565544101194</v>
+      </c>
+      <c r="I9">
+        <v>-480.60389797398238</v>
+      </c>
+      <c r="J9">
+        <v>1303.744622043122</v>
+      </c>
+      <c r="K9">
+        <v>-18.73967843232839</v>
+      </c>
+      <c r="L9">
+        <v>-2227.4845930052397</v>
+      </c>
+      <c r="M9">
+        <v>-2362.9337781229042</v>
+      </c>
+      <c r="N9">
+        <v>-1326.4503187484152</v>
+      </c>
+      <c r="O9">
+        <v>195.98206304746054</v>
+      </c>
+      <c r="P9">
+        <v>-2129.4206594149509</v>
+      </c>
+      <c r="Q9">
+        <v>-1804.7914609296931</v>
+      </c>
+      <c r="R9">
+        <v>-2009.4767480540104</v>
+      </c>
+      <c r="S9">
+        <v>-956.70986849162</v>
+      </c>
+      <c r="T9">
+        <v>-2530.7785640696457</v>
+      </c>
+      <c r="U9">
+        <v>-2752.5416632886554</v>
+      </c>
+      <c r="V9">
+        <v>-2579.3913972853115</v>
+      </c>
+      <c r="W9">
+        <v>35613.202509005205</v>
+      </c>
+      <c r="X9">
+        <v>-86.745305798158142</v>
+      </c>
+      <c r="Y9">
+        <v>-34774.744253121578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>15.464459448982392</v>
+      </c>
+      <c r="C10">
+        <v>-16.378721279476395</v>
+      </c>
+      <c r="D10">
+        <v>126.64175080959018</v>
+      </c>
+      <c r="E10">
+        <v>174.92913926234934</v>
+      </c>
+      <c r="F10">
+        <v>-126.85406335758157</v>
+      </c>
+      <c r="G10">
+        <v>58.791308056802052</v>
+      </c>
+      <c r="H10">
+        <v>20.306495055478564</v>
+      </c>
+      <c r="I10">
+        <v>73.348406885656459</v>
+      </c>
+      <c r="J10">
+        <v>-18.73967843232839</v>
+      </c>
+      <c r="K10">
+        <v>14.719178101986346</v>
+      </c>
+      <c r="L10">
+        <v>29.344245587858268</v>
+      </c>
+      <c r="M10">
+        <v>14.373680806133336</v>
+      </c>
+      <c r="N10">
+        <v>40.092378293586137</v>
+      </c>
+      <c r="O10">
+        <v>-13.14692066609534</v>
+      </c>
+      <c r="P10">
+        <v>7.6455612135195565</v>
+      </c>
+      <c r="Q10">
+        <v>15.785545708661516</v>
+      </c>
+      <c r="R10">
+        <v>9.9650977195653923</v>
+      </c>
+      <c r="S10">
+        <v>63.616006587188878</v>
+      </c>
+      <c r="T10">
+        <v>109.79156573463962</v>
+      </c>
+      <c r="U10">
+        <v>141.01066864697856</v>
+      </c>
+      <c r="V10">
+        <v>92.748543418506529</v>
+      </c>
+      <c r="W10">
+        <v>-5.3599838517134231</v>
+      </c>
+      <c r="X10">
+        <v>3.5189377807404636</v>
+      </c>
+      <c r="Y10">
+        <v>-258.64645187272754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <v>-358.45008931189972</v>
+      </c>
+      <c r="C11">
+        <v>13365.033318361413</v>
+      </c>
+      <c r="D11">
+        <v>11584.751662953706</v>
+      </c>
+      <c r="E11">
+        <v>14405.110931779447</v>
+      </c>
+      <c r="F11">
+        <v>-7264.4039811039038</v>
+      </c>
+      <c r="G11">
+        <v>18694.014053008676</v>
+      </c>
+      <c r="H11">
+        <v>10567.52276015723</v>
+      </c>
+      <c r="I11">
+        <v>7972.1861414520536</v>
+      </c>
+      <c r="J11">
+        <v>-2227.4845930052397</v>
+      </c>
+      <c r="K11">
+        <v>29.344245587858268</v>
+      </c>
+      <c r="L11">
+        <v>81900.894613415367</v>
+      </c>
+      <c r="M11">
+        <v>77509.096778600142</v>
+      </c>
+      <c r="N11">
+        <v>80017.608008528987</v>
+      </c>
+      <c r="O11">
+        <v>77523.847976429213</v>
+      </c>
+      <c r="P11">
+        <v>79793.796728638641</v>
+      </c>
+      <c r="Q11">
+        <v>76800.526074537891</v>
+      </c>
+      <c r="R11">
+        <v>79591.315013985455</v>
+      </c>
+      <c r="S11">
+        <v>80167.210281726409</v>
+      </c>
+      <c r="T11">
+        <v>79370.014275748617</v>
+      </c>
+      <c r="U11">
+        <v>82432.247305477853</v>
+      </c>
+      <c r="V11">
+        <v>79323.407833621139</v>
+      </c>
+      <c r="W11">
+        <v>-59958.163061740866</v>
+      </c>
+      <c r="X11">
+        <v>2951.5558952400061</v>
+      </c>
+      <c r="Y11">
+        <v>-61189.314446341028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>-426.01464024118934</v>
+      </c>
+      <c r="C12">
+        <v>13365.986381778879</v>
+      </c>
+      <c r="D12">
+        <v>11167.788246637632</v>
+      </c>
+      <c r="E12">
+        <v>14389.098208131138</v>
+      </c>
+      <c r="F12">
+        <v>-7073.0422166339085</v>
+      </c>
+      <c r="G12">
+        <v>19312.138251945908</v>
+      </c>
+      <c r="H12">
+        <v>10934.344025090264</v>
+      </c>
+      <c r="I12">
+        <v>7663.9920229336713</v>
+      </c>
+      <c r="J12">
+        <v>-2362.9337781229042</v>
+      </c>
+      <c r="K12">
+        <v>14.373680806133336</v>
+      </c>
+      <c r="L12">
+        <v>77509.096778600142</v>
+      </c>
+      <c r="M12">
+        <v>82400.347908349766</v>
+      </c>
+      <c r="N12">
+        <v>80740.605432128767</v>
+      </c>
+      <c r="O12">
+        <v>79797.767900295425</v>
+      </c>
+      <c r="P12">
+        <v>80697.795419674047</v>
+      </c>
+      <c r="Q12">
+        <v>77613.718974006682</v>
+      </c>
+      <c r="R12">
+        <v>80583.316273803866</v>
+      </c>
+      <c r="S12">
+        <v>80782.933852938819</v>
+      </c>
+      <c r="T12">
+        <v>80320.486774550795</v>
+      </c>
+      <c r="U12">
+        <v>83392.55295718601</v>
+      </c>
+      <c r="V12">
+        <v>80311.73970547042</v>
+      </c>
+      <c r="W12">
+        <v>-76947.74045559307</v>
+      </c>
+      <c r="X12">
+        <v>3159.673516871062</v>
+      </c>
+      <c r="Y12">
+        <v>-47410.880934201465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>-140.90625379519398</v>
+      </c>
+      <c r="C13">
+        <v>15039.531919488898</v>
+      </c>
+      <c r="D13">
+        <v>13652.906866989426</v>
+      </c>
+      <c r="E13">
+        <v>14649.504469092295</v>
+      </c>
+      <c r="F13">
+        <v>-10216.18540472016</v>
+      </c>
+      <c r="G13">
+        <v>19348.882376011607</v>
+      </c>
+      <c r="H13">
+        <v>11456.064346671166</v>
+      </c>
+      <c r="I13">
+        <v>8613.8675478849327</v>
+      </c>
+      <c r="J13">
+        <v>-1326.4503187484152</v>
+      </c>
+      <c r="K13">
+        <v>40.092378293586137</v>
+      </c>
+      <c r="L13">
+        <v>80017.608008528987</v>
+      </c>
+      <c r="M13">
+        <v>80740.605432128767</v>
+      </c>
+      <c r="N13">
+        <v>99030.897070251405</v>
+      </c>
+      <c r="O13">
+        <v>82818.253022478952</v>
+      </c>
+      <c r="P13">
+        <v>83586.962573961224</v>
+      </c>
+      <c r="Q13">
+        <v>80020.618261567433</v>
+      </c>
+      <c r="R13">
+        <v>83094.900308215496</v>
+      </c>
+      <c r="S13">
+        <v>84507.385522085198</v>
+      </c>
+      <c r="T13">
+        <v>82966.22671324978</v>
+      </c>
+      <c r="U13">
+        <v>85589.348106910329</v>
+      </c>
+      <c r="V13">
+        <v>82328.777173158698</v>
+      </c>
+      <c r="W13">
+        <v>-62803.443150766194</v>
+      </c>
+      <c r="X13">
+        <v>3176.022584035813</v>
+      </c>
+      <c r="Y13">
+        <v>-67439.557482007542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>136.4897252569229</v>
+      </c>
+      <c r="C14">
+        <v>7230.4065919250479</v>
+      </c>
+      <c r="D14">
+        <v>14884.344287476441</v>
+      </c>
+      <c r="E14">
+        <v>22641.22158918425</v>
+      </c>
+      <c r="F14">
+        <v>-3390.7681222149131</v>
+      </c>
+      <c r="G14">
+        <v>17980.505150263714</v>
+      </c>
+      <c r="H14">
+        <v>19062.511845462468</v>
+      </c>
+      <c r="I14">
+        <v>10323.31971635067</v>
+      </c>
+      <c r="J14">
+        <v>195.98206304746054</v>
+      </c>
+      <c r="K14">
+        <v>-13.14692066609534</v>
+      </c>
+      <c r="L14">
+        <v>77523.847976429213</v>
+      </c>
+      <c r="M14">
+        <v>79797.767900295425</v>
+      </c>
+      <c r="N14">
+        <v>82818.253022478952</v>
+      </c>
+      <c r="O14">
+        <v>146499.70264462737</v>
+      </c>
+      <c r="P14">
+        <v>83363.325468640745</v>
+      </c>
+      <c r="Q14">
+        <v>80744.187257401325</v>
+      </c>
+      <c r="R14">
+        <v>83321.784191803279</v>
+      </c>
+      <c r="S14">
+        <v>84606.195334373202</v>
+      </c>
+      <c r="T14">
+        <v>80636.171531371787</v>
+      </c>
+      <c r="U14">
+        <v>85444.362452347748</v>
+      </c>
+      <c r="V14">
+        <v>80972.560472039171</v>
+      </c>
+      <c r="W14">
+        <v>4912.5749029777216</v>
+      </c>
+      <c r="X14">
+        <v>3524.2646679120357</v>
+      </c>
+      <c r="Y14">
+        <v>-150625.48476505862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>-337.23400084617157</v>
+      </c>
+      <c r="C15">
+        <v>12348.425391171499</v>
+      </c>
+      <c r="D15">
+        <v>12823.755383104712</v>
+      </c>
+      <c r="E15">
+        <v>15040.931081518946</v>
+      </c>
+      <c r="F15">
+        <v>-8224.6763308017362</v>
+      </c>
+      <c r="G15">
+        <v>18718.636781882102</v>
+      </c>
+      <c r="H15">
+        <v>11319.536538105742</v>
+      </c>
+      <c r="I15">
+        <v>8447.2879932246869</v>
+      </c>
+      <c r="J15">
+        <v>-2129.4206594149509</v>
+      </c>
+      <c r="K15">
+        <v>7.6455612135195565</v>
+      </c>
+      <c r="L15">
+        <v>79793.796728638641</v>
+      </c>
+      <c r="M15">
+        <v>80697.795419674047</v>
+      </c>
+      <c r="N15">
+        <v>83586.962573961224</v>
+      </c>
+      <c r="O15">
+        <v>83363.325468640745</v>
+      </c>
+      <c r="P15">
+        <v>92295.914507072928</v>
+      </c>
+      <c r="Q15">
+        <v>80079.945073323703</v>
+      </c>
+      <c r="R15">
+        <v>82965.566642986756</v>
+      </c>
+      <c r="S15">
+        <v>84197.267014579935</v>
+      </c>
+      <c r="T15">
+        <v>82737.665275097374</v>
+      </c>
+      <c r="U15">
+        <v>86067.951954520686</v>
+      </c>
+      <c r="V15">
+        <v>82596.341179418407</v>
+      </c>
+      <c r="W15">
+        <v>-52215.625796653796</v>
+      </c>
+      <c r="X15">
+        <v>3254.9289814274698</v>
+      </c>
+      <c r="Y15">
+        <v>-76429.132339984179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>-118.06988396431674</v>
+      </c>
+      <c r="C16">
+        <v>11867.913529788279</v>
+      </c>
+      <c r="D16">
+        <v>10295.450056553211</v>
+      </c>
+      <c r="E16">
+        <v>13012.268774374585</v>
+      </c>
+      <c r="F16">
+        <v>-8577.3200896003436</v>
+      </c>
+      <c r="G16">
+        <v>17214.224388601462</v>
+      </c>
+      <c r="H16">
+        <v>10157.090335695699</v>
+      </c>
+      <c r="I16">
+        <v>711.31499024078948</v>
+      </c>
+      <c r="J16">
+        <v>-1804.7914609296931</v>
+      </c>
+      <c r="K16">
+        <v>15.785545708661516</v>
+      </c>
+      <c r="L16">
+        <v>76800.526074537891</v>
+      </c>
+      <c r="M16">
+        <v>77613.718974006682</v>
+      </c>
+      <c r="N16">
+        <v>80020.618261567433</v>
+      </c>
+      <c r="O16">
+        <v>80744.187257401325</v>
+      </c>
+      <c r="P16">
+        <v>80079.945073323703</v>
+      </c>
+      <c r="Q16">
+        <v>87002.118438427249</v>
+      </c>
+      <c r="R16">
+        <v>80016.897294778246</v>
+      </c>
+      <c r="S16">
+        <v>79938.257194203092</v>
+      </c>
+      <c r="T16">
+        <v>79756.024423340074</v>
+      </c>
+      <c r="U16">
+        <v>82808.085743856587</v>
+      </c>
+      <c r="V16">
+        <v>79476.064547181086</v>
+      </c>
+      <c r="W16">
+        <v>-47656.060803428627</v>
+      </c>
+      <c r="X16">
+        <v>3042.1350142213396</v>
+      </c>
+      <c r="Y16">
+        <v>-73730.370732639261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>-194.71834328769245</v>
+      </c>
+      <c r="C17">
+        <v>12626.203761205859</v>
+      </c>
+      <c r="D17">
+        <v>10644.409478948292</v>
+      </c>
+      <c r="E17">
+        <v>14482.307433912218</v>
+      </c>
+      <c r="F17">
+        <v>-7763.3328967218149</v>
+      </c>
+      <c r="G17">
+        <v>18776.376971186681</v>
+      </c>
+      <c r="H17">
+        <v>11943.423191738115</v>
+      </c>
+      <c r="I17">
+        <v>8121.3640373093658</v>
+      </c>
+      <c r="J17">
+        <v>-2009.4767480540104</v>
+      </c>
+      <c r="K17">
+        <v>9.9650977195653923</v>
+      </c>
+      <c r="L17">
+        <v>79591.315013985455</v>
+      </c>
+      <c r="M17">
+        <v>80583.316273803866</v>
+      </c>
+      <c r="N17">
+        <v>83094.900308215496</v>
+      </c>
+      <c r="O17">
+        <v>83321.784191803279</v>
+      </c>
+      <c r="P17">
+        <v>82965.566642986756</v>
+      </c>
+      <c r="Q17">
+        <v>80016.897294778246</v>
+      </c>
+      <c r="R17">
+        <v>90301.33727051357</v>
+      </c>
+      <c r="S17">
+        <v>83642.843564465104</v>
+      </c>
+      <c r="T17">
+        <v>82658.037370559279</v>
+      </c>
+      <c r="U17">
+        <v>85109.446887232189</v>
+      </c>
+      <c r="V17">
+        <v>82422.177988430412</v>
+      </c>
+      <c r="W17">
+        <v>-41577.023138446035</v>
+      </c>
+      <c r="X17">
+        <v>3066.9791505173612</v>
+      </c>
+      <c r="Y17">
+        <v>-84088.257116263179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>-284.51984936121676</v>
+      </c>
+      <c r="C18">
+        <v>14690.515325670916</v>
+      </c>
+      <c r="D18">
+        <v>15144.064837845137</v>
+      </c>
+      <c r="E18">
+        <v>15640.169707379107</v>
+      </c>
+      <c r="F18">
+        <v>-13366.263635154628</v>
+      </c>
+      <c r="G18">
+        <v>20681.680239048692</v>
+      </c>
+      <c r="H18">
+        <v>10638.28067144025</v>
+      </c>
+      <c r="I18">
+        <v>9355.2262861143099</v>
+      </c>
+      <c r="J18">
+        <v>-956.70986849162</v>
+      </c>
+      <c r="K18">
+        <v>63.616006587188878</v>
+      </c>
+      <c r="L18">
+        <v>80167.210281726409</v>
+      </c>
+      <c r="M18">
+        <v>80782.933852938819</v>
+      </c>
+      <c r="N18">
+        <v>84507.385522085198</v>
+      </c>
+      <c r="O18">
+        <v>84606.195334373202</v>
+      </c>
+      <c r="P18">
+        <v>84197.267014579935</v>
+      </c>
+      <c r="Q18">
+        <v>79938.257194203092</v>
+      </c>
+      <c r="R18">
+        <v>83642.843564465104</v>
+      </c>
+      <c r="S18">
+        <v>102582.40683334804</v>
+      </c>
+      <c r="T18">
+        <v>83573.750608675589</v>
+      </c>
+      <c r="U18">
+        <v>85416.577905841506</v>
+      </c>
+      <c r="V18">
+        <v>82973.851205734434</v>
+      </c>
+      <c r="W18">
+        <v>25367.142286678485</v>
+      </c>
+      <c r="X18">
+        <v>3476.6704239392557</v>
+      </c>
+      <c r="Y18">
+        <v>-159673.23094927741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>-199.00332519917535</v>
+      </c>
+      <c r="C19">
+        <v>13619.005549516005</v>
+      </c>
+      <c r="D19">
+        <v>12292.759908869426</v>
+      </c>
+      <c r="E19">
+        <v>15600.30962907034</v>
+      </c>
+      <c r="F19">
+        <v>-9019.8375641435778</v>
+      </c>
+      <c r="G19">
+        <v>20629.747728800026</v>
+      </c>
+      <c r="H19">
+        <v>12005.333008440575</v>
+      </c>
+      <c r="I19">
+        <v>7178.746456776862</v>
+      </c>
+      <c r="J19">
+        <v>-2530.7785640696457</v>
+      </c>
+      <c r="K19">
+        <v>109.79156573463962</v>
+      </c>
+      <c r="L19">
+        <v>79370.014275748617</v>
+      </c>
+      <c r="M19">
+        <v>80320.486774550795</v>
+      </c>
+      <c r="N19">
+        <v>82966.22671324978</v>
+      </c>
+      <c r="O19">
+        <v>80636.171531371787</v>
+      </c>
+      <c r="P19">
+        <v>82737.665275097374</v>
+      </c>
+      <c r="Q19">
+        <v>79756.024423340074</v>
+      </c>
+      <c r="R19">
+        <v>82658.037370559279</v>
+      </c>
+      <c r="S19">
+        <v>83573.750608675589</v>
+      </c>
+      <c r="T19">
+        <v>90701.463590583531</v>
+      </c>
+      <c r="U19">
+        <v>86496.39256561728</v>
+      </c>
+      <c r="V19">
+        <v>82659.259511981363</v>
+      </c>
+      <c r="W19">
+        <v>-64198.770371033417</v>
+      </c>
+      <c r="X19">
+        <v>3285.7745389120546</v>
+      </c>
+      <c r="Y19">
+        <v>-64554.677136837257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20">
+        <v>-174.80008781154081</v>
+      </c>
+      <c r="C20">
+        <v>11784.071452113043</v>
+      </c>
+      <c r="D20">
+        <v>13347.880315515824</v>
+      </c>
+      <c r="E20">
+        <v>17357.27457033188</v>
+      </c>
+      <c r="F20">
+        <v>-9002.1331934026748</v>
+      </c>
+      <c r="G20">
+        <v>20754.745116404174</v>
+      </c>
+      <c r="H20">
+        <v>12939.927073826741</v>
+      </c>
+      <c r="I20">
+        <v>9640.2230469068745</v>
+      </c>
+      <c r="J20">
+        <v>-2752.5416632886554</v>
+      </c>
+      <c r="K20">
+        <v>141.01066864697856</v>
+      </c>
+      <c r="L20">
+        <v>82432.247305477853</v>
+      </c>
+      <c r="M20">
+        <v>83392.55295718601</v>
+      </c>
+      <c r="N20">
+        <v>85589.348106910329</v>
+      </c>
+      <c r="O20">
+        <v>85444.362452347748</v>
+      </c>
+      <c r="P20">
+        <v>86067.951954520686</v>
+      </c>
+      <c r="Q20">
+        <v>82808.085743856587</v>
+      </c>
+      <c r="R20">
+        <v>85109.446887232189</v>
+      </c>
+      <c r="S20">
+        <v>85416.577905841506</v>
+      </c>
+      <c r="T20">
+        <v>86496.39256561728</v>
+      </c>
+      <c r="U20">
+        <v>101354.86535283677</v>
+      </c>
+      <c r="V20">
+        <v>86193.051194485844</v>
+      </c>
+      <c r="W20">
+        <v>-28843.330012364138</v>
+      </c>
+      <c r="X20">
+        <v>3270.037809551327</v>
+      </c>
+      <c r="Y20">
+        <v>-103423.89396399879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>64.551339569159026</v>
+      </c>
+      <c r="C21">
+        <v>13005.154036489403</v>
+      </c>
+      <c r="D21">
+        <v>11929.381481763958</v>
+      </c>
+      <c r="E21">
+        <v>17075.200447185169</v>
+      </c>
+      <c r="F21">
+        <v>-8278.1828950123236</v>
+      </c>
+      <c r="G21">
+        <v>19099.907108435946</v>
+      </c>
+      <c r="H21">
+        <v>9759.0895984366616</v>
+      </c>
+      <c r="I21">
+        <v>7454.8804596090922</v>
+      </c>
+      <c r="J21">
+        <v>-2579.3913972853115</v>
+      </c>
+      <c r="K21">
+        <v>92.748543418506529</v>
+      </c>
+      <c r="L21">
+        <v>79323.407833621139</v>
+      </c>
+      <c r="M21">
+        <v>80311.73970547042</v>
+      </c>
+      <c r="N21">
+        <v>82328.777173158698</v>
+      </c>
+      <c r="O21">
+        <v>80972.560472039171</v>
+      </c>
+      <c r="P21">
+        <v>82596.341179418407</v>
+      </c>
+      <c r="Q21">
+        <v>79476.064547181086</v>
+      </c>
+      <c r="R21">
+        <v>82422.177988430412</v>
+      </c>
+      <c r="S21">
+        <v>82973.851205734434</v>
+      </c>
+      <c r="T21">
+        <v>82659.259511981363</v>
+      </c>
+      <c r="U21">
+        <v>86193.051194485844</v>
+      </c>
+      <c r="V21">
+        <v>100193.6785329555</v>
+      </c>
+      <c r="W21">
+        <v>-41047.930768644335</v>
+      </c>
+      <c r="X21">
+        <v>3553.1113432415978</v>
+      </c>
+      <c r="Y21">
+        <v>-90754.489159543999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>5333.0239518195294</v>
+      </c>
+      <c r="C22">
+        <v>-66247.060041251621</v>
+      </c>
+      <c r="D22">
+        <v>5821.5880151432066</v>
+      </c>
+      <c r="E22">
+        <v>48002.602522749134</v>
+      </c>
+      <c r="F22">
+        <v>-57390.130055015296</v>
+      </c>
+      <c r="G22">
+        <v>-29791.656756020981</v>
+      </c>
+      <c r="H22">
+        <v>-64206.111880231038</v>
+      </c>
+      <c r="I22">
+        <v>50463.287591031753</v>
+      </c>
+      <c r="J22">
+        <v>35613.202509005205</v>
+      </c>
+      <c r="K22">
+        <v>-5.3599838517134231</v>
+      </c>
+      <c r="L22">
+        <v>-59958.163061740866</v>
+      </c>
+      <c r="M22">
+        <v>-76947.74045559307</v>
+      </c>
+      <c r="N22">
+        <v>-62803.443150766194</v>
+      </c>
+      <c r="O22">
+        <v>4912.5749029777216</v>
+      </c>
+      <c r="P22">
+        <v>-52215.625796653796</v>
+      </c>
+      <c r="Q22">
+        <v>-47656.060803428627</v>
+      </c>
+      <c r="R22">
+        <v>-41577.023138446035</v>
+      </c>
+      <c r="S22">
+        <v>25367.142286678485</v>
+      </c>
+      <c r="T22">
+        <v>-64198.770371033417</v>
+      </c>
+      <c r="U22">
+        <v>-28843.330012364138</v>
+      </c>
+      <c r="V22">
+        <v>-41047.930768644335</v>
+      </c>
+      <c r="W22">
+        <v>7471215.5277651548</v>
+      </c>
+      <c r="X22">
+        <v>-7710.6159929118585</v>
+      </c>
+      <c r="Y22">
+        <v>-7328962.4695966393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <v>-3.0198862339574637</v>
+      </c>
+      <c r="C23">
+        <v>538.90097246737514</v>
+      </c>
+      <c r="D23">
+        <v>585.85967036590432</v>
+      </c>
+      <c r="E23">
+        <v>1118.8173643622199</v>
+      </c>
+      <c r="F23">
+        <v>-665.08468233055396</v>
+      </c>
+      <c r="G23">
+        <v>1024.9115717259078</v>
+      </c>
+      <c r="H23">
+        <v>295.44854833929878</v>
+      </c>
+      <c r="I23">
+        <v>-186.3134937849718</v>
+      </c>
+      <c r="J23">
+        <v>-86.745305798158142</v>
+      </c>
+      <c r="K23">
+        <v>3.5189377807404636</v>
+      </c>
+      <c r="L23">
+        <v>2951.5558952400061</v>
+      </c>
+      <c r="M23">
+        <v>3159.673516871062</v>
+      </c>
+      <c r="N23">
+        <v>3176.022584035813</v>
+      </c>
+      <c r="O23">
+        <v>3524.2646679120357</v>
+      </c>
+      <c r="P23">
+        <v>3254.9289814274698</v>
+      </c>
+      <c r="Q23">
+        <v>3042.1350142213396</v>
+      </c>
+      <c r="R23">
+        <v>3066.9791505173612</v>
+      </c>
+      <c r="S23">
+        <v>3476.6704239392557</v>
+      </c>
+      <c r="T23">
+        <v>3285.7745389120546</v>
+      </c>
+      <c r="U23">
+        <v>3270.037809551327</v>
+      </c>
+      <c r="V23">
+        <v>3553.1113432415978</v>
+      </c>
+      <c r="W23">
+        <v>-7710.6159929118585</v>
+      </c>
+      <c r="X23">
+        <v>563.77859121403708</v>
+      </c>
+      <c r="Y23">
+        <v>-3208.3784318360849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>-4182.811529681464</v>
+      </c>
+      <c r="C24">
+        <v>46553.859819575286</v>
+      </c>
+      <c r="D24">
+        <v>-33273.609463188535</v>
+      </c>
+      <c r="E24">
+        <v>-88140.366693882461</v>
+      </c>
+      <c r="F24">
+        <v>73115.960412528482</v>
+      </c>
+      <c r="G24">
+        <v>-5617.8262821222161</v>
+      </c>
+      <c r="H24">
+        <v>44900.409288225077</v>
+      </c>
+      <c r="I24">
+        <v>-60879.223519942025</v>
+      </c>
+      <c r="J24">
+        <v>-34774.744253121578</v>
+      </c>
+      <c r="K24">
+        <v>-258.64645187272754</v>
+      </c>
+      <c r="L24">
+        <v>-61189.314446341028</v>
+      </c>
+      <c r="M24">
+        <v>-47410.880934201465</v>
+      </c>
+      <c r="N24">
+        <v>-67439.557482007542</v>
+      </c>
+      <c r="O24">
+        <v>-150625.48476505862</v>
+      </c>
+      <c r="P24">
+        <v>-76429.132339984179</v>
+      </c>
+      <c r="Q24">
+        <v>-73730.370732639261</v>
+      </c>
+      <c r="R24">
+        <v>-84088.257116263179</v>
+      </c>
+      <c r="S24">
+        <v>-159673.23094927741</v>
+      </c>
+      <c r="T24">
+        <v>-64554.677136837257</v>
+      </c>
+      <c r="U24">
+        <v>-103423.89396399879</v>
+      </c>
+      <c r="V24">
+        <v>-90754.489159543999</v>
+      </c>
+      <c r="W24">
+        <v>-7328962.4695966393</v>
+      </c>
+      <c r="X24">
+        <v>-3208.3784318360849</v>
+      </c>
+      <c r="Y24">
+        <v>7484289.3971125409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36779536-F058-4776-84A2-DB2BE6D7C562}">
+  <dimension ref="A1:W22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>0.27456227702874614</v>
+      </c>
+      <c r="C2">
+        <v>4.5832780888155119E-3</v>
+      </c>
+      <c r="D2">
+        <v>-2.8686239633970317E-4</v>
+      </c>
+      <c r="E2">
+        <v>-1.1874299708247221E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.6166050139789605E-3</v>
+      </c>
+      <c r="G2">
+        <v>-1.94709338138256E-4</v>
+      </c>
+      <c r="H2">
+        <v>1.4473496878978349E-3</v>
+      </c>
+      <c r="I2">
+        <v>7.1757372348310656E-5</v>
+      </c>
+      <c r="J2">
+        <v>7.0278046839538223E-5</v>
+      </c>
+      <c r="K2">
+        <v>-5.9065877903856888E-5</v>
+      </c>
+      <c r="L2">
+        <v>3.9809379737025237E-4</v>
+      </c>
+      <c r="M2">
+        <v>8.9300063404499047E-5</v>
+      </c>
+      <c r="N2">
+        <v>3.8238007056963269E-4</v>
+      </c>
+      <c r="O2">
+        <v>-1.4714701986827259E-4</v>
+      </c>
+      <c r="P2">
+        <v>-2.8965364472474263E-4</v>
+      </c>
+      <c r="Q2">
+        <v>-7.9664788659089439E-5</v>
+      </c>
+      <c r="R2">
+        <v>-1.2585524186493197E-4</v>
+      </c>
+      <c r="S2">
+        <v>-1.5848724598179924E-4</v>
+      </c>
+      <c r="T2">
+        <v>-1.9196448022556264E-4</v>
+      </c>
+      <c r="U2">
+        <v>-5.2658081569864033E-3</v>
+      </c>
+      <c r="V2">
+        <v>-1.3166821608146036E-4</v>
+      </c>
+      <c r="W2">
+        <v>4.6483820275769949E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>-0.65987150490382629</v>
+      </c>
+      <c r="C3">
+        <v>-2.8686239633970317E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.1134305784329345E-2</v>
+      </c>
+      <c r="E3">
+        <v>8.0846180211480347E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.7607252369815315E-3</v>
+      </c>
+      <c r="G3">
+        <v>4.5948353163632102E-5</v>
+      </c>
+      <c r="H3">
+        <v>2.1109346169000083E-4</v>
+      </c>
+      <c r="I3">
+        <v>1.9749120487993392E-4</v>
+      </c>
+      <c r="J3">
+        <v>-2.2164948601081386E-3</v>
+      </c>
+      <c r="K3">
+        <v>-1.3072313995644057E-3</v>
+      </c>
+      <c r="L3">
+        <v>-8.7827358181930926E-4</v>
+      </c>
+      <c r="M3">
+        <v>-7.4673875808729979E-4</v>
+      </c>
+      <c r="N3">
+        <v>-6.757613428247228E-4</v>
+      </c>
+      <c r="O3">
+        <v>-9.3008497549517538E-4</v>
+      </c>
+      <c r="P3">
+        <v>-7.1318860632732495E-4</v>
+      </c>
+      <c r="Q3">
+        <v>-1.5015928075909275E-3</v>
+      </c>
+      <c r="R3">
+        <v>-1.1811122730835573E-3</v>
+      </c>
+      <c r="S3">
+        <v>-7.1950108303548387E-4</v>
+      </c>
+      <c r="T3">
+        <v>-1.3533642803534428E-3</v>
+      </c>
+      <c r="U3">
+        <v>-1.6493236404018438E-3</v>
+      </c>
+      <c r="V3">
+        <v>7.6235532590830126E-5</v>
+      </c>
+      <c r="W3">
+        <v>-6.8587078850079197E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>-1.1074280279791495</v>
+      </c>
+      <c r="C4">
+        <v>-1.1874299708247221E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.0846180211480347E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.1785129746634315E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.9628759709849437E-3</v>
+      </c>
+      <c r="G4">
+        <v>-3.9199548947591186E-4</v>
+      </c>
+      <c r="H4">
+        <v>-2.6983870570252474E-4</v>
+      </c>
+      <c r="I4">
+        <v>5.1121045262907236E-4</v>
+      </c>
+      <c r="J4">
+        <v>-2.2351386946404695E-3</v>
+      </c>
+      <c r="K4">
+        <v>-1.2929740514581521E-3</v>
+      </c>
+      <c r="L4">
+        <v>-1.8847204800145961E-3</v>
+      </c>
+      <c r="M4">
+        <v>-1.0451562403637413E-3</v>
+      </c>
+      <c r="N4">
+        <v>-1.2248235645685149E-3</v>
+      </c>
+      <c r="O4">
+        <v>-1.1110927261831762E-3</v>
+      </c>
+      <c r="P4">
+        <v>-7.9028152422101045E-4</v>
+      </c>
+      <c r="Q4">
+        <v>-1.4076678033395937E-3</v>
+      </c>
+      <c r="R4">
+        <v>-1.9893825311856957E-3</v>
+      </c>
+      <c r="S4">
+        <v>-7.847391460933089E-4</v>
+      </c>
+      <c r="T4">
+        <v>-2.2271446123763115E-3</v>
+      </c>
+      <c r="U4">
+        <v>-2.5826726445788567E-4</v>
+      </c>
+      <c r="V4">
+        <v>1.5232206607465463E-4</v>
+      </c>
+      <c r="W4">
+        <v>-9.6154816854850944E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>-0.51133199449409517</v>
+      </c>
+      <c r="C5">
+        <v>1.6166050139789605E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.7607252369815315E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.9628759709849437E-3</v>
+      </c>
+      <c r="F5">
+        <v>5.8158687212964334E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.4064528805891011E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.7325240227560906E-3</v>
+      </c>
+      <c r="I5">
+        <v>-1.2036322588280379E-4</v>
+      </c>
+      <c r="J5">
+        <v>-8.1296210978956999E-4</v>
+      </c>
+      <c r="K5">
+        <v>6.1785009920141171E-5</v>
+      </c>
+      <c r="L5">
+        <v>2.0727434492805993E-4</v>
+      </c>
+      <c r="M5">
+        <v>1.888760018373065E-4</v>
+      </c>
+      <c r="N5">
+        <v>2.8365027952250826E-4</v>
+      </c>
+      <c r="O5">
+        <v>2.8359723730105848E-4</v>
+      </c>
+      <c r="P5">
+        <v>2.6386899277609663E-4</v>
+      </c>
+      <c r="Q5">
+        <v>1.4227836155687509E-3</v>
+      </c>
+      <c r="R5">
+        <v>8.6571675155353435E-4</v>
+      </c>
+      <c r="S5">
+        <v>4.5469344038860367E-4</v>
+      </c>
+      <c r="T5">
+        <v>-8.4025190900068047E-5</v>
+      </c>
+      <c r="U5">
+        <v>-5.8078397866369331E-3</v>
+      </c>
+      <c r="V5">
+        <v>8.7176112768809488E-5</v>
+      </c>
+      <c r="W5">
+        <v>4.7979920687344496E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>-0.31595266696331298</v>
+      </c>
+      <c r="C6">
+        <v>-1.94709338138256E-4</v>
+      </c>
+      <c r="D6">
+        <v>4.5948353163632102E-5</v>
+      </c>
+      <c r="E6">
+        <v>-3.9199548947591186E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.4064528805891011E-3</v>
+      </c>
+      <c r="G6">
+        <v>6.4829864563274667E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.1276191143522272E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.3225356160283968E-4</v>
+      </c>
+      <c r="J6">
+        <v>-6.8132117842515196E-4</v>
+      </c>
+      <c r="K6">
+        <v>-3.3302677895642491E-4</v>
+      </c>
+      <c r="L6">
+        <v>-6.6470022508079716E-5</v>
+      </c>
+      <c r="M6">
+        <v>5.9559567383172607E-5</v>
+      </c>
+      <c r="N6">
+        <v>-3.1753121055000941E-4</v>
+      </c>
+      <c r="O6">
+        <v>-3.5248706186694284E-5</v>
+      </c>
+      <c r="P6">
+        <v>-3.8881551672414615E-4</v>
+      </c>
+      <c r="Q6">
+        <v>4.5585277220471518E-5</v>
+      </c>
+      <c r="R6">
+        <v>-2.0775030626479177E-4</v>
+      </c>
+      <c r="S6">
+        <v>-5.8891454872056731E-4</v>
+      </c>
+      <c r="T6">
+        <v>-9.7153606548206536E-4</v>
+      </c>
+      <c r="U6">
+        <v>2.140578282163904E-3</v>
+      </c>
+      <c r="V6">
+        <v>-2.4759960173135239E-5</v>
+      </c>
+      <c r="W6">
+        <v>-3.5501214423792251E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>-0.69067868881755412</v>
+      </c>
+      <c r="C7">
+        <v>1.4473496878978349E-3</v>
+      </c>
+      <c r="D7">
+        <v>2.1109346169000083E-4</v>
+      </c>
+      <c r="E7">
+        <v>-2.6983870570252474E-4</v>
+      </c>
+      <c r="F7">
+        <v>8.7325240227560906E-3</v>
+      </c>
+      <c r="G7">
+        <v>2.1276191143522272E-3</v>
+      </c>
+      <c r="H7">
+        <v>0.60644336233942653</v>
+      </c>
+      <c r="I7">
+        <v>-7.986862337113481E-6</v>
+      </c>
+      <c r="J7">
+        <v>4.3754472019196565E-3</v>
+      </c>
+      <c r="K7">
+        <v>2.9266757361275913E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.0031735639836853E-3</v>
+      </c>
+      <c r="M7">
+        <v>4.768946349967617E-3</v>
+      </c>
+      <c r="N7">
+        <v>3.6969623827551421E-3</v>
+      </c>
+      <c r="O7">
+        <v>3.3560045055717174E-3</v>
+      </c>
+      <c r="P7">
+        <v>4.0851388119328459E-3</v>
+      </c>
+      <c r="Q7">
+        <v>4.8076569290021708E-3</v>
+      </c>
+      <c r="R7">
+        <v>3.5777060057510033E-3</v>
+      </c>
+      <c r="S7">
+        <v>4.5180682558005197E-3</v>
+      </c>
+      <c r="T7">
+        <v>3.4994868969396762E-3</v>
+      </c>
+      <c r="U7">
+        <v>2.9498695051542981E-3</v>
+      </c>
+      <c r="V7">
+        <v>-1.9823036391901992E-4</v>
+      </c>
+      <c r="W7">
+        <v>-6.4220292590265408E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>0.15348592056399243</v>
+      </c>
+      <c r="C8">
+        <v>7.1757372348310656E-5</v>
+      </c>
+      <c r="D8">
+        <v>1.9749120487993392E-4</v>
+      </c>
+      <c r="E8">
+        <v>5.1121045262907236E-4</v>
+      </c>
+      <c r="F8">
+        <v>-1.2036322588280379E-4</v>
+      </c>
+      <c r="G8">
+        <v>1.3225356160283968E-4</v>
+      </c>
+      <c r="H8">
+        <v>-7.986862337113481E-6</v>
+      </c>
+      <c r="I8">
+        <v>8.8246880076792698E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.1810148224600806E-4</v>
+      </c>
+      <c r="K8">
+        <v>1.1646829596229308E-4</v>
+      </c>
+      <c r="L8">
+        <v>-1.238489018921524E-4</v>
+      </c>
+      <c r="M8">
+        <v>-2.5126240443912057E-5</v>
+      </c>
+      <c r="N8">
+        <v>-1.1429086353127672E-4</v>
+      </c>
+      <c r="O8">
+        <v>-1.0483625793369184E-4</v>
+      </c>
+      <c r="P8">
+        <v>-6.968401906641314E-5</v>
+      </c>
+      <c r="Q8">
+        <v>-1.8777269689165235E-4</v>
+      </c>
+      <c r="R8">
+        <v>-3.2543219940827164E-5</v>
+      </c>
+      <c r="S8">
+        <v>-1.7721324656937414E-4</v>
+      </c>
+      <c r="T8">
+        <v>-3.0361224758054632E-5</v>
+      </c>
+      <c r="U8">
+        <v>1.8535797818733865E-3</v>
+      </c>
+      <c r="V8">
+        <v>4.3597583710325337E-6</v>
+      </c>
+      <c r="W8">
+        <v>-4.8622424973460872E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>0.35385436980334711</v>
+      </c>
+      <c r="C9">
+        <v>7.0278046839538223E-5</v>
+      </c>
+      <c r="D9">
+        <v>-2.2164948601081386E-3</v>
+      </c>
+      <c r="E9">
+        <v>-2.2351386946404695E-3</v>
+      </c>
+      <c r="F9">
+        <v>-8.1296210978956999E-4</v>
+      </c>
+      <c r="G9">
+        <v>-6.8132117842515196E-4</v>
+      </c>
+      <c r="H9">
+        <v>4.3754472019196565E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.1810148224600806E-4</v>
+      </c>
+      <c r="J9">
+        <v>4.8991388480198871E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.8399927613131882E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.8364406146502095E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.8316579962683481E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.8279682732473351E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.8298998545906976E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.8187476169932569E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.8276392293043738E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.8413334431499746E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.8361965035195521E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.8532698906799712E-2</v>
+      </c>
+      <c r="U9">
+        <v>2.7312162980101112E-4</v>
+      </c>
+      <c r="V9">
+        <v>-1.1668756062576768E-4</v>
+      </c>
+      <c r="W9">
+        <v>-1.5286359464065598E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>0.55433239359212483</v>
+      </c>
+      <c r="C10">
+        <v>-5.9065877903856888E-5</v>
+      </c>
+      <c r="D10">
+        <v>-1.3072313995644057E-3</v>
+      </c>
+      <c r="E10">
+        <v>-1.2929740514581521E-3</v>
+      </c>
+      <c r="F10">
+        <v>6.1785009920141171E-5</v>
+      </c>
+      <c r="G10">
+        <v>-3.3302677895642491E-4</v>
+      </c>
+      <c r="H10">
+        <v>2.9266757361275913E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.1646829596229308E-4</v>
+      </c>
+      <c r="J10">
+        <v>1.8399927613131882E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.9207083735937188E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.8289974882389877E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.8219067059594304E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.822834917748857E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.8212511054173382E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.8153893823383296E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.8222252884547232E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.8307092914921833E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.8274968507395808E-2</v>
+      </c>
+      <c r="T10">
+        <v>1.8396596250443278E-2</v>
+      </c>
+      <c r="U10">
+        <v>2.6967158809715064E-3</v>
+      </c>
+      <c r="V10">
+        <v>-6.3124687686696339E-5</v>
+      </c>
+      <c r="W10">
+        <v>-1.9176127911313387E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>0.39518148197409397</v>
+      </c>
+      <c r="C11">
+        <v>3.9809379737025237E-4</v>
+      </c>
+      <c r="D11">
+        <v>-8.7827358181930926E-4</v>
+      </c>
+      <c r="E11">
+        <v>-1.8847204800145961E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.0727434492805993E-4</v>
+      </c>
+      <c r="G11">
+        <v>-6.6470022508079716E-5</v>
+      </c>
+      <c r="H11">
+        <v>2.0031735639836853E-3</v>
+      </c>
+      <c r="I11">
+        <v>-1.238489018921524E-4</v>
+      </c>
+      <c r="J11">
+        <v>1.8364406146502095E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.8289974882389877E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.383991584881757E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.8249974459899239E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.8263680597389288E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.8250325546946097E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.8145023891219074E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.8234454443557601E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.8396137257521542E-2</v>
+      </c>
+      <c r="S11">
+        <v>1.8218149119321583E-2</v>
+      </c>
+      <c r="T11">
+        <v>1.8431880593672179E-2</v>
+      </c>
+      <c r="U11">
+        <v>4.23958833966704E-3</v>
+      </c>
+      <c r="V11">
+        <v>-8.218915310214184E-5</v>
+      </c>
+      <c r="W11">
+        <v>-2.0055443406341772E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>0.3957936332125308</v>
+      </c>
+      <c r="C12">
+        <v>8.9300063404499047E-5</v>
+      </c>
+      <c r="D12">
+        <v>-7.4673875808729979E-4</v>
+      </c>
+      <c r="E12">
+        <v>-1.0451562403637413E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.888760018373065E-4</v>
+      </c>
+      <c r="G12">
+        <v>5.9559567383172607E-5</v>
+      </c>
+      <c r="H12">
+        <v>4.768946349967617E-3</v>
+      </c>
+      <c r="I12">
+        <v>-2.5126240443912057E-5</v>
+      </c>
+      <c r="J12">
+        <v>1.8316579962683481E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.8219067059594304E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.8249974459899239E-2</v>
+      </c>
+      <c r="M12">
+        <v>3.1510871088718501E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.8212866888807071E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.8281937020653009E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.8126200078766502E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.8221980171728668E-2</v>
+      </c>
+      <c r="R12">
+        <v>1.8279681859181246E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.8204144017594005E-2</v>
+      </c>
+      <c r="T12">
+        <v>1.8270251145165194E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.8430543309827735E-3</v>
+      </c>
+      <c r="V12">
+        <v>-8.4962170725396986E-5</v>
+      </c>
+      <c r="W12">
+        <v>-1.9128031000477184E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>0.5270430353989517</v>
+      </c>
+      <c r="C13">
+        <v>3.8238007056963269E-4</v>
+      </c>
+      <c r="D13">
+        <v>-6.757613428247228E-4</v>
+      </c>
+      <c r="E13">
+        <v>-1.2248235645685149E-3</v>
+      </c>
+      <c r="F13">
+        <v>2.8365027952250826E-4</v>
+      </c>
+      <c r="G13">
+        <v>-3.1753121055000941E-4</v>
+      </c>
+      <c r="H13">
+        <v>3.6969623827551421E-3</v>
+      </c>
+      <c r="I13">
+        <v>-1.1429086353127672E-4</v>
+      </c>
+      <c r="J13">
+        <v>1.8279682732473351E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.822834917748857E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.8263680597389288E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.8212866888807071E-2</v>
+      </c>
+      <c r="N13">
+        <v>3.4455906478268995E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.8163665152429322E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.8080861315557695E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.817150299719764E-2</v>
+      </c>
+      <c r="R13">
+        <v>1.8283243005835365E-2</v>
+      </c>
+      <c r="S13">
+        <v>1.8212682333426034E-2</v>
+      </c>
+      <c r="T13">
+        <v>1.8345903480162202E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.6108819263179969E-3</v>
+      </c>
+      <c r="V13">
+        <v>-2.7501905254484526E-5</v>
+      </c>
+      <c r="W13">
+        <v>-1.9452005021888111E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>0.41001599213267048</v>
+      </c>
+      <c r="C14">
+        <v>-1.4714701986827259E-4</v>
+      </c>
+      <c r="D14">
+        <v>-9.3008497549517538E-4</v>
+      </c>
+      <c r="E14">
+        <v>-1.1110927261831762E-3</v>
+      </c>
+      <c r="F14">
+        <v>2.8359723730105848E-4</v>
+      </c>
+      <c r="G14">
+        <v>-3.5248706186694284E-5</v>
+      </c>
+      <c r="H14">
+        <v>3.3560045055717174E-3</v>
+      </c>
+      <c r="I14">
+        <v>-1.0483625793369184E-4</v>
+      </c>
+      <c r="J14">
+        <v>1.8298998545906976E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.8212511054173382E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.8250325546946097E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.8281937020653009E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.8163665152429322E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.98953233943305E-2</v>
+      </c>
+      <c r="P14">
+        <v>1.8136427027040256E-2</v>
+      </c>
+      <c r="Q14">
+        <v>1.8239165530401048E-2</v>
+      </c>
+      <c r="R14">
+        <v>1.8287450262403235E-2</v>
+      </c>
+      <c r="S14">
+        <v>1.8245362171222298E-2</v>
+      </c>
+      <c r="T14">
+        <v>1.8260359317701282E-2</v>
+      </c>
+      <c r="U14">
+        <v>6.7002146171600968E-3</v>
+      </c>
+      <c r="V14">
+        <v>-1.5263657566741255E-4</v>
+      </c>
+      <c r="W14">
+        <v>-2.1521140944672945E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>0.4239878097584982</v>
+      </c>
+      <c r="C15">
+        <v>-2.8965364472474263E-4</v>
+      </c>
+      <c r="D15">
+        <v>-7.1318860632732495E-4</v>
+      </c>
+      <c r="E15">
+        <v>-7.9028152422101045E-4</v>
+      </c>
+      <c r="F15">
+        <v>2.6386899277609663E-4</v>
+      </c>
+      <c r="G15">
+        <v>-3.8881551672414615E-4</v>
+      </c>
+      <c r="H15">
+        <v>4.0851388119328459E-3</v>
+      </c>
+      <c r="I15">
+        <v>-6.968401906641314E-5</v>
+      </c>
+      <c r="J15">
+        <v>1.8187476169932569E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.8153893823383296E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.8145023891219074E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.8126200078766502E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.8080861315557695E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.8136427027040256E-2</v>
+      </c>
+      <c r="P15">
+        <v>2.8175908832554174E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.8121523627585037E-2</v>
+      </c>
+      <c r="R15">
+        <v>1.8174718419093978E-2</v>
+      </c>
+      <c r="S15">
+        <v>1.8163725287725016E-2</v>
+      </c>
+      <c r="T15">
+        <v>1.8214404017184761E-2</v>
+      </c>
+      <c r="U15">
+        <v>1.1461081256712025E-3</v>
+      </c>
+      <c r="V15">
+        <v>-6.5194265262736662E-5</v>
+      </c>
+      <c r="W15">
+        <v>-1.722182014738944E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16">
+        <v>0.15503701323849453</v>
+      </c>
+      <c r="C16">
+        <v>-7.9664788659089439E-5</v>
+      </c>
+      <c r="D16">
+        <v>-1.5015928075909275E-3</v>
+      </c>
+      <c r="E16">
+        <v>-1.4076678033395937E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.4227836155687509E-3</v>
+      </c>
+      <c r="G16">
+        <v>4.5585277220471518E-5</v>
+      </c>
+      <c r="H16">
+        <v>4.8076569290021708E-3</v>
+      </c>
+      <c r="I16">
+        <v>-1.8777269689165235E-4</v>
+      </c>
+      <c r="J16">
+        <v>1.8276392293043738E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.8222252884547232E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.8234454443557601E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.8221980171728668E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.817150299719764E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.8239165530401048E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.8121523627585037E-2</v>
+      </c>
+      <c r="Q16">
+        <v>3.0396612913469134E-2</v>
+      </c>
+      <c r="R16">
+        <v>1.8300238592649946E-2</v>
+      </c>
+      <c r="S16">
+        <v>1.8262175544610508E-2</v>
+      </c>
+      <c r="T16">
+        <v>1.8232788282022037E-2</v>
+      </c>
+      <c r="U16">
+        <v>7.2787152844092026E-3</v>
+      </c>
+      <c r="V16">
+        <v>-1.4550026741169426E-4</v>
+      </c>
+      <c r="W16">
+        <v>-2.1660756365598791E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>0.54512233669216192</v>
+      </c>
+      <c r="C17">
+        <v>-1.2585524186493197E-4</v>
+      </c>
+      <c r="D17">
+        <v>-1.1811122730835573E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1.9893825311856957E-3</v>
+      </c>
+      <c r="F17">
+        <v>8.6571675155353435E-4</v>
+      </c>
+      <c r="G17">
+        <v>-2.0775030626479177E-4</v>
+      </c>
+      <c r="H17">
+        <v>3.5777060057510033E-3</v>
+      </c>
+      <c r="I17">
+        <v>-3.2543219940827164E-5</v>
+      </c>
+      <c r="J17">
+        <v>1.8413334431499746E-2</v>
+      </c>
+      <c r="K17">
+        <v>1.8307092914921833E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.8396137257521542E-2</v>
+      </c>
+      <c r="M17">
+        <v>1.8279681859181246E-2</v>
+      </c>
+      <c r="N17">
+        <v>1.8283243005835365E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.8287450262403235E-2</v>
+      </c>
+      <c r="P17">
+        <v>1.8174718419093978E-2</v>
+      </c>
+      <c r="Q17">
+        <v>1.8300238592649946E-2</v>
+      </c>
+      <c r="R17">
+        <v>4.0138958658117875E-2</v>
+      </c>
+      <c r="S17">
+        <v>1.8281234875676566E-2</v>
+      </c>
+      <c r="T17">
+        <v>1.848368587390677E-2</v>
+      </c>
+      <c r="U17">
+        <v>6.1244928653040043E-3</v>
+      </c>
+      <c r="V17">
+        <v>-1.1272383891747624E-4</v>
+      </c>
+      <c r="W17">
+        <v>-2.1262062809521691E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>0.37651609105339845</v>
+      </c>
+      <c r="C18">
+        <v>-1.5848724598179924E-4</v>
+      </c>
+      <c r="D18">
+        <v>-7.1950108303548387E-4</v>
+      </c>
+      <c r="E18">
+        <v>-7.847391460933089E-4</v>
+      </c>
+      <c r="F18">
+        <v>4.5469344038860367E-4</v>
+      </c>
+      <c r="G18">
+        <v>-5.8891454872056731E-4</v>
+      </c>
+      <c r="H18">
+        <v>4.5180682558005197E-3</v>
+      </c>
+      <c r="I18">
+        <v>-1.7721324656937414E-4</v>
+      </c>
+      <c r="J18">
+        <v>1.8361965035195521E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.8274968507395808E-2</v>
+      </c>
+      <c r="L18">
+        <v>1.8218149119321583E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.8204144017594005E-2</v>
+      </c>
+      <c r="N18">
+        <v>1.8212682333426034E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.8245362171222298E-2</v>
+      </c>
+      <c r="P18">
+        <v>1.8163725287725016E-2</v>
+      </c>
+      <c r="Q18">
+        <v>1.8262175544610508E-2</v>
+      </c>
+      <c r="R18">
+        <v>1.8281234875676566E-2</v>
+      </c>
+      <c r="S18">
+        <v>3.5095164111449126E-2</v>
+      </c>
+      <c r="T18">
+        <v>1.832744827686509E-2</v>
+      </c>
+      <c r="U18">
+        <v>5.4771050409622227E-3</v>
+      </c>
+      <c r="V18">
+        <v>-7.9711375622448506E-5</v>
+      </c>
+      <c r="W18">
+        <v>-2.115675974876613E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>-0.18897227265833624</v>
+      </c>
+      <c r="C19">
+        <v>-1.9196448022556264E-4</v>
+      </c>
+      <c r="D19">
+        <v>-1.3533642803534428E-3</v>
+      </c>
+      <c r="E19">
+        <v>-2.2271446123763115E-3</v>
+      </c>
+      <c r="F19">
+        <v>-8.4025190900068047E-5</v>
+      </c>
+      <c r="G19">
+        <v>-9.7153606548206536E-4</v>
+      </c>
+      <c r="H19">
+        <v>3.4994868969396762E-3</v>
+      </c>
+      <c r="I19">
+        <v>-3.0361224758054632E-5</v>
+      </c>
+      <c r="J19">
+        <v>1.8532698906799712E-2</v>
+      </c>
+      <c r="K19">
+        <v>1.8396596250443278E-2</v>
+      </c>
+      <c r="L19">
+        <v>1.8431880593672179E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.8270251145165194E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.8345903480162202E-2</v>
+      </c>
+      <c r="O19">
+        <v>1.8260359317701282E-2</v>
+      </c>
+      <c r="P19">
+        <v>1.8214404017184761E-2</v>
+      </c>
+      <c r="Q19">
+        <v>1.8232788282022037E-2</v>
+      </c>
+      <c r="R19">
+        <v>1.848368587390677E-2</v>
+      </c>
+      <c r="S19">
+        <v>1.832744827686509E-2</v>
+      </c>
+      <c r="T19">
+        <v>4.5234247269593728E-2</v>
+      </c>
+      <c r="U19">
+        <v>2.073621405700281E-3</v>
+      </c>
+      <c r="V19">
+        <v>-4.3013770182109173E-5</v>
+      </c>
+      <c r="W19">
+        <v>-1.7758189389905459E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20">
+        <v>-0.11425827879655159</v>
+      </c>
+      <c r="C20">
+        <v>-5.2658081569864033E-3</v>
+      </c>
+      <c r="D20">
+        <v>-1.6493236404018438E-3</v>
+      </c>
+      <c r="E20">
+        <v>-2.5826726445788567E-4</v>
+      </c>
+      <c r="F20">
+        <v>-5.8078397866369331E-3</v>
+      </c>
+      <c r="G20">
+        <v>2.140578282163904E-3</v>
+      </c>
+      <c r="H20">
+        <v>2.9498695051542981E-3</v>
+      </c>
+      <c r="I20">
+        <v>1.8535797818733865E-3</v>
+      </c>
+      <c r="J20">
+        <v>2.7312162980101112E-4</v>
+      </c>
+      <c r="K20">
+        <v>2.6967158809715064E-3</v>
+      </c>
+      <c r="L20">
+        <v>4.23958833966704E-3</v>
+      </c>
+      <c r="M20">
+        <v>2.8430543309827735E-3</v>
+      </c>
+      <c r="N20">
+        <v>2.6108819263179969E-3</v>
+      </c>
+      <c r="O20">
+        <v>6.7002146171600968E-3</v>
+      </c>
+      <c r="P20">
+        <v>1.1461081256712025E-3</v>
+      </c>
+      <c r="Q20">
+        <v>7.2787152844092026E-3</v>
+      </c>
+      <c r="R20">
+        <v>6.1244928653040043E-3</v>
+      </c>
+      <c r="S20">
+        <v>5.4771050409622227E-3</v>
+      </c>
+      <c r="T20">
+        <v>2.073621405700281E-3</v>
+      </c>
+      <c r="U20">
+        <v>1.2360141519329595</v>
+      </c>
+      <c r="V20">
+        <v>-5.6946056750694085E-3</v>
+      </c>
+      <c r="W20">
+        <v>-1.1605757192490316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21">
+        <v>7.5292752605587206E-3</v>
+      </c>
+      <c r="C21">
+        <v>-1.3166821608146036E-4</v>
+      </c>
+      <c r="D21">
+        <v>7.6235532590830126E-5</v>
+      </c>
+      <c r="E21">
+        <v>1.5232206607465463E-4</v>
+      </c>
+      <c r="F21">
+        <v>8.7176112768809488E-5</v>
+      </c>
+      <c r="G21">
+        <v>-2.4759960173135239E-5</v>
+      </c>
+      <c r="H21">
+        <v>-1.9823036391901992E-4</v>
+      </c>
+      <c r="I21">
+        <v>4.3597583710325337E-6</v>
+      </c>
+      <c r="J21">
+        <v>-1.1668756062576768E-4</v>
+      </c>
+      <c r="K21">
+        <v>-6.3124687686696339E-5</v>
+      </c>
+      <c r="L21">
+        <v>-8.218915310214184E-5</v>
+      </c>
+      <c r="M21">
+        <v>-8.4962170725396986E-5</v>
+      </c>
+      <c r="N21">
+        <v>-2.7501905254484526E-5</v>
+      </c>
+      <c r="O21">
+        <v>-1.5263657566741255E-4</v>
+      </c>
+      <c r="P21">
+        <v>-6.5194265262736662E-5</v>
+      </c>
+      <c r="Q21">
+        <v>-1.4550026741169426E-4</v>
+      </c>
+      <c r="R21">
+        <v>-1.1272383891747624E-4</v>
+      </c>
+      <c r="S21">
+        <v>-7.9711375622448506E-5</v>
+      </c>
+      <c r="T21">
+        <v>-4.3013770182109173E-5</v>
+      </c>
+      <c r="U21">
+        <v>-5.6946056750694085E-3</v>
+      </c>
+      <c r="V21">
+        <v>1.4543823052026034E-4</v>
+      </c>
+      <c r="W21">
+        <v>3.7636953410094959E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>0.7302763152664653</v>
+      </c>
+      <c r="C22">
+        <v>4.6483820275769949E-3</v>
+      </c>
+      <c r="D22">
+        <v>-6.8587078850079197E-3</v>
+      </c>
+      <c r="E22">
+        <v>-9.6154816854850944E-3</v>
+      </c>
+      <c r="F22">
+        <v>4.7979920687344496E-4</v>
+      </c>
+      <c r="G22">
+        <v>-3.5501214423792251E-3</v>
+      </c>
+      <c r="H22">
+        <v>-6.4220292590265408E-3</v>
+      </c>
+      <c r="I22">
+        <v>-4.8622424973460872E-3</v>
+      </c>
+      <c r="J22">
+        <v>-1.5286359464065598E-2</v>
+      </c>
+      <c r="K22">
+        <v>-1.9176127911313387E-2</v>
+      </c>
+      <c r="L22">
+        <v>-2.0055443406341772E-2</v>
+      </c>
+      <c r="M22">
+        <v>-1.9128031000477184E-2</v>
+      </c>
+      <c r="N22">
+        <v>-1.9452005021888111E-2</v>
+      </c>
+      <c r="O22">
+        <v>-2.1521140944672945E-2</v>
+      </c>
+      <c r="P22">
+        <v>-1.722182014738944E-2</v>
+      </c>
+      <c r="Q22">
+        <v>-2.1660756365598791E-2</v>
+      </c>
+      <c r="R22">
+        <v>-2.1262062809521691E-2</v>
+      </c>
+      <c r="S22">
+        <v>-2.115675974876613E-2</v>
+      </c>
+      <c r="T22">
+        <v>-1.7758189389905459E-2</v>
+      </c>
+      <c r="U22">
+        <v>-1.1605757192490316</v>
+      </c>
+      <c r="V22">
+        <v>3.7636953410094959E-3</v>
+      </c>
+      <c r="W22">
+        <v>1.1449257226965806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B61645-4A7A-45C4-916C-002E08390D37}">
+  <dimension ref="A1:W22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="28">
+        <v>-176.15284451335066</v>
+      </c>
+      <c r="C2">
+        <v>1094.0624181348305</v>
+      </c>
+      <c r="D2">
+        <v>-289.49818496210798</v>
+      </c>
+      <c r="E2">
+        <v>-459.58879244817194</v>
+      </c>
+      <c r="F2">
+        <v>504.17784141410164</v>
+      </c>
+      <c r="G2">
+        <v>-68.107202681010364</v>
+      </c>
+      <c r="H2">
+        <v>621.42092225011527</v>
+      </c>
+      <c r="I2">
+        <v>25.659045671066494</v>
+      </c>
+      <c r="J2">
+        <v>144.52528205537098</v>
+      </c>
+      <c r="K2">
+        <v>202.93602325241426</v>
+      </c>
+      <c r="L2">
+        <v>71.215331939160208</v>
+      </c>
+      <c r="M2">
+        <v>148.18870111688665</v>
+      </c>
+      <c r="N2">
+        <v>68.517005231491765</v>
+      </c>
+      <c r="O2">
+        <v>178.28646800533306</v>
+      </c>
+      <c r="P2">
+        <v>206.58531481662729</v>
+      </c>
+      <c r="Q2">
+        <v>87.410464000105435</v>
+      </c>
+      <c r="R2">
+        <v>35.45656266192514</v>
+      </c>
+      <c r="S2">
+        <v>23.542243794856716</v>
+      </c>
+      <c r="T2">
+        <v>133.02341612143161</v>
+      </c>
+      <c r="U2">
+        <v>-1762.2923138219894</v>
+      </c>
+      <c r="V2">
+        <v>-10.581943144720876</v>
+      </c>
+      <c r="W2">
+        <v>1268.3736806549864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="28">
+        <v>-601.31101514218096</v>
+      </c>
+      <c r="C3">
+        <v>-289.49818496210798</v>
+      </c>
+      <c r="D3">
+        <v>2618.6510039903105</v>
+      </c>
+      <c r="E3">
+        <v>1999.3070155798396</v>
+      </c>
+      <c r="F3">
+        <v>635.88170147965013</v>
+      </c>
+      <c r="G3">
+        <v>55.702928933150133</v>
+      </c>
+      <c r="H3">
+        <v>95.135932062928305</v>
+      </c>
+      <c r="I3">
+        <v>7.3786289290786158</v>
+      </c>
+      <c r="J3">
+        <v>-13.745122217672019</v>
+      </c>
+      <c r="K3">
+        <v>-148.66279076331091</v>
+      </c>
+      <c r="L3">
+        <v>318.61919733141025</v>
+      </c>
+      <c r="M3">
+        <v>146.636981849118</v>
+      </c>
+      <c r="N3">
+        <v>-8.8233794707696234</v>
+      </c>
+      <c r="O3">
+        <v>133.07741457704583</v>
+      </c>
+      <c r="P3">
+        <v>-106.05296607768639</v>
+      </c>
+      <c r="Q3">
+        <v>-119.30651829319694</v>
+      </c>
+      <c r="R3">
+        <v>-126.77105935701303</v>
+      </c>
+      <c r="S3">
+        <v>-39.963743436817424</v>
+      </c>
+      <c r="T3">
+        <v>-58.982019096397948</v>
+      </c>
+      <c r="U3">
+        <v>2204.9433416844572</v>
+      </c>
+      <c r="V3">
+        <v>4.573026309437374</v>
+      </c>
+      <c r="W3">
+        <v>-4052.0571287204707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="28">
+        <v>-889.32269795264597</v>
+      </c>
+      <c r="C4">
+        <v>-459.58879244817194</v>
+      </c>
+      <c r="D4">
+        <v>1999.3070155798396</v>
+      </c>
+      <c r="E4">
+        <v>2320.8305738838312</v>
+      </c>
+      <c r="F4">
+        <v>468.70232427793781</v>
+      </c>
+      <c r="G4">
+        <v>-11.125546674838233</v>
+      </c>
+      <c r="H4">
+        <v>-222.99581589836953</v>
+      </c>
+      <c r="I4">
+        <v>13.946110992879653</v>
+      </c>
+      <c r="J4">
+        <v>-61.634081114334094</v>
+      </c>
+      <c r="K4">
+        <v>-180.30977385105791</v>
+      </c>
+      <c r="L4">
+        <v>37.170791867008575</v>
+      </c>
+      <c r="M4">
+        <v>-9.916376929209946</v>
+      </c>
+      <c r="N4">
+        <v>-72.204557995030996</v>
+      </c>
+      <c r="O4">
+        <v>-229.09642620703289</v>
+      </c>
+      <c r="P4">
+        <v>-327.79584377208585</v>
+      </c>
+      <c r="Q4">
+        <v>-205.64569531613546</v>
+      </c>
+      <c r="R4">
+        <v>-180.41771054832958</v>
+      </c>
+      <c r="S4">
+        <v>-98.796211630860569</v>
+      </c>
+      <c r="T4">
+        <v>-61.518068365970066</v>
+      </c>
+      <c r="U4">
+        <v>1089.4855035131698</v>
+      </c>
+      <c r="V4">
+        <v>5.3499187532871275</v>
+      </c>
+      <c r="W4">
+        <v>-2679.1929190777669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="28">
+        <v>23.799502021566433</v>
+      </c>
+      <c r="C5">
+        <v>504.17784141410164</v>
+      </c>
+      <c r="D5">
+        <v>635.88170147965013</v>
+      </c>
+      <c r="E5">
+        <v>468.70232427793781</v>
+      </c>
+      <c r="F5">
+        <v>16469.805557518797</v>
+      </c>
+      <c r="G5">
+        <v>250.86739730610191</v>
+      </c>
+      <c r="H5">
+        <v>752.25658992954232</v>
+      </c>
+      <c r="I5">
+        <v>-263.2081273488177</v>
+      </c>
+      <c r="J5">
+        <v>-48.400672092487326</v>
+      </c>
+      <c r="K5">
+        <v>66.687451884268995</v>
+      </c>
+      <c r="L5">
+        <v>16.317267274722525</v>
+      </c>
+      <c r="M5">
+        <v>-100.4039568504502</v>
+      </c>
+      <c r="N5">
+        <v>-43.127412540682471</v>
+      </c>
+      <c r="O5">
+        <v>-164.81517600811512</v>
+      </c>
+      <c r="P5">
+        <v>267.13850634448681</v>
+      </c>
+      <c r="Q5">
+        <v>121.35262618763132</v>
+      </c>
+      <c r="R5">
+        <v>64.843792729817096</v>
+      </c>
+      <c r="S5">
+        <v>-150.21906158435917</v>
+      </c>
+      <c r="T5">
+        <v>-376.02652413035094</v>
+      </c>
+      <c r="U5">
+        <v>6684.8317604162121</v>
+      </c>
+      <c r="V5">
+        <v>-74.135492536911727</v>
+      </c>
+      <c r="W5">
+        <v>-5966.5816611790942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="28">
+        <v>-192.20896713228748</v>
+      </c>
+      <c r="C6">
+        <v>-68.107202681010364</v>
+      </c>
+      <c r="D6">
+        <v>55.702928933150133</v>
+      </c>
+      <c r="E6">
+        <v>-11.125546674838233</v>
+      </c>
+      <c r="F6">
+        <v>250.86739730610191</v>
+      </c>
+      <c r="G6">
+        <v>902.89805922724679</v>
+      </c>
+      <c r="H6">
+        <v>301.45021062708031</v>
+      </c>
+      <c r="I6">
+        <v>-42.552792990341914</v>
+      </c>
+      <c r="J6">
+        <v>41.925581613065447</v>
+      </c>
+      <c r="K6">
+        <v>69.547763009505559</v>
+      </c>
+      <c r="L6">
+        <v>102.82100607807655</v>
+      </c>
+      <c r="M6">
+        <v>161.81010884152778</v>
+      </c>
+      <c r="N6">
+        <v>86.096975850244092</v>
+      </c>
+      <c r="O6">
+        <v>76.819481384091659</v>
+      </c>
+      <c r="P6">
+        <v>-188.81065737821712</v>
+      </c>
+      <c r="Q6">
+        <v>130.35465009345512</v>
+      </c>
+      <c r="R6">
+        <v>133.85489001301914</v>
+      </c>
+      <c r="S6">
+        <v>261.66669783169959</v>
+      </c>
+      <c r="T6">
+        <v>47.368189773293579</v>
+      </c>
+      <c r="U6">
+        <v>1670.0385314348925</v>
+      </c>
+      <c r="V6">
+        <v>-23.814716771096862</v>
+      </c>
+      <c r="W6">
+        <v>-1538.545624184937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="28">
+        <v>-193.0927802858692</v>
+      </c>
+      <c r="C7">
+        <v>621.42092225011527</v>
+      </c>
+      <c r="D7">
+        <v>95.135932062928305</v>
+      </c>
+      <c r="E7">
+        <v>-222.99581589836953</v>
+      </c>
+      <c r="F7">
+        <v>752.25658992954232</v>
+      </c>
+      <c r="G7">
+        <v>301.45021062708031</v>
+      </c>
+      <c r="H7">
+        <v>58236.260037853681</v>
+      </c>
+      <c r="I7">
+        <v>-78.874975205446503</v>
+      </c>
+      <c r="J7">
+        <v>560.51162803796774</v>
+      </c>
+      <c r="K7">
+        <v>469.05803431440518</v>
+      </c>
+      <c r="L7">
+        <v>636.0548915343843</v>
+      </c>
+      <c r="M7">
+        <v>659.28987135339946</v>
+      </c>
+      <c r="N7">
+        <v>-87.684512940599689</v>
+      </c>
+      <c r="O7">
+        <v>-91.41281978481868</v>
+      </c>
+      <c r="P7">
+        <v>701.74945312887417</v>
+      </c>
+      <c r="Q7">
+        <v>635.81623290535481</v>
+      </c>
+      <c r="R7">
+        <v>166.0505914648765</v>
+      </c>
+      <c r="S7">
+        <v>594.58923182651984</v>
+      </c>
+      <c r="T7">
+        <v>327.19101796477116</v>
+      </c>
+      <c r="U7">
+        <v>-3120.138383960475</v>
+      </c>
+      <c r="V7">
+        <v>8.8977296288996115</v>
+      </c>
+      <c r="W7">
+        <v>2192.0760152878843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="28">
+        <v>131.42547661965833</v>
+      </c>
+      <c r="C8">
+        <v>25.659045671066494</v>
+      </c>
+      <c r="D8">
+        <v>7.3786289290786158</v>
+      </c>
+      <c r="E8">
+        <v>13.946110992879653</v>
+      </c>
+      <c r="F8">
+        <v>-263.2081273488177</v>
+      </c>
+      <c r="G8">
+        <v>-42.552792990341914</v>
+      </c>
+      <c r="H8">
+        <v>-78.874975205446503</v>
+      </c>
+      <c r="I8">
+        <v>177.22603053319119</v>
+      </c>
+      <c r="J8">
+        <v>-44.918021049494087</v>
+      </c>
+      <c r="K8">
+        <v>-63.435797714902776</v>
+      </c>
+      <c r="L8">
+        <v>-18.782524961647312</v>
+      </c>
+      <c r="M8">
+        <v>-38.568566948352498</v>
+      </c>
+      <c r="N8">
+        <v>-48.5146176152507</v>
+      </c>
+      <c r="O8">
+        <v>48.921294073913941</v>
+      </c>
+      <c r="P8">
+        <v>72.871432485375635</v>
+      </c>
+      <c r="Q8">
+        <v>-60.990216081072887</v>
+      </c>
+      <c r="R8">
+        <v>-24.673805112140428</v>
+      </c>
+      <c r="S8">
+        <v>-37.924948424683976</v>
+      </c>
+      <c r="T8">
+        <v>-72.687308498517154</v>
+      </c>
+      <c r="U8">
+        <v>666.77674255618911</v>
+      </c>
+      <c r="V8">
+        <v>1.7464807856848665</v>
+      </c>
+      <c r="W8">
+        <v>-1171.7059289348608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="28">
+        <v>-336.13415191104906</v>
+      </c>
+      <c r="C9">
+        <v>144.52528205537098</v>
+      </c>
+      <c r="D9">
+        <v>-13.745122217672019</v>
+      </c>
+      <c r="E9">
+        <v>-61.634081114334094</v>
+      </c>
+      <c r="F9">
+        <v>-48.400672092487326</v>
+      </c>
+      <c r="G9">
+        <v>41.925581613065447</v>
+      </c>
+      <c r="H9">
+        <v>560.51162803796774</v>
+      </c>
+      <c r="I9">
+        <v>-44.918021049494087</v>
+      </c>
+      <c r="J9">
+        <v>5276.64210509449</v>
+      </c>
+      <c r="K9">
+        <v>3914.1631567907093</v>
+      </c>
+      <c r="L9">
+        <v>3878.0957777053923</v>
+      </c>
+      <c r="M9">
+        <v>3886.4636692304402</v>
+      </c>
+      <c r="N9">
+        <v>3920.2311945916313</v>
+      </c>
+      <c r="O9">
+        <v>3918.4457851396019</v>
+      </c>
+      <c r="P9">
+        <v>3983.4425465005843</v>
+      </c>
+      <c r="Q9">
+        <v>3931.5452216892327</v>
+      </c>
+      <c r="R9">
+        <v>3911.0565179317005</v>
+      </c>
+      <c r="S9">
+        <v>3888.2463287858691</v>
+      </c>
+      <c r="T9">
+        <v>3880.2620081958985</v>
+      </c>
+      <c r="U9">
+        <v>-318.6114838209287</v>
+      </c>
+      <c r="V9">
+        <v>4.7262619055186548</v>
+      </c>
+      <c r="W9">
+        <v>-3558.9778431482096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="28">
+        <v>-311.87179749750771</v>
+      </c>
+      <c r="C10">
+        <v>202.93602325241426</v>
+      </c>
+      <c r="D10">
+        <v>-148.66279076331091</v>
+      </c>
+      <c r="E10">
+        <v>-180.30977385105791</v>
+      </c>
+      <c r="F10">
+        <v>66.687451884268995</v>
+      </c>
+      <c r="G10">
+        <v>69.547763009505559</v>
+      </c>
+      <c r="H10">
+        <v>469.05803431440518</v>
+      </c>
+      <c r="I10">
+        <v>-63.435797714902776</v>
+      </c>
+      <c r="J10">
+        <v>3914.1631567907093</v>
+      </c>
+      <c r="K10">
+        <v>5189.5627690288675</v>
+      </c>
+      <c r="L10">
+        <v>3910.0910423273153</v>
+      </c>
+      <c r="M10">
+        <v>3952.0659574243882</v>
+      </c>
+      <c r="N10">
+        <v>3952.295939601303</v>
+      </c>
+      <c r="O10">
+        <v>3924.739977443327</v>
+      </c>
+      <c r="P10">
+        <v>3960.7140174817455</v>
+      </c>
+      <c r="Q10">
+        <v>3950.8707688567183</v>
+      </c>
+      <c r="R10">
+        <v>3936.015161884482</v>
+      </c>
+      <c r="S10">
+        <v>3940.0588003525677</v>
+      </c>
+      <c r="T10">
+        <v>3946.3395056033096</v>
+      </c>
+      <c r="U10">
+        <v>-1627.8312655118366</v>
+      </c>
+      <c r="V10">
+        <v>22.27423331651616</v>
+      </c>
+      <c r="W10">
+        <v>-2441.4781940786643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="28">
+        <v>-262.28413958693062</v>
+      </c>
+      <c r="C11">
+        <v>71.215331939160208</v>
+      </c>
+      <c r="D11">
+        <v>318.61919733141025</v>
+      </c>
+      <c r="E11">
+        <v>37.170791867008575</v>
+      </c>
+      <c r="F11">
+        <v>16.317267274722525</v>
+      </c>
+      <c r="G11">
+        <v>102.82100607807655</v>
+      </c>
+      <c r="H11">
+        <v>636.0548915343843</v>
+      </c>
+      <c r="I11">
+        <v>-18.782524961647312</v>
+      </c>
+      <c r="J11">
+        <v>3878.0957777053923</v>
+      </c>
+      <c r="K11">
+        <v>3910.0910423273153</v>
+      </c>
+      <c r="L11">
+        <v>5725.9947048361291</v>
+      </c>
+      <c r="M11">
+        <v>3900.8813557767826</v>
+      </c>
+      <c r="N11">
+        <v>3925.1204771399152</v>
+      </c>
+      <c r="O11">
+        <v>3925.2334809671488</v>
+      </c>
+      <c r="P11">
+        <v>3939.7010248002371</v>
+      </c>
+      <c r="Q11">
+        <v>3917.6068824188919</v>
+      </c>
+      <c r="R11">
+        <v>3923.2339240460715</v>
+      </c>
+      <c r="S11">
+        <v>3903.0097820268597</v>
+      </c>
+      <c r="T11">
+        <v>3878.3355774967681</v>
+      </c>
+      <c r="U11">
+        <v>510.47663353769667</v>
+      </c>
+      <c r="V11">
+        <v>9.8031204565070311</v>
+      </c>
+      <c r="W11">
+        <v>-4695.9407189464328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="28">
+        <v>-238.35573295212819</v>
+      </c>
+      <c r="C12">
+        <v>148.18870111688665</v>
+      </c>
+      <c r="D12">
+        <v>146.636981849118</v>
+      </c>
+      <c r="E12">
+        <v>-9.916376929209946</v>
+      </c>
+      <c r="F12">
+        <v>-100.4039568504502</v>
+      </c>
+      <c r="G12">
+        <v>161.81010884152778</v>
+      </c>
+      <c r="H12">
+        <v>659.28987135339946</v>
+      </c>
+      <c r="I12">
+        <v>-38.568566948352498</v>
+      </c>
+      <c r="J12">
+        <v>3886.4636692304402</v>
+      </c>
+      <c r="K12">
+        <v>3952.0659574243882</v>
+      </c>
+      <c r="L12">
+        <v>3900.8813557767826</v>
+      </c>
+      <c r="M12">
+        <v>6035.1863993529932</v>
+      </c>
+      <c r="N12">
+        <v>3937.6836844674804</v>
+      </c>
+      <c r="O12">
+        <v>3911.6877725505792</v>
+      </c>
+      <c r="P12">
+        <v>3939.7920212683707</v>
+      </c>
+      <c r="Q12">
+        <v>3925.7615632998359</v>
+      </c>
+      <c r="R12">
+        <v>3918.6792303973452</v>
+      </c>
+      <c r="S12">
+        <v>3908.6452890560677</v>
+      </c>
+      <c r="T12">
+        <v>3906.2238633819325</v>
+      </c>
+      <c r="U12">
+        <v>-1767.6486383264914</v>
+      </c>
+      <c r="V12">
+        <v>17.412982060359269</v>
+      </c>
+      <c r="W12">
+        <v>-2464.3514278227512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="28">
+        <v>-245.60511740244266</v>
+      </c>
+      <c r="C13">
+        <v>68.517005231491765</v>
+      </c>
+      <c r="D13">
+        <v>-8.8233794707696234</v>
+      </c>
+      <c r="E13">
+        <v>-72.204557995030996</v>
+      </c>
+      <c r="F13">
+        <v>-43.127412540682471</v>
+      </c>
+      <c r="G13">
+        <v>86.096975850244092</v>
+      </c>
+      <c r="H13">
+        <v>-87.684512940599689</v>
+      </c>
+      <c r="I13">
+        <v>-48.5146176152507</v>
+      </c>
+      <c r="J13">
+        <v>3920.2311945916313</v>
+      </c>
+      <c r="K13">
+        <v>3952.295939601303</v>
+      </c>
+      <c r="L13">
+        <v>3925.1204771399152</v>
+      </c>
+      <c r="M13">
+        <v>3937.6836844674804</v>
+      </c>
+      <c r="N13">
+        <v>5912.3711548803258</v>
+      </c>
+      <c r="O13">
+        <v>3941.9378228637688</v>
+      </c>
+      <c r="P13">
+        <v>3951.2224226870676</v>
+      </c>
+      <c r="Q13">
+        <v>3951.3462841615051</v>
+      </c>
+      <c r="R13">
+        <v>3940.525853231049</v>
+      </c>
+      <c r="S13">
+        <v>3934.1968254895278</v>
+      </c>
+      <c r="T13">
+        <v>3944.6692183326172</v>
+      </c>
+      <c r="U13">
+        <v>-376.1124710099175</v>
+      </c>
+      <c r="V13">
+        <v>18.725424867326836</v>
+      </c>
+      <c r="W13">
+        <v>-3704.3127039305323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="28">
+        <v>-155.28373603668388</v>
+      </c>
+      <c r="C14">
+        <v>178.28646800533306</v>
+      </c>
+      <c r="D14">
+        <v>133.07741457704583</v>
+      </c>
+      <c r="E14">
+        <v>-229.09642620703289</v>
+      </c>
+      <c r="F14">
+        <v>-164.81517600811512</v>
+      </c>
+      <c r="G14">
+        <v>76.819481384091659</v>
+      </c>
+      <c r="H14">
+        <v>-91.41281978481868</v>
+      </c>
+      <c r="I14">
+        <v>48.921294073913941</v>
+      </c>
+      <c r="J14">
+        <v>3918.4457851396019</v>
+      </c>
+      <c r="K14">
+        <v>3924.739977443327</v>
+      </c>
+      <c r="L14">
+        <v>3925.2334809671488</v>
+      </c>
+      <c r="M14">
+        <v>3911.6877725505792</v>
+      </c>
+      <c r="N14">
+        <v>3941.9378228637688</v>
+      </c>
+      <c r="O14">
+        <v>7329.1058154992061</v>
+      </c>
+      <c r="P14">
+        <v>3946.5736096922146</v>
+      </c>
+      <c r="Q14">
+        <v>3911.0311569274299</v>
+      </c>
+      <c r="R14">
+        <v>3956.3811383164712</v>
+      </c>
+      <c r="S14">
+        <v>3923.7255449060585</v>
+      </c>
+      <c r="T14">
+        <v>3945.543705472166</v>
+      </c>
+      <c r="U14">
+        <v>440.17185531110317</v>
+      </c>
+      <c r="V14">
+        <v>39.525977740091747</v>
+      </c>
+      <c r="W14">
+        <v>-5170.2600554659693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="28">
+        <v>-0.40822350060268542</v>
+      </c>
+      <c r="C15">
+        <v>206.58531481662729</v>
+      </c>
+      <c r="D15">
+        <v>-106.05296607768639</v>
+      </c>
+      <c r="E15">
+        <v>-327.79584377208585</v>
+      </c>
+      <c r="F15">
+        <v>267.13850634448681</v>
+      </c>
+      <c r="G15">
+        <v>-188.81065737821712</v>
+      </c>
+      <c r="H15">
+        <v>701.74945312887417</v>
+      </c>
+      <c r="I15">
+        <v>72.871432485375635</v>
+      </c>
+      <c r="J15">
+        <v>3983.4425465005843</v>
+      </c>
+      <c r="K15">
+        <v>3960.7140174817455</v>
+      </c>
+      <c r="L15">
+        <v>3939.7010248002371</v>
+      </c>
+      <c r="M15">
+        <v>3939.7920212683707</v>
+      </c>
+      <c r="N15">
+        <v>3951.2224226870676</v>
+      </c>
+      <c r="O15">
+        <v>3946.5736096922146</v>
+      </c>
+      <c r="P15">
+        <v>6830.8358214801201</v>
+      </c>
+      <c r="Q15">
+        <v>3912.2172538347345</v>
+      </c>
+      <c r="R15">
+        <v>3986.6649044669057</v>
+      </c>
+      <c r="S15">
+        <v>3935.6850946925911</v>
+      </c>
+      <c r="T15">
+        <v>4026.8831064876995</v>
+      </c>
+      <c r="U15">
+        <v>-3232.1694916363467</v>
+      </c>
+      <c r="V15">
+        <v>79.571129754234306</v>
+      </c>
+      <c r="W15">
+        <v>-2010.8659728436378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="28">
+        <v>-174.02133570894108</v>
+      </c>
+      <c r="C16">
+        <v>87.410464000105435</v>
+      </c>
+      <c r="D16">
+        <v>-119.30651829319694</v>
+      </c>
+      <c r="E16">
+        <v>-205.64569531613546</v>
+      </c>
+      <c r="F16">
+        <v>121.35262618763132</v>
+      </c>
+      <c r="G16">
+        <v>130.35465009345512</v>
+      </c>
+      <c r="H16">
+        <v>635.81623290535481</v>
+      </c>
+      <c r="I16">
+        <v>-60.990216081072887</v>
+      </c>
+      <c r="J16">
+        <v>3931.5452216892327</v>
+      </c>
+      <c r="K16">
+        <v>3950.8707688567183</v>
+      </c>
+      <c r="L16">
+        <v>3917.6068824188919</v>
+      </c>
+      <c r="M16">
+        <v>3925.7615632998359</v>
+      </c>
+      <c r="N16">
+        <v>3951.3462841615051</v>
+      </c>
+      <c r="O16">
+        <v>3911.0311569274299</v>
+      </c>
+      <c r="P16">
+        <v>3912.2172538347345</v>
+      </c>
+      <c r="Q16">
+        <v>6571.6701290626143</v>
+      </c>
+      <c r="R16">
+        <v>3961.8464706425384</v>
+      </c>
+      <c r="S16">
+        <v>3944.1451390551406</v>
+      </c>
+      <c r="T16">
+        <v>3920.5192661899323</v>
+      </c>
+      <c r="U16">
+        <v>1830.7127302982578</v>
+      </c>
+      <c r="V16">
+        <v>-25.392923550624033</v>
+      </c>
+      <c r="W16">
+        <v>-5185.4811188044378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="28">
+        <v>-92.234563920325144</v>
+      </c>
+      <c r="C17">
+        <v>35.45656266192514</v>
+      </c>
+      <c r="D17">
+        <v>-126.77105935701303</v>
+      </c>
+      <c r="E17">
+        <v>-180.41771054832958</v>
+      </c>
+      <c r="F17">
+        <v>64.843792729817096</v>
+      </c>
+      <c r="G17">
+        <v>133.85489001301914</v>
+      </c>
+      <c r="H17">
+        <v>166.0505914648765</v>
+      </c>
+      <c r="I17">
+        <v>-24.673805112140428</v>
+      </c>
+      <c r="J17">
+        <v>3911.0565179317005</v>
+      </c>
+      <c r="K17">
+        <v>3936.015161884482</v>
+      </c>
+      <c r="L17">
+        <v>3923.2339240460715</v>
+      </c>
+      <c r="M17">
+        <v>3918.6792303973452</v>
+      </c>
+      <c r="N17">
+        <v>3940.525853231049</v>
+      </c>
+      <c r="O17">
+        <v>3956.3811383164712</v>
+      </c>
+      <c r="P17">
+        <v>3986.6649044669057</v>
+      </c>
+      <c r="Q17">
+        <v>3961.8464706425384</v>
+      </c>
+      <c r="R17">
+        <v>8797.4752367153233</v>
+      </c>
+      <c r="S17">
+        <v>3927.2160895667439</v>
+      </c>
+      <c r="T17">
+        <v>3877.6832706064743</v>
+      </c>
+      <c r="U17">
+        <v>5822.0921251636428</v>
+      </c>
+      <c r="V17">
+        <v>-51.620662584003725</v>
+      </c>
+      <c r="W17">
+        <v>-8846.1192559197589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="28">
+        <v>-210.21793973451815</v>
+      </c>
+      <c r="C18">
+        <v>23.542243794856716</v>
+      </c>
+      <c r="D18">
+        <v>-39.963743436817424</v>
+      </c>
+      <c r="E18">
+        <v>-98.796211630860569</v>
+      </c>
+      <c r="F18">
+        <v>-150.21906158435917</v>
+      </c>
+      <c r="G18">
+        <v>261.66669783169959</v>
+      </c>
+      <c r="H18">
+        <v>594.58923182651984</v>
+      </c>
+      <c r="I18">
+        <v>-37.924948424683976</v>
+      </c>
+      <c r="J18">
+        <v>3888.2463287858691</v>
+      </c>
+      <c r="K18">
+        <v>3940.0588003525677</v>
+      </c>
+      <c r="L18">
+        <v>3903.0097820268597</v>
+      </c>
+      <c r="M18">
+        <v>3908.6452890560677</v>
+      </c>
+      <c r="N18">
+        <v>3934.1968254895278</v>
+      </c>
+      <c r="O18">
+        <v>3923.7255449060585</v>
+      </c>
+      <c r="P18">
+        <v>3935.6850946925911</v>
+      </c>
+      <c r="Q18">
+        <v>3944.1451390551406</v>
+      </c>
+      <c r="R18">
+        <v>3927.2160895667439</v>
+      </c>
+      <c r="S18">
+        <v>6786.0931471846825</v>
+      </c>
+      <c r="T18">
+        <v>3895.9184038431604</v>
+      </c>
+      <c r="U18">
+        <v>900.74060576842226</v>
+      </c>
+      <c r="V18">
+        <v>-13.204894433336875</v>
+      </c>
+      <c r="W18">
+        <v>-4531.412399707805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="28">
+        <v>-71.883270121099827</v>
+      </c>
+      <c r="C19">
+        <v>133.02341612143161</v>
+      </c>
+      <c r="D19">
+        <v>-58.982019096397948</v>
+      </c>
+      <c r="E19">
+        <v>-61.518068365970066</v>
+      </c>
+      <c r="F19">
+        <v>-376.02652413035094</v>
+      </c>
+      <c r="G19">
+        <v>47.368189773293579</v>
+      </c>
+      <c r="H19">
+        <v>327.19101796477116</v>
+      </c>
+      <c r="I19">
+        <v>-72.687308498517154</v>
+      </c>
+      <c r="J19">
+        <v>3880.2620081958985</v>
+      </c>
+      <c r="K19">
+        <v>3946.3395056033096</v>
+      </c>
+      <c r="L19">
+        <v>3878.3355774967681</v>
+      </c>
+      <c r="M19">
+        <v>3906.2238633819325</v>
+      </c>
+      <c r="N19">
+        <v>3944.6692183326172</v>
+      </c>
+      <c r="O19">
+        <v>3945.543705472166</v>
+      </c>
+      <c r="P19">
+        <v>4026.8831064876995</v>
+      </c>
+      <c r="Q19">
+        <v>3920.5192661899323</v>
+      </c>
+      <c r="R19">
+        <v>3877.6832706064743</v>
+      </c>
+      <c r="S19">
+        <v>3895.9184038431604</v>
+      </c>
+      <c r="T19">
+        <v>8164.7185936728092</v>
+      </c>
+      <c r="U19">
+        <v>-1929.8491877187403</v>
+      </c>
+      <c r="V19">
+        <v>32.24997674172559</v>
+      </c>
+      <c r="W19">
+        <v>-2238.9035595823088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1172.5347040050854</v>
+      </c>
+      <c r="C20">
+        <v>-1762.2923138219894</v>
+      </c>
+      <c r="D20">
+        <v>2204.9433416844572</v>
+      </c>
+      <c r="E20">
+        <v>1089.4855035131698</v>
+      </c>
+      <c r="F20">
+        <v>6684.8317604162121</v>
+      </c>
+      <c r="G20">
+        <v>1670.0385314348925</v>
+      </c>
+      <c r="H20">
+        <v>-3120.138383960475</v>
+      </c>
+      <c r="I20">
+        <v>666.77674255618911</v>
+      </c>
+      <c r="J20">
+        <v>-318.6114838209287</v>
+      </c>
+      <c r="K20">
+        <v>-1627.8312655118366</v>
+      </c>
+      <c r="L20">
+        <v>510.47663353769667</v>
+      </c>
+      <c r="M20">
+        <v>-1767.6486383264914</v>
+      </c>
+      <c r="N20">
+        <v>-376.1124710099175</v>
+      </c>
+      <c r="O20">
+        <v>440.17185531110317</v>
+      </c>
+      <c r="P20">
+        <v>-3232.1694916363467</v>
+      </c>
+      <c r="Q20">
+        <v>1830.7127302982578</v>
+      </c>
+      <c r="R20">
+        <v>5822.0921251636428</v>
+      </c>
+      <c r="S20">
+        <v>900.74060576842226</v>
+      </c>
+      <c r="T20">
+        <v>-1929.8491877187403</v>
+      </c>
+      <c r="U20">
+        <v>258398.77217865724</v>
+      </c>
+      <c r="V20">
+        <v>-1475.2610662710867</v>
+      </c>
+      <c r="W20">
+        <v>-238978.37990421895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="28">
+        <v>8.231164869991801</v>
+      </c>
+      <c r="C21">
+        <v>-10.581943144720876</v>
+      </c>
+      <c r="D21">
+        <v>4.573026309437374</v>
+      </c>
+      <c r="E21">
+        <v>5.3499187532871275</v>
+      </c>
+      <c r="F21">
+        <v>-74.135492536911727</v>
+      </c>
+      <c r="G21">
+        <v>-23.814716771096862</v>
+      </c>
+      <c r="H21">
+        <v>8.8977296288996115</v>
+      </c>
+      <c r="I21">
+        <v>1.7464807856848665</v>
+      </c>
+      <c r="J21">
+        <v>4.7262619055186548</v>
+      </c>
+      <c r="K21">
+        <v>22.27423331651616</v>
+      </c>
+      <c r="L21">
+        <v>9.8031204565070311</v>
+      </c>
+      <c r="M21">
+        <v>17.412982060359269</v>
+      </c>
+      <c r="N21">
+        <v>18.725424867326836</v>
+      </c>
+      <c r="O21">
+        <v>39.525977740091747</v>
+      </c>
+      <c r="P21">
+        <v>79.571129754234306</v>
+      </c>
+      <c r="Q21">
+        <v>-25.392923550624033</v>
+      </c>
+      <c r="R21">
+        <v>-51.620662584003725</v>
+      </c>
+      <c r="S21">
+        <v>-13.204894433336875</v>
+      </c>
+      <c r="T21">
+        <v>32.24997674172559</v>
+      </c>
+      <c r="U21">
+        <v>-1475.2610662710867</v>
+      </c>
+      <c r="V21">
+        <v>30.649638676538984</v>
+      </c>
+      <c r="W21">
+        <v>1036.789232942434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="28">
+        <v>193.53912453153862</v>
+      </c>
+      <c r="C22">
+        <v>1268.3736806549864</v>
+      </c>
+      <c r="D22">
+        <v>-4052.0571287204707</v>
+      </c>
+      <c r="E22">
+        <v>-2679.1929190777669</v>
+      </c>
+      <c r="F22">
+        <v>-5966.5816611790942</v>
+      </c>
+      <c r="G22">
+        <v>-1538.545624184937</v>
+      </c>
+      <c r="H22">
+        <v>2192.0760152878843</v>
+      </c>
+      <c r="I22">
+        <v>-1171.7059289348608</v>
+      </c>
+      <c r="J22">
+        <v>-3558.9778431482096</v>
+      </c>
+      <c r="K22">
+        <v>-2441.4781940786643</v>
+      </c>
+      <c r="L22">
+        <v>-4695.9407189464328</v>
+      </c>
+      <c r="M22">
+        <v>-2464.3514278227512</v>
+      </c>
+      <c r="N22">
+        <v>-3704.3127039305323</v>
+      </c>
+      <c r="O22">
+        <v>-5170.2600554659693</v>
+      </c>
+      <c r="P22">
+        <v>-2010.8659728436378</v>
+      </c>
+      <c r="Q22">
+        <v>-5185.4811188044378</v>
+      </c>
+      <c r="R22">
+        <v>-8846.1192559197589</v>
+      </c>
+      <c r="S22">
+        <v>-4531.412399707805</v>
+      </c>
+      <c r="T22">
+        <v>-2238.9035595823088</v>
+      </c>
+      <c r="U22">
+        <v>-238978.37990421895</v>
+      </c>
+      <c r="V22">
+        <v>1036.789232942434</v>
+      </c>
+      <c r="W22">
+        <v>232949.68617156788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975D07F-90D1-4783-BD8D-91A634D94E7F}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -8051,7 +14946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB5C13-ADB2-43DC-937A-EAEF9C40F7C5}">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -9631,7 +16526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA10A66B-8698-42A3-9030-D2937C9B18D2}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -10221,7 +17116,1202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277A82C-8A34-4954-AA72-2D442A0D2898}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12">
+        <v>-8.4856210128658668E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.8446148878784771E-3</v>
+      </c>
+      <c r="D2">
+        <v>3.9916783220433905E-5</v>
+      </c>
+      <c r="E2">
+        <v>5.0254646561428539E-6</v>
+      </c>
+      <c r="F2">
+        <v>-5.7946343347860339E-4</v>
+      </c>
+      <c r="G2">
+        <v>5.0852777347051847E-5</v>
+      </c>
+      <c r="H2">
+        <v>1.3077402761127637E-3</v>
+      </c>
+      <c r="I2">
+        <v>4.0070411071373591E-4</v>
+      </c>
+      <c r="J2">
+        <v>5.8763233476190509E-4</v>
+      </c>
+      <c r="K2">
+        <v>2.3664667987807926E-5</v>
+      </c>
+      <c r="L2">
+        <v>2.9276453334780694E-4</v>
+      </c>
+      <c r="M2">
+        <v>9.3052128883042845E-5</v>
+      </c>
+      <c r="N2">
+        <v>2.7988034924958903E-4</v>
+      </c>
+      <c r="O2">
+        <v>3.6651396295823199E-4</v>
+      </c>
+      <c r="P2">
+        <v>1.3709892332135262E-3</v>
+      </c>
+      <c r="Q2">
+        <v>1.3630099589279632E-3</v>
+      </c>
+      <c r="R2">
+        <v>5.1276100914136521E-4</v>
+      </c>
+      <c r="S2">
+        <v>6.9205345592727747E-5</v>
+      </c>
+      <c r="T2">
+        <v>-0.14344279225517376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1.9330118905228371</v>
+      </c>
+      <c r="C3">
+        <v>3.9916783220433905E-5</v>
+      </c>
+      <c r="D3">
+        <v>9.8408175447899954E-2</v>
+      </c>
+      <c r="E3">
+        <v>-2.4148842974734438E-3</v>
+      </c>
+      <c r="F3">
+        <v>-7.781974397813203E-4</v>
+      </c>
+      <c r="G3">
+        <v>-1.4108208694821643E-3</v>
+      </c>
+      <c r="H3">
+        <v>-7.7189366447956258E-4</v>
+      </c>
+      <c r="I3">
+        <v>8.2764172332955733E-4</v>
+      </c>
+      <c r="J3">
+        <v>-1.9837663867978712E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.6511265258876764E-3</v>
+      </c>
+      <c r="L3">
+        <v>1.4239682776198935E-3</v>
+      </c>
+      <c r="M3">
+        <v>2.7227064892056153E-3</v>
+      </c>
+      <c r="N3">
+        <v>1.624031409851367E-3</v>
+      </c>
+      <c r="O3">
+        <v>2.3692104380773314E-3</v>
+      </c>
+      <c r="P3">
+        <v>4.9158853524786453E-4</v>
+      </c>
+      <c r="Q3">
+        <v>1.8023316669340955E-3</v>
+      </c>
+      <c r="R3">
+        <v>6.2925117663877039E-5</v>
+      </c>
+      <c r="S3">
+        <v>-7.6180104437563283E-4</v>
+      </c>
+      <c r="T3">
+        <v>0.55388860344228164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="12">
+        <v>-4.0343253566425381E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.0254646561428539E-6</v>
+      </c>
+      <c r="D4">
+        <v>-2.4148842974734438E-3</v>
+      </c>
+      <c r="E4">
+        <v>5.9790927269958268E-5</v>
+      </c>
+      <c r="F4">
+        <v>1.8638816795216532E-5</v>
+      </c>
+      <c r="G4">
+        <v>2.7583057458598965E-5</v>
+      </c>
+      <c r="H4">
+        <v>1.8529407478621413E-5</v>
+      </c>
+      <c r="I4">
+        <v>-2.1659046809852127E-5</v>
+      </c>
+      <c r="J4">
+        <v>4.8452843833891911E-5</v>
+      </c>
+      <c r="K4">
+        <v>-3.8537264434852108E-5</v>
+      </c>
+      <c r="L4">
+        <v>-3.8353400709527819E-5</v>
+      </c>
+      <c r="M4">
+        <v>-6.9196065256514351E-5</v>
+      </c>
+      <c r="N4">
+        <v>-3.7907965433671051E-5</v>
+      </c>
+      <c r="O4">
+        <v>-5.7667953664382776E-5</v>
+      </c>
+      <c r="P4">
+        <v>-5.7152779875578813E-6</v>
+      </c>
+      <c r="Q4">
+        <v>-3.1081867093090982E-5</v>
+      </c>
+      <c r="R4">
+        <v>-5.244724715951915E-6</v>
+      </c>
+      <c r="S4">
+        <v>2.099211296481966E-5</v>
+      </c>
+      <c r="T4">
+        <v>-1.8385589018358017E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="12">
+        <v>7.8353944847450313E-2</v>
+      </c>
+      <c r="C5">
+        <v>-5.7946343347860339E-4</v>
+      </c>
+      <c r="D5">
+        <v>-7.781974397813203E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.8638816795216532E-5</v>
+      </c>
+      <c r="F5">
+        <v>2.5803704150715984E-3</v>
+      </c>
+      <c r="G5">
+        <v>-1.8653991588480582E-5</v>
+      </c>
+      <c r="H5">
+        <v>-8.8422937628439844E-5</v>
+      </c>
+      <c r="I5">
+        <v>-6.4822579384094491E-5</v>
+      </c>
+      <c r="J5">
+        <v>-8.189774302683763E-4</v>
+      </c>
+      <c r="K5">
+        <v>-1.69951092370519E-4</v>
+      </c>
+      <c r="L5">
+        <v>-6.4684604523525605E-4</v>
+      </c>
+      <c r="M5">
+        <v>-1.3329636205710655E-4</v>
+      </c>
+      <c r="N5">
+        <v>-6.8954499990186925E-4</v>
+      </c>
+      <c r="O5">
+        <v>-7.6664050656759545E-4</v>
+      </c>
+      <c r="P5">
+        <v>-6.7929417502275431E-4</v>
+      </c>
+      <c r="Q5">
+        <v>-1.6032060967072432E-3</v>
+      </c>
+      <c r="R5">
+        <v>-1.0013497801786603E-3</v>
+      </c>
+      <c r="S5">
+        <v>-1.2373316284485268E-4</v>
+      </c>
+      <c r="T5">
+        <v>0.24768489899932966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.45639667546552432</v>
+      </c>
+      <c r="C6">
+        <v>5.0852777347051847E-5</v>
+      </c>
+      <c r="D6">
+        <v>-1.4108208694821643E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.7583057458598965E-5</v>
+      </c>
+      <c r="F6">
+        <v>-1.8653991588480582E-5</v>
+      </c>
+      <c r="G6">
+        <v>4.1696369813635473E-4</v>
+      </c>
+      <c r="H6">
+        <v>-1.4028008218307372E-4</v>
+      </c>
+      <c r="I6">
+        <v>-8.6921546207423478E-6</v>
+      </c>
+      <c r="J6">
+        <v>-2.6161911899466107E-4</v>
+      </c>
+      <c r="K6">
+        <v>-1.0912856676295341E-4</v>
+      </c>
+      <c r="L6">
+        <v>-1.1031364863841589E-4</v>
+      </c>
+      <c r="M6">
+        <v>-5.8372602710142051E-5</v>
+      </c>
+      <c r="N6">
+        <v>-6.2870687734962051E-5</v>
+      </c>
+      <c r="O6">
+        <v>-1.6684306765460269E-4</v>
+      </c>
+      <c r="P6">
+        <v>-6.3453397991431186E-4</v>
+      </c>
+      <c r="Q6">
+        <v>-3.0533266378804987E-4</v>
+      </c>
+      <c r="R6">
+        <v>-6.0748192978401713E-5</v>
+      </c>
+      <c r="S6">
+        <v>4.7753473032540318E-5</v>
+      </c>
+      <c r="T6">
+        <v>-8.0066370375161955E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.22009831289859197</v>
+      </c>
+      <c r="C7">
+        <v>1.3077402761127637E-3</v>
+      </c>
+      <c r="D7">
+        <v>-7.7189366447956258E-4</v>
+      </c>
+      <c r="E7">
+        <v>1.8529407478621413E-5</v>
+      </c>
+      <c r="F7">
+        <v>-8.8422937628439844E-5</v>
+      </c>
+      <c r="G7">
+        <v>-1.4028008218307372E-4</v>
+      </c>
+      <c r="H7">
+        <v>5.1664186698142267E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.540248632508835E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.5706322723196671E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.547292451888376E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.5503320988805041E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.5300084667837721E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.5421159161310618E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.5396654526151807E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.5887270221986941E-2</v>
+      </c>
+      <c r="Q7">
+        <v>1.5768388847404134E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.5513159759477773E-2</v>
+      </c>
+      <c r="S7">
+        <v>-7.937382115447207E-5</v>
+      </c>
+      <c r="T7">
+        <v>0.15224529884557064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.24940689508716901</v>
+      </c>
+      <c r="C8">
+        <v>4.0070411071373591E-4</v>
+      </c>
+      <c r="D8">
+        <v>8.2764172332955733E-4</v>
+      </c>
+      <c r="E8">
+        <v>-2.1659046809852127E-5</v>
+      </c>
+      <c r="F8">
+        <v>-6.4822579384094491E-5</v>
+      </c>
+      <c r="G8">
+        <v>-8.6921546207423478E-6</v>
+      </c>
+      <c r="H8">
+        <v>1.540248632508835E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.4060291749413697E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.5497487767995222E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.557500560879836E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.5500990895704796E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.5456401095990894E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.5518560529391517E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.5460883544860237E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.5515591285642671E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.5585774485889409E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.5550676866317031E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.2297254372845619E-4</v>
+      </c>
+      <c r="T8">
+        <v>-0.27064046251995855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.5873098983446351</v>
+      </c>
+      <c r="C9">
+        <v>5.8763233476190509E-4</v>
+      </c>
+      <c r="D9">
+        <v>-1.9837663867978712E-3</v>
+      </c>
+      <c r="E9">
+        <v>4.8452843833891911E-5</v>
+      </c>
+      <c r="F9">
+        <v>-8.189774302683763E-4</v>
+      </c>
+      <c r="G9">
+        <v>-2.6161911899466107E-4</v>
+      </c>
+      <c r="H9">
+        <v>1.5706322723196671E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.5497487767995222E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.8368831540362795E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.5461085455789999E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.564012268225299E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.5446108620848326E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.5615528425964567E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.5657344700887622E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.5920589827155215E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.5933420052357834E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.5667028062473724E-2</v>
+      </c>
+      <c r="S9">
+        <v>-6.5330859369394818E-5</v>
+      </c>
+      <c r="T9">
+        <v>0.13928931598403604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.31669656407323393</v>
+      </c>
+      <c r="C10">
+        <v>2.3664667987807926E-5</v>
+      </c>
+      <c r="D10">
+        <v>1.6511265258876764E-3</v>
+      </c>
+      <c r="E10">
+        <v>-3.8537264434852108E-5</v>
+      </c>
+      <c r="F10">
+        <v>-1.69951092370519E-4</v>
+      </c>
+      <c r="G10">
+        <v>-1.0912856676295341E-4</v>
+      </c>
+      <c r="H10">
+        <v>1.547292451888376E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.557500560879836E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.5461085455789999E-2</v>
+      </c>
+      <c r="K10">
+        <v>3.9566395847909976E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.5497940747468721E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.5499926621540623E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.5569427553066848E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.5524908780548971E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.5507240767893685E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.5638100965325724E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.5534049018030599E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.789533385490186E-4</v>
+      </c>
+      <c r="T10">
+        <v>-0.39197049826144514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.23359222121887649</v>
+      </c>
+      <c r="C11">
+        <v>2.9276453334780694E-4</v>
+      </c>
+      <c r="D11">
+        <v>1.4239682776198935E-3</v>
+      </c>
+      <c r="E11">
+        <v>-3.8353400709527819E-5</v>
+      </c>
+      <c r="F11">
+        <v>-6.4684604523525605E-4</v>
+      </c>
+      <c r="G11">
+        <v>-1.1031364863841589E-4</v>
+      </c>
+      <c r="H11">
+        <v>1.5503320988805041E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.5500990895704796E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.564012268225299E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.5497940747468721E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.419097903965667E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.5437212521568888E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.5577710553614009E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.5591547896715154E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.5599734909895165E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.5975168397297981E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.5584271614023369E-2</v>
+      </c>
+      <c r="S11">
+        <v>-1.3754685244549847E-4</v>
+      </c>
+      <c r="T11">
+        <v>0.25093622518821523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.21017362239900961</v>
+      </c>
+      <c r="C12">
+        <v>9.3052128883042845E-5</v>
+      </c>
+      <c r="D12">
+        <v>2.7227064892056153E-3</v>
+      </c>
+      <c r="E12">
+        <v>-6.9196065256514351E-5</v>
+      </c>
+      <c r="F12">
+        <v>-1.3329636205710655E-4</v>
+      </c>
+      <c r="G12">
+        <v>-5.8372602710142051E-5</v>
+      </c>
+      <c r="H12">
+        <v>1.5300084667837721E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.5456401095990894E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.5446108620848326E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.5499926621540623E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.5437212521568888E-2</v>
+      </c>
+      <c r="M12">
+        <v>3.7313155506912048E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.5425181368133915E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.538893729271245E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.5371849136027491E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.5612936499318808E-2</v>
+      </c>
+      <c r="R12">
+        <v>1.5423428249820457E-2</v>
+      </c>
+      <c r="S12">
+        <v>3.0117181434917949E-5</v>
+      </c>
+      <c r="T12">
+        <v>-0.10170229023608979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.29678282433340714</v>
+      </c>
+      <c r="C13">
+        <v>2.7988034924958903E-4</v>
+      </c>
+      <c r="D13">
+        <v>1.624031409851367E-3</v>
+      </c>
+      <c r="E13">
+        <v>-3.7907965433671051E-5</v>
+      </c>
+      <c r="F13">
+        <v>-6.8954499990186925E-4</v>
+      </c>
+      <c r="G13">
+        <v>-6.2870687734962051E-5</v>
+      </c>
+      <c r="H13">
+        <v>1.5421159161310618E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.5518560529391517E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.5615528425964567E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.5569427553066848E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.5577710553614009E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.5425181368133915E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.9679165353839597E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.5595022309646236E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.5650478603150973E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.5889771485458257E-2</v>
+      </c>
+      <c r="R13">
+        <v>1.5646205278139015E-2</v>
+      </c>
+      <c r="S13">
+        <v>4.6894204705012505E-5</v>
+      </c>
+      <c r="T13">
+        <v>-0.12407699549945228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.51432520653562197</v>
+      </c>
+      <c r="C14">
+        <v>3.6651396295823199E-4</v>
+      </c>
+      <c r="D14">
+        <v>2.3692104380773314E-3</v>
+      </c>
+      <c r="E14">
+        <v>-5.7667953664382776E-5</v>
+      </c>
+      <c r="F14">
+        <v>-7.6664050656759545E-4</v>
+      </c>
+      <c r="G14">
+        <v>-1.6684306765460269E-4</v>
+      </c>
+      <c r="H14">
+        <v>1.5396654526151807E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.5460883544860237E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.5657344700887622E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.5524908780548971E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.5591547896715154E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.538893729271245E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.5595022309646236E-2</v>
+      </c>
+      <c r="O14">
+        <v>3.7256127237415081E-2</v>
+      </c>
+      <c r="P14">
+        <v>1.5698527510438254E-2</v>
+      </c>
+      <c r="Q14">
+        <v>1.5991020361535529E-2</v>
+      </c>
+      <c r="R14">
+        <v>1.5627699563896345E-2</v>
+      </c>
+      <c r="S14">
+        <v>8.8741901990701134E-6</v>
+      </c>
+      <c r="T14">
+        <v>-5.4036258887953714E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1.1045550503952997</v>
+      </c>
+      <c r="C15">
+        <v>1.3709892332135262E-3</v>
+      </c>
+      <c r="D15">
+        <v>4.9158853524786453E-4</v>
+      </c>
+      <c r="E15">
+        <v>-5.7152779875578813E-6</v>
+      </c>
+      <c r="F15">
+        <v>-6.7929417502275431E-4</v>
+      </c>
+      <c r="G15">
+        <v>-6.3453397991431186E-4</v>
+      </c>
+      <c r="H15">
+        <v>1.5887270221986941E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.5515591285642671E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.5920589827155215E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.5507240767893685E-2</v>
+      </c>
+      <c r="L15">
+        <v>1.5599734909895165E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.5371849136027491E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.5650478603150973E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.5698527510438254E-2</v>
+      </c>
+      <c r="P15">
+        <v>5.4455675897466395E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.6610133547159206E-2</v>
+      </c>
+      <c r="R15">
+        <v>1.5613022656385143E-2</v>
+      </c>
+      <c r="S15">
+        <v>4.1801821548764079E-5</v>
+      </c>
+      <c r="T15">
+        <v>-0.10353504764657895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.55862220604551516</v>
+      </c>
+      <c r="C16">
+        <v>1.3630099589279632E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.8023316669340955E-3</v>
+      </c>
+      <c r="E16">
+        <v>-3.1081867093090982E-5</v>
+      </c>
+      <c r="F16">
+        <v>-1.6032060967072432E-3</v>
+      </c>
+      <c r="G16">
+        <v>-3.0533266378804987E-4</v>
+      </c>
+      <c r="H16">
+        <v>1.5768388847404134E-2</v>
+      </c>
+      <c r="I16">
+        <v>1.5585774485889409E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.5933420052357834E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.5638100965325724E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.5975168397297981E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.5612936499318808E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.5889771485458257E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.5991020361535529E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.6610133547159206E-2</v>
+      </c>
+      <c r="Q16">
+        <v>4.9909150245349657E-2</v>
+      </c>
+      <c r="R16">
+        <v>1.607188628809926E-2</v>
+      </c>
+      <c r="S16">
+        <v>2.7412235362181403E-4</v>
+      </c>
+      <c r="T16">
+        <v>-0.58399866078570284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.35936460172951928</v>
+      </c>
+      <c r="C17">
+        <v>5.1276100914136521E-4</v>
+      </c>
+      <c r="D17">
+        <v>6.2925117663877039E-5</v>
+      </c>
+      <c r="E17">
+        <v>-5.244724715951915E-6</v>
+      </c>
+      <c r="F17">
+        <v>-1.0013497801786603E-3</v>
+      </c>
+      <c r="G17">
+        <v>-6.0748192978401713E-5</v>
+      </c>
+      <c r="H17">
+        <v>1.5513159759477773E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.5550676866317031E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.5667028062473724E-2</v>
+      </c>
+      <c r="K17">
+        <v>1.5534049018030599E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.5584271614023369E-2</v>
+      </c>
+      <c r="M17">
+        <v>1.5423428249820457E-2</v>
+      </c>
+      <c r="N17">
+        <v>1.5646205278139015E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.5627699563896345E-2</v>
+      </c>
+      <c r="P17">
+        <v>1.5613022656385143E-2</v>
+      </c>
+      <c r="Q17">
+        <v>1.607188628809926E-2</v>
+      </c>
+      <c r="R17">
+        <v>5.2951153543075682E-2</v>
+      </c>
+      <c r="S17">
+        <v>2.0897835119839704E-4</v>
+      </c>
+      <c r="T17">
+        <v>-0.43171079920310618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="12">
+        <v>-8.5743645064050092E-2</v>
+      </c>
+      <c r="C18">
+        <v>6.9205345592727747E-5</v>
+      </c>
+      <c r="D18">
+        <v>-7.6180104437563283E-4</v>
+      </c>
+      <c r="E18">
+        <v>2.099211296481966E-5</v>
+      </c>
+      <c r="F18">
+        <v>-1.2373316284485268E-4</v>
+      </c>
+      <c r="G18">
+        <v>4.7753473032540318E-5</v>
+      </c>
+      <c r="H18">
+        <v>-7.937382115447207E-5</v>
+      </c>
+      <c r="I18">
+        <v>1.2297254372845619E-4</v>
+      </c>
+      <c r="J18">
+        <v>-6.5330859369394818E-5</v>
+      </c>
+      <c r="K18">
+        <v>1.789533385490186E-4</v>
+      </c>
+      <c r="L18">
+        <v>-1.3754685244549847E-4</v>
+      </c>
+      <c r="M18">
+        <v>3.0117181434917949E-5</v>
+      </c>
+      <c r="N18">
+        <v>4.6894204705012505E-5</v>
+      </c>
+      <c r="O18">
+        <v>8.8741901990701134E-6</v>
+      </c>
+      <c r="P18">
+        <v>4.1801821548764079E-5</v>
+      </c>
+      <c r="Q18">
+        <v>2.7412235362181403E-4</v>
+      </c>
+      <c r="R18">
+        <v>2.0897835119839704E-4</v>
+      </c>
+      <c r="S18">
+        <v>4.8206564497331461E-4</v>
+      </c>
+      <c r="T18">
+        <v>-0.96328344824806322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="12">
+        <v>151.62277633314579</v>
+      </c>
+      <c r="C19">
+        <v>-0.14344279225517376</v>
+      </c>
+      <c r="D19">
+        <v>0.55388860344228164</v>
+      </c>
+      <c r="E19">
+        <v>-1.8385589018358017E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.24768489899932966</v>
+      </c>
+      <c r="G19">
+        <v>-8.0066370375161955E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.15224529884557064</v>
+      </c>
+      <c r="I19">
+        <v>-0.27064046251995855</v>
+      </c>
+      <c r="J19">
+        <v>0.13928931598403604</v>
+      </c>
+      <c r="K19">
+        <v>-0.39197049826144514</v>
+      </c>
+      <c r="L19">
+        <v>0.25093622518821523</v>
+      </c>
+      <c r="M19">
+        <v>-0.10170229023608979</v>
+      </c>
+      <c r="N19">
+        <v>-0.12407699549945228</v>
+      </c>
+      <c r="O19">
+        <v>-5.4036258887953714E-2</v>
+      </c>
+      <c r="P19">
+        <v>-0.10353504764657895</v>
+      </c>
+      <c r="Q19">
+        <v>-0.58399866078570284</v>
+      </c>
+      <c r="R19">
+        <v>-0.43171079920310618</v>
+      </c>
+      <c r="S19">
+        <v>-0.96328344824806322</v>
+      </c>
+      <c r="T19">
+        <v>1934.6228088075004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858FD98F-1796-47F3-B57A-D7A623996EB5}">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -11801,7 +19891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C68E57A-3284-4E43-9126-841D14A9F267}">
   <dimension ref="A1:X23"/>
   <sheetViews>
@@ -13519,7 +21609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFEDE0D-E1BF-4F30-B2BF-00C2EED4C87E}">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -14080,7 +22170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81EE7C5-76B4-4FCE-B58E-67AB7D4EEA68}">
   <dimension ref="A1:N51"/>
   <sheetViews>
@@ -15013,1202 +23103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277A82C-8A34-4954-AA72-2D442A0D2898}">
-  <dimension ref="A1:T19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="12">
-        <v>-8.4856210128658668E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.8446148878784771E-3</v>
-      </c>
-      <c r="D2">
-        <v>3.9916783220433905E-5</v>
-      </c>
-      <c r="E2">
-        <v>5.0254646561428539E-6</v>
-      </c>
-      <c r="F2">
-        <v>-5.7946343347860339E-4</v>
-      </c>
-      <c r="G2">
-        <v>5.0852777347051847E-5</v>
-      </c>
-      <c r="H2">
-        <v>1.3077402761127637E-3</v>
-      </c>
-      <c r="I2">
-        <v>4.0070411071373591E-4</v>
-      </c>
-      <c r="J2">
-        <v>5.8763233476190509E-4</v>
-      </c>
-      <c r="K2">
-        <v>2.3664667987807926E-5</v>
-      </c>
-      <c r="L2">
-        <v>2.9276453334780694E-4</v>
-      </c>
-      <c r="M2">
-        <v>9.3052128883042845E-5</v>
-      </c>
-      <c r="N2">
-        <v>2.7988034924958903E-4</v>
-      </c>
-      <c r="O2">
-        <v>3.6651396295823199E-4</v>
-      </c>
-      <c r="P2">
-        <v>1.3709892332135262E-3</v>
-      </c>
-      <c r="Q2">
-        <v>1.3630099589279632E-3</v>
-      </c>
-      <c r="R2">
-        <v>5.1276100914136521E-4</v>
-      </c>
-      <c r="S2">
-        <v>6.9205345592727747E-5</v>
-      </c>
-      <c r="T2">
-        <v>-0.14344279225517376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1.9330118905228371</v>
-      </c>
-      <c r="C3">
-        <v>3.9916783220433905E-5</v>
-      </c>
-      <c r="D3">
-        <v>9.8408175447899954E-2</v>
-      </c>
-      <c r="E3">
-        <v>-2.4148842974734438E-3</v>
-      </c>
-      <c r="F3">
-        <v>-7.781974397813203E-4</v>
-      </c>
-      <c r="G3">
-        <v>-1.4108208694821643E-3</v>
-      </c>
-      <c r="H3">
-        <v>-7.7189366447956258E-4</v>
-      </c>
-      <c r="I3">
-        <v>8.2764172332955733E-4</v>
-      </c>
-      <c r="J3">
-        <v>-1.9837663867978712E-3</v>
-      </c>
-      <c r="K3">
-        <v>1.6511265258876764E-3</v>
-      </c>
-      <c r="L3">
-        <v>1.4239682776198935E-3</v>
-      </c>
-      <c r="M3">
-        <v>2.7227064892056153E-3</v>
-      </c>
-      <c r="N3">
-        <v>1.624031409851367E-3</v>
-      </c>
-      <c r="O3">
-        <v>2.3692104380773314E-3</v>
-      </c>
-      <c r="P3">
-        <v>4.9158853524786453E-4</v>
-      </c>
-      <c r="Q3">
-        <v>1.8023316669340955E-3</v>
-      </c>
-      <c r="R3">
-        <v>6.2925117663877039E-5</v>
-      </c>
-      <c r="S3">
-        <v>-7.6180104437563283E-4</v>
-      </c>
-      <c r="T3">
-        <v>0.55388860344228164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="12">
-        <v>-4.0343253566425381E-2</v>
-      </c>
-      <c r="C4">
-        <v>5.0254646561428539E-6</v>
-      </c>
-      <c r="D4">
-        <v>-2.4148842974734438E-3</v>
-      </c>
-      <c r="E4">
-        <v>5.9790927269958268E-5</v>
-      </c>
-      <c r="F4">
-        <v>1.8638816795216532E-5</v>
-      </c>
-      <c r="G4">
-        <v>2.7583057458598965E-5</v>
-      </c>
-      <c r="H4">
-        <v>1.8529407478621413E-5</v>
-      </c>
-      <c r="I4">
-        <v>-2.1659046809852127E-5</v>
-      </c>
-      <c r="J4">
-        <v>4.8452843833891911E-5</v>
-      </c>
-      <c r="K4">
-        <v>-3.8537264434852108E-5</v>
-      </c>
-      <c r="L4">
-        <v>-3.8353400709527819E-5</v>
-      </c>
-      <c r="M4">
-        <v>-6.9196065256514351E-5</v>
-      </c>
-      <c r="N4">
-        <v>-3.7907965433671051E-5</v>
-      </c>
-      <c r="O4">
-        <v>-5.7667953664382776E-5</v>
-      </c>
-      <c r="P4">
-        <v>-5.7152779875578813E-6</v>
-      </c>
-      <c r="Q4">
-        <v>-3.1081867093090982E-5</v>
-      </c>
-      <c r="R4">
-        <v>-5.244724715951915E-6</v>
-      </c>
-      <c r="S4">
-        <v>2.099211296481966E-5</v>
-      </c>
-      <c r="T4">
-        <v>-1.8385589018358017E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="12">
-        <v>7.8353944847450313E-2</v>
-      </c>
-      <c r="C5">
-        <v>-5.7946343347860339E-4</v>
-      </c>
-      <c r="D5">
-        <v>-7.781974397813203E-4</v>
-      </c>
-      <c r="E5">
-        <v>1.8638816795216532E-5</v>
-      </c>
-      <c r="F5">
-        <v>2.5803704150715984E-3</v>
-      </c>
-      <c r="G5">
-        <v>-1.8653991588480582E-5</v>
-      </c>
-      <c r="H5">
-        <v>-8.8422937628439844E-5</v>
-      </c>
-      <c r="I5">
-        <v>-6.4822579384094491E-5</v>
-      </c>
-      <c r="J5">
-        <v>-8.189774302683763E-4</v>
-      </c>
-      <c r="K5">
-        <v>-1.69951092370519E-4</v>
-      </c>
-      <c r="L5">
-        <v>-6.4684604523525605E-4</v>
-      </c>
-      <c r="M5">
-        <v>-1.3329636205710655E-4</v>
-      </c>
-      <c r="N5">
-        <v>-6.8954499990186925E-4</v>
-      </c>
-      <c r="O5">
-        <v>-7.6664050656759545E-4</v>
-      </c>
-      <c r="P5">
-        <v>-6.7929417502275431E-4</v>
-      </c>
-      <c r="Q5">
-        <v>-1.6032060967072432E-3</v>
-      </c>
-      <c r="R5">
-        <v>-1.0013497801786603E-3</v>
-      </c>
-      <c r="S5">
-        <v>-1.2373316284485268E-4</v>
-      </c>
-      <c r="T5">
-        <v>0.24768489899932966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.45639667546552432</v>
-      </c>
-      <c r="C6">
-        <v>5.0852777347051847E-5</v>
-      </c>
-      <c r="D6">
-        <v>-1.4108208694821643E-3</v>
-      </c>
-      <c r="E6">
-        <v>2.7583057458598965E-5</v>
-      </c>
-      <c r="F6">
-        <v>-1.8653991588480582E-5</v>
-      </c>
-      <c r="G6">
-        <v>4.1696369813635473E-4</v>
-      </c>
-      <c r="H6">
-        <v>-1.4028008218307372E-4</v>
-      </c>
-      <c r="I6">
-        <v>-8.6921546207423478E-6</v>
-      </c>
-      <c r="J6">
-        <v>-2.6161911899466107E-4</v>
-      </c>
-      <c r="K6">
-        <v>-1.0912856676295341E-4</v>
-      </c>
-      <c r="L6">
-        <v>-1.1031364863841589E-4</v>
-      </c>
-      <c r="M6">
-        <v>-5.8372602710142051E-5</v>
-      </c>
-      <c r="N6">
-        <v>-6.2870687734962051E-5</v>
-      </c>
-      <c r="O6">
-        <v>-1.6684306765460269E-4</v>
-      </c>
-      <c r="P6">
-        <v>-6.3453397991431186E-4</v>
-      </c>
-      <c r="Q6">
-        <v>-3.0533266378804987E-4</v>
-      </c>
-      <c r="R6">
-        <v>-6.0748192978401713E-5</v>
-      </c>
-      <c r="S6">
-        <v>4.7753473032540318E-5</v>
-      </c>
-      <c r="T6">
-        <v>-8.0066370375161955E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.22009831289859197</v>
-      </c>
-      <c r="C7">
-        <v>1.3077402761127637E-3</v>
-      </c>
-      <c r="D7">
-        <v>-7.7189366447956258E-4</v>
-      </c>
-      <c r="E7">
-        <v>1.8529407478621413E-5</v>
-      </c>
-      <c r="F7">
-        <v>-8.8422937628439844E-5</v>
-      </c>
-      <c r="G7">
-        <v>-1.4028008218307372E-4</v>
-      </c>
-      <c r="H7">
-        <v>5.1664186698142267E-2</v>
-      </c>
-      <c r="I7">
-        <v>1.540248632508835E-2</v>
-      </c>
-      <c r="J7">
-        <v>1.5706322723196671E-2</v>
-      </c>
-      <c r="K7">
-        <v>1.547292451888376E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.5503320988805041E-2</v>
-      </c>
-      <c r="M7">
-        <v>1.5300084667837721E-2</v>
-      </c>
-      <c r="N7">
-        <v>1.5421159161310618E-2</v>
-      </c>
-      <c r="O7">
-        <v>1.5396654526151807E-2</v>
-      </c>
-      <c r="P7">
-        <v>1.5887270221986941E-2</v>
-      </c>
-      <c r="Q7">
-        <v>1.5768388847404134E-2</v>
-      </c>
-      <c r="R7">
-        <v>1.5513159759477773E-2</v>
-      </c>
-      <c r="S7">
-        <v>-7.937382115447207E-5</v>
-      </c>
-      <c r="T7">
-        <v>0.15224529884557064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.24940689508716901</v>
-      </c>
-      <c r="C8">
-        <v>4.0070411071373591E-4</v>
-      </c>
-      <c r="D8">
-        <v>8.2764172332955733E-4</v>
-      </c>
-      <c r="E8">
-        <v>-2.1659046809852127E-5</v>
-      </c>
-      <c r="F8">
-        <v>-6.4822579384094491E-5</v>
-      </c>
-      <c r="G8">
-        <v>-8.6921546207423478E-6</v>
-      </c>
-      <c r="H8">
-        <v>1.540248632508835E-2</v>
-      </c>
-      <c r="I8">
-        <v>3.4060291749413697E-2</v>
-      </c>
-      <c r="J8">
-        <v>1.5497487767995222E-2</v>
-      </c>
-      <c r="K8">
-        <v>1.557500560879836E-2</v>
-      </c>
-      <c r="L8">
-        <v>1.5500990895704796E-2</v>
-      </c>
-      <c r="M8">
-        <v>1.5456401095990894E-2</v>
-      </c>
-      <c r="N8">
-        <v>1.5518560529391517E-2</v>
-      </c>
-      <c r="O8">
-        <v>1.5460883544860237E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.5515591285642671E-2</v>
-      </c>
-      <c r="Q8">
-        <v>1.5585774485889409E-2</v>
-      </c>
-      <c r="R8">
-        <v>1.5550676866317031E-2</v>
-      </c>
-      <c r="S8">
-        <v>1.2297254372845619E-4</v>
-      </c>
-      <c r="T8">
-        <v>-0.27064046251995855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.5873098983446351</v>
-      </c>
-      <c r="C9">
-        <v>5.8763233476190509E-4</v>
-      </c>
-      <c r="D9">
-        <v>-1.9837663867978712E-3</v>
-      </c>
-      <c r="E9">
-        <v>4.8452843833891911E-5</v>
-      </c>
-      <c r="F9">
-        <v>-8.189774302683763E-4</v>
-      </c>
-      <c r="G9">
-        <v>-2.6161911899466107E-4</v>
-      </c>
-      <c r="H9">
-        <v>1.5706322723196671E-2</v>
-      </c>
-      <c r="I9">
-        <v>1.5497487767995222E-2</v>
-      </c>
-      <c r="J9">
-        <v>3.8368831540362795E-2</v>
-      </c>
-      <c r="K9">
-        <v>1.5461085455789999E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.564012268225299E-2</v>
-      </c>
-      <c r="M9">
-        <v>1.5446108620848326E-2</v>
-      </c>
-      <c r="N9">
-        <v>1.5615528425964567E-2</v>
-      </c>
-      <c r="O9">
-        <v>1.5657344700887622E-2</v>
-      </c>
-      <c r="P9">
-        <v>1.5920589827155215E-2</v>
-      </c>
-      <c r="Q9">
-        <v>1.5933420052357834E-2</v>
-      </c>
-      <c r="R9">
-        <v>1.5667028062473724E-2</v>
-      </c>
-      <c r="S9">
-        <v>-6.5330859369394818E-5</v>
-      </c>
-      <c r="T9">
-        <v>0.13928931598403604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.31669656407323393</v>
-      </c>
-      <c r="C10">
-        <v>2.3664667987807926E-5</v>
-      </c>
-      <c r="D10">
-        <v>1.6511265258876764E-3</v>
-      </c>
-      <c r="E10">
-        <v>-3.8537264434852108E-5</v>
-      </c>
-      <c r="F10">
-        <v>-1.69951092370519E-4</v>
-      </c>
-      <c r="G10">
-        <v>-1.0912856676295341E-4</v>
-      </c>
-      <c r="H10">
-        <v>1.547292451888376E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.557500560879836E-2</v>
-      </c>
-      <c r="J10">
-        <v>1.5461085455789999E-2</v>
-      </c>
-      <c r="K10">
-        <v>3.9566395847909976E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.5497940747468721E-2</v>
-      </c>
-      <c r="M10">
-        <v>1.5499926621540623E-2</v>
-      </c>
-      <c r="N10">
-        <v>1.5569427553066848E-2</v>
-      </c>
-      <c r="O10">
-        <v>1.5524908780548971E-2</v>
-      </c>
-      <c r="P10">
-        <v>1.5507240767893685E-2</v>
-      </c>
-      <c r="Q10">
-        <v>1.5638100965325724E-2</v>
-      </c>
-      <c r="R10">
-        <v>1.5534049018030599E-2</v>
-      </c>
-      <c r="S10">
-        <v>1.789533385490186E-4</v>
-      </c>
-      <c r="T10">
-        <v>-0.39197049826144514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.23359222121887649</v>
-      </c>
-      <c r="C11">
-        <v>2.9276453334780694E-4</v>
-      </c>
-      <c r="D11">
-        <v>1.4239682776198935E-3</v>
-      </c>
-      <c r="E11">
-        <v>-3.8353400709527819E-5</v>
-      </c>
-      <c r="F11">
-        <v>-6.4684604523525605E-4</v>
-      </c>
-      <c r="G11">
-        <v>-1.1031364863841589E-4</v>
-      </c>
-      <c r="H11">
-        <v>1.5503320988805041E-2</v>
-      </c>
-      <c r="I11">
-        <v>1.5500990895704796E-2</v>
-      </c>
-      <c r="J11">
-        <v>1.564012268225299E-2</v>
-      </c>
-      <c r="K11">
-        <v>1.5497940747468721E-2</v>
-      </c>
-      <c r="L11">
-        <v>3.419097903965667E-2</v>
-      </c>
-      <c r="M11">
-        <v>1.5437212521568888E-2</v>
-      </c>
-      <c r="N11">
-        <v>1.5577710553614009E-2</v>
-      </c>
-      <c r="O11">
-        <v>1.5591547896715154E-2</v>
-      </c>
-      <c r="P11">
-        <v>1.5599734909895165E-2</v>
-      </c>
-      <c r="Q11">
-        <v>1.5975168397297981E-2</v>
-      </c>
-      <c r="R11">
-        <v>1.5584271614023369E-2</v>
-      </c>
-      <c r="S11">
-        <v>-1.3754685244549847E-4</v>
-      </c>
-      <c r="T11">
-        <v>0.25093622518821523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.21017362239900961</v>
-      </c>
-      <c r="C12">
-        <v>9.3052128883042845E-5</v>
-      </c>
-      <c r="D12">
-        <v>2.7227064892056153E-3</v>
-      </c>
-      <c r="E12">
-        <v>-6.9196065256514351E-5</v>
-      </c>
-      <c r="F12">
-        <v>-1.3329636205710655E-4</v>
-      </c>
-      <c r="G12">
-        <v>-5.8372602710142051E-5</v>
-      </c>
-      <c r="H12">
-        <v>1.5300084667837721E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.5456401095990894E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.5446108620848326E-2</v>
-      </c>
-      <c r="K12">
-        <v>1.5499926621540623E-2</v>
-      </c>
-      <c r="L12">
-        <v>1.5437212521568888E-2</v>
-      </c>
-      <c r="M12">
-        <v>3.7313155506912048E-2</v>
-      </c>
-      <c r="N12">
-        <v>1.5425181368133915E-2</v>
-      </c>
-      <c r="O12">
-        <v>1.538893729271245E-2</v>
-      </c>
-      <c r="P12">
-        <v>1.5371849136027491E-2</v>
-      </c>
-      <c r="Q12">
-        <v>1.5612936499318808E-2</v>
-      </c>
-      <c r="R12">
-        <v>1.5423428249820457E-2</v>
-      </c>
-      <c r="S12">
-        <v>3.0117181434917949E-5</v>
-      </c>
-      <c r="T12">
-        <v>-0.10170229023608979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.29678282433340714</v>
-      </c>
-      <c r="C13">
-        <v>2.7988034924958903E-4</v>
-      </c>
-      <c r="D13">
-        <v>1.624031409851367E-3</v>
-      </c>
-      <c r="E13">
-        <v>-3.7907965433671051E-5</v>
-      </c>
-      <c r="F13">
-        <v>-6.8954499990186925E-4</v>
-      </c>
-      <c r="G13">
-        <v>-6.2870687734962051E-5</v>
-      </c>
-      <c r="H13">
-        <v>1.5421159161310618E-2</v>
-      </c>
-      <c r="I13">
-        <v>1.5518560529391517E-2</v>
-      </c>
-      <c r="J13">
-        <v>1.5615528425964567E-2</v>
-      </c>
-      <c r="K13">
-        <v>1.5569427553066848E-2</v>
-      </c>
-      <c r="L13">
-        <v>1.5577710553614009E-2</v>
-      </c>
-      <c r="M13">
-        <v>1.5425181368133915E-2</v>
-      </c>
-      <c r="N13">
-        <v>2.9679165353839597E-2</v>
-      </c>
-      <c r="O13">
-        <v>1.5595022309646236E-2</v>
-      </c>
-      <c r="P13">
-        <v>1.5650478603150973E-2</v>
-      </c>
-      <c r="Q13">
-        <v>1.5889771485458257E-2</v>
-      </c>
-      <c r="R13">
-        <v>1.5646205278139015E-2</v>
-      </c>
-      <c r="S13">
-        <v>4.6894204705012505E-5</v>
-      </c>
-      <c r="T13">
-        <v>-0.12407699549945228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0.51432520653562197</v>
-      </c>
-      <c r="C14">
-        <v>3.6651396295823199E-4</v>
-      </c>
-      <c r="D14">
-        <v>2.3692104380773314E-3</v>
-      </c>
-      <c r="E14">
-        <v>-5.7667953664382776E-5</v>
-      </c>
-      <c r="F14">
-        <v>-7.6664050656759545E-4</v>
-      </c>
-      <c r="G14">
-        <v>-1.6684306765460269E-4</v>
-      </c>
-      <c r="H14">
-        <v>1.5396654526151807E-2</v>
-      </c>
-      <c r="I14">
-        <v>1.5460883544860237E-2</v>
-      </c>
-      <c r="J14">
-        <v>1.5657344700887622E-2</v>
-      </c>
-      <c r="K14">
-        <v>1.5524908780548971E-2</v>
-      </c>
-      <c r="L14">
-        <v>1.5591547896715154E-2</v>
-      </c>
-      <c r="M14">
-        <v>1.538893729271245E-2</v>
-      </c>
-      <c r="N14">
-        <v>1.5595022309646236E-2</v>
-      </c>
-      <c r="O14">
-        <v>3.7256127237415081E-2</v>
-      </c>
-      <c r="P14">
-        <v>1.5698527510438254E-2</v>
-      </c>
-      <c r="Q14">
-        <v>1.5991020361535529E-2</v>
-      </c>
-      <c r="R14">
-        <v>1.5627699563896345E-2</v>
-      </c>
-      <c r="S14">
-        <v>8.8741901990701134E-6</v>
-      </c>
-      <c r="T14">
-        <v>-5.4036258887953714E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1.1045550503952997</v>
-      </c>
-      <c r="C15">
-        <v>1.3709892332135262E-3</v>
-      </c>
-      <c r="D15">
-        <v>4.9158853524786453E-4</v>
-      </c>
-      <c r="E15">
-        <v>-5.7152779875578813E-6</v>
-      </c>
-      <c r="F15">
-        <v>-6.7929417502275431E-4</v>
-      </c>
-      <c r="G15">
-        <v>-6.3453397991431186E-4</v>
-      </c>
-      <c r="H15">
-        <v>1.5887270221986941E-2</v>
-      </c>
-      <c r="I15">
-        <v>1.5515591285642671E-2</v>
-      </c>
-      <c r="J15">
-        <v>1.5920589827155215E-2</v>
-      </c>
-      <c r="K15">
-        <v>1.5507240767893685E-2</v>
-      </c>
-      <c r="L15">
-        <v>1.5599734909895165E-2</v>
-      </c>
-      <c r="M15">
-        <v>1.5371849136027491E-2</v>
-      </c>
-      <c r="N15">
-        <v>1.5650478603150973E-2</v>
-      </c>
-      <c r="O15">
-        <v>1.5698527510438254E-2</v>
-      </c>
-      <c r="P15">
-        <v>5.4455675897466395E-2</v>
-      </c>
-      <c r="Q15">
-        <v>1.6610133547159206E-2</v>
-      </c>
-      <c r="R15">
-        <v>1.5613022656385143E-2</v>
-      </c>
-      <c r="S15">
-        <v>4.1801821548764079E-5</v>
-      </c>
-      <c r="T15">
-        <v>-0.10353504764657895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0.55862220604551516</v>
-      </c>
-      <c r="C16">
-        <v>1.3630099589279632E-3</v>
-      </c>
-      <c r="D16">
-        <v>1.8023316669340955E-3</v>
-      </c>
-      <c r="E16">
-        <v>-3.1081867093090982E-5</v>
-      </c>
-      <c r="F16">
-        <v>-1.6032060967072432E-3</v>
-      </c>
-      <c r="G16">
-        <v>-3.0533266378804987E-4</v>
-      </c>
-      <c r="H16">
-        <v>1.5768388847404134E-2</v>
-      </c>
-      <c r="I16">
-        <v>1.5585774485889409E-2</v>
-      </c>
-      <c r="J16">
-        <v>1.5933420052357834E-2</v>
-      </c>
-      <c r="K16">
-        <v>1.5638100965325724E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.5975168397297981E-2</v>
-      </c>
-      <c r="M16">
-        <v>1.5612936499318808E-2</v>
-      </c>
-      <c r="N16">
-        <v>1.5889771485458257E-2</v>
-      </c>
-      <c r="O16">
-        <v>1.5991020361535529E-2</v>
-      </c>
-      <c r="P16">
-        <v>1.6610133547159206E-2</v>
-      </c>
-      <c r="Q16">
-        <v>4.9909150245349657E-2</v>
-      </c>
-      <c r="R16">
-        <v>1.607188628809926E-2</v>
-      </c>
-      <c r="S16">
-        <v>2.7412235362181403E-4</v>
-      </c>
-      <c r="T16">
-        <v>-0.58399866078570284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.35936460172951928</v>
-      </c>
-      <c r="C17">
-        <v>5.1276100914136521E-4</v>
-      </c>
-      <c r="D17">
-        <v>6.2925117663877039E-5</v>
-      </c>
-      <c r="E17">
-        <v>-5.244724715951915E-6</v>
-      </c>
-      <c r="F17">
-        <v>-1.0013497801786603E-3</v>
-      </c>
-      <c r="G17">
-        <v>-6.0748192978401713E-5</v>
-      </c>
-      <c r="H17">
-        <v>1.5513159759477773E-2</v>
-      </c>
-      <c r="I17">
-        <v>1.5550676866317031E-2</v>
-      </c>
-      <c r="J17">
-        <v>1.5667028062473724E-2</v>
-      </c>
-      <c r="K17">
-        <v>1.5534049018030599E-2</v>
-      </c>
-      <c r="L17">
-        <v>1.5584271614023369E-2</v>
-      </c>
-      <c r="M17">
-        <v>1.5423428249820457E-2</v>
-      </c>
-      <c r="N17">
-        <v>1.5646205278139015E-2</v>
-      </c>
-      <c r="O17">
-        <v>1.5627699563896345E-2</v>
-      </c>
-      <c r="P17">
-        <v>1.5613022656385143E-2</v>
-      </c>
-      <c r="Q17">
-        <v>1.607188628809926E-2</v>
-      </c>
-      <c r="R17">
-        <v>5.2951153543075682E-2</v>
-      </c>
-      <c r="S17">
-        <v>2.0897835119839704E-4</v>
-      </c>
-      <c r="T17">
-        <v>-0.43171079920310618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="12">
-        <v>-8.5743645064050092E-2</v>
-      </c>
-      <c r="C18">
-        <v>6.9205345592727747E-5</v>
-      </c>
-      <c r="D18">
-        <v>-7.6180104437563283E-4</v>
-      </c>
-      <c r="E18">
-        <v>2.099211296481966E-5</v>
-      </c>
-      <c r="F18">
-        <v>-1.2373316284485268E-4</v>
-      </c>
-      <c r="G18">
-        <v>4.7753473032540318E-5</v>
-      </c>
-      <c r="H18">
-        <v>-7.937382115447207E-5</v>
-      </c>
-      <c r="I18">
-        <v>1.2297254372845619E-4</v>
-      </c>
-      <c r="J18">
-        <v>-6.5330859369394818E-5</v>
-      </c>
-      <c r="K18">
-        <v>1.789533385490186E-4</v>
-      </c>
-      <c r="L18">
-        <v>-1.3754685244549847E-4</v>
-      </c>
-      <c r="M18">
-        <v>3.0117181434917949E-5</v>
-      </c>
-      <c r="N18">
-        <v>4.6894204705012505E-5</v>
-      </c>
-      <c r="O18">
-        <v>8.8741901990701134E-6</v>
-      </c>
-      <c r="P18">
-        <v>4.1801821548764079E-5</v>
-      </c>
-      <c r="Q18">
-        <v>2.7412235362181403E-4</v>
-      </c>
-      <c r="R18">
-        <v>2.0897835119839704E-4</v>
-      </c>
-      <c r="S18">
-        <v>4.8206564497331461E-4</v>
-      </c>
-      <c r="T18">
-        <v>-0.96328344824806322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="12">
-        <v>151.62277633314579</v>
-      </c>
-      <c r="C19">
-        <v>-0.14344279225517376</v>
-      </c>
-      <c r="D19">
-        <v>0.55388860344228164</v>
-      </c>
-      <c r="E19">
-        <v>-1.8385589018358017E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.24768489899932966</v>
-      </c>
-      <c r="G19">
-        <v>-8.0066370375161955E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.15224529884557064</v>
-      </c>
-      <c r="I19">
-        <v>-0.27064046251995855</v>
-      </c>
-      <c r="J19">
-        <v>0.13928931598403604</v>
-      </c>
-      <c r="K19">
-        <v>-0.39197049826144514</v>
-      </c>
-      <c r="L19">
-        <v>0.25093622518821523</v>
-      </c>
-      <c r="M19">
-        <v>-0.10170229023608979</v>
-      </c>
-      <c r="N19">
-        <v>-0.12407699549945228</v>
-      </c>
-      <c r="O19">
-        <v>-5.4036258887953714E-2</v>
-      </c>
-      <c r="P19">
-        <v>-0.10353504764657895</v>
-      </c>
-      <c r="Q19">
-        <v>-0.58399866078570284</v>
-      </c>
-      <c r="R19">
-        <v>-0.43171079920310618</v>
-      </c>
-      <c r="S19">
-        <v>-0.96328344824806322</v>
-      </c>
-      <c r="T19">
-        <v>1934.6228088075004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240661B7-3253-472E-A66A-981F4777641E}">
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -17586,7 +24481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A70A3A6-7323-4267-98B6-133A2CCD0758}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
@@ -22007,7 +28902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A540A9-3A91-495C-B715-817529DC646A}">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -22439,7 +29334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BE22C1-301B-4EF0-9DB1-C7CAE99E3A3A}">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -23138,7 +30033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDC78E9-0C7C-461A-856D-28F9043EF26B}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -23686,7 +30581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160FEB2A-3047-4E3A-91C6-8330EE4790A4}">
   <dimension ref="A1:V22"/>
   <sheetViews>

--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD0F82A-DFD3-44F6-8B77-2882BA0C24A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99652F54-62AF-4485-A5D9-D21C10B1DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="852" firstSheet="9" activeTab="15" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
+    <workbookView xWindow="870" yWindow="990" windowWidth="21480" windowHeight="18825" tabRatio="852" firstSheet="9" activeTab="11" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -5454,7 +5454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6790290-45A4-4DB4-B610-7B89AD61C200}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5533,7 +5533,7 @@
         <v>97</v>
       </c>
       <c r="X1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y1" t="s">
         <v>141</v>
@@ -5547,79 +5547,79 @@
         <v>83</v>
       </c>
       <c r="B2" s="28">
-        <v>-0.23244205621507016</v>
+        <v>-0.20475170555878522</v>
       </c>
       <c r="C2">
-        <v>8.3636584051049144E-4</v>
+        <v>3.8954521771447821E-4</v>
       </c>
       <c r="D2">
-        <v>-5.4669207550457806E-6</v>
+        <v>-2.5728771529970379E-6</v>
       </c>
       <c r="E2">
-        <v>3.8645236738103425E-5</v>
+        <v>4.2898498299615093E-5</v>
       </c>
       <c r="F2">
-        <v>6.0988703076410994E-5</v>
+        <v>5.4809003903031825E-5</v>
       </c>
       <c r="G2">
-        <v>9.9074810380162318E-4</v>
+        <v>5.3136151070727351E-4</v>
       </c>
       <c r="H2">
-        <v>8.8605321813985463E-5</v>
+        <v>1.5719330222309109E-5</v>
       </c>
       <c r="I2">
-        <v>3.7567933403402295E-4</v>
+        <v>1.0424941899692119E-4</v>
       </c>
       <c r="J2">
-        <v>-3.2245710373524409E-5</v>
+        <v>-8.6716598173288383E-6</v>
       </c>
       <c r="K2">
-        <v>6.1180726592585557E-5</v>
+        <v>3.5403752053530006E-5</v>
       </c>
       <c r="L2">
-        <v>-2.2895840303450293E-5</v>
+        <v>-2.2090367625242965E-5</v>
       </c>
       <c r="M2">
-        <v>-9.4592243848465947E-5</v>
+        <v>-1.930560705739031E-5</v>
       </c>
       <c r="N2">
-        <v>-6.8346612950282923E-5</v>
+        <v>2.0776557835880914E-5</v>
       </c>
       <c r="O2">
-        <v>-2.6691493729107639E-5</v>
+        <v>-1.2147216036976181E-6</v>
       </c>
       <c r="P2">
-        <v>5.9759702456547732E-5</v>
+        <v>4.2734456843327058E-5</v>
       </c>
       <c r="Q2">
-        <v>-3.2262003646115118E-6</v>
+        <v>1.0399314842201701E-5</v>
       </c>
       <c r="R2">
-        <v>-6.5930193543487729E-5</v>
+        <v>2.0409188832499862E-5</v>
       </c>
       <c r="S2">
-        <v>-4.2587369656575495E-5</v>
+        <v>2.3163108354805687E-5</v>
       </c>
       <c r="T2">
-        <v>6.5819183852231129E-5</v>
+        <v>3.7923589918188554E-5</v>
       </c>
       <c r="U2">
-        <v>-9.1381558844600558E-5</v>
+        <v>-5.7459094906387592E-6</v>
       </c>
       <c r="V2">
-        <v>1.8962509263316385E-5</v>
+        <v>2.4339083856935242E-5</v>
       </c>
       <c r="W2">
-        <v>1.0291523765571312E-4</v>
+        <v>4.7464694847966157E-5</v>
       </c>
       <c r="X2">
-        <v>-2.3516350996442004E-3</v>
+        <v>-6.5626493354240673E-4</v>
       </c>
       <c r="Y2">
-        <v>4.3539395007997223E-5</v>
+        <v>-6.339269094192846E-6</v>
       </c>
       <c r="Z2">
-        <v>-3.0139394804159503E-2</v>
+        <v>-1.3954021316085516E-2</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -5627,79 +5627,79 @@
         <v>84</v>
       </c>
       <c r="B3" s="28">
-        <v>1.460651158390016E-3</v>
+        <v>1.2992100382615479E-3</v>
       </c>
       <c r="C3">
-        <v>-5.4669207550457806E-6</v>
+        <v>-2.5728771529970379E-6</v>
       </c>
       <c r="D3">
-        <v>3.5875115496883386E-8</v>
+        <v>1.7054575521191743E-8</v>
       </c>
       <c r="E3">
-        <v>-2.1368062572287876E-7</v>
+        <v>-2.6095899790955069E-7</v>
       </c>
       <c r="F3">
-        <v>-4.4028191089664755E-7</v>
+        <v>-3.7131540009833895E-7</v>
       </c>
       <c r="G3">
-        <v>-6.388396109980598E-6</v>
+        <v>-3.4717390237992772E-6</v>
       </c>
       <c r="H3">
-        <v>-6.6697943535855135E-7</v>
+        <v>-1.3431323760227534E-7</v>
       </c>
       <c r="I3">
-        <v>-2.3251328124177905E-6</v>
+        <v>-6.4626443055687164E-7</v>
       </c>
       <c r="J3">
-        <v>2.1364090698061375E-7</v>
+        <v>6.0800442814289225E-8</v>
       </c>
       <c r="K3">
-        <v>-3.685521129824482E-7</v>
+        <v>-2.241420469668203E-7</v>
       </c>
       <c r="L3">
-        <v>1.2226728446275103E-7</v>
+        <v>1.3693892431078282E-7</v>
       </c>
       <c r="M3">
-        <v>5.7887817223021307E-7</v>
+        <v>1.0741127371869533E-7</v>
       </c>
       <c r="N3">
-        <v>3.9913128490829598E-7</v>
+        <v>-1.7018896511829257E-7</v>
       </c>
       <c r="O3">
-        <v>8.1953104917087177E-8</v>
+        <v>-3.6363855614194652E-8</v>
       </c>
       <c r="P3">
-        <v>-4.2092067576003186E-7</v>
+        <v>-3.1098703171011699E-7</v>
       </c>
       <c r="Q3">
-        <v>-5.3535383524400343E-9</v>
+        <v>-1.0083302118018867E-7</v>
       </c>
       <c r="R3">
-        <v>3.3827118408761908E-7</v>
+        <v>-1.8965834056824574E-7</v>
       </c>
       <c r="S3">
-        <v>2.0682632061465967E-7</v>
+        <v>-1.9136278392855455E-7</v>
       </c>
       <c r="T3">
-        <v>-5.1410633012882669E-7</v>
+        <v>-3.0076477070616167E-7</v>
       </c>
       <c r="U3">
-        <v>5.4238921900210324E-7</v>
+        <v>-3.139509319576299E-9</v>
       </c>
       <c r="V3">
-        <v>-1.4517630199039434E-7</v>
+        <v>-1.8219952600717935E-7</v>
       </c>
       <c r="W3">
-        <v>-6.8812246098283263E-7</v>
+        <v>-3.456040478281387E-7</v>
       </c>
       <c r="X3">
-        <v>1.3761519885148107E-5</v>
+        <v>4.8721450278470485E-6</v>
       </c>
       <c r="Y3">
-        <v>-2.4952345962033938E-7</v>
+        <v>3.5934411351696912E-8</v>
       </c>
       <c r="Z3">
-        <v>1.9735474045139059E-4</v>
+        <v>9.140888467813529E-5</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -5707,79 +5707,79 @@
         <v>99</v>
       </c>
       <c r="B4" s="28">
-        <v>-0.18065185253441596</v>
+        <v>-0.18397702253874751</v>
       </c>
       <c r="C4">
-        <v>3.8645236738103425E-5</v>
+        <v>4.2898498299615093E-5</v>
       </c>
       <c r="D4">
-        <v>-2.1368062572287876E-7</v>
+        <v>-2.6095899790955069E-7</v>
       </c>
       <c r="E4">
-        <v>1.3634827154148138E-3</v>
+        <v>7.8197989679842353E-4</v>
       </c>
       <c r="F4">
-        <v>1.0041926267817343E-3</v>
+        <v>6.5331933811645397E-4</v>
       </c>
       <c r="G4">
-        <v>6.4752960705499437E-4</v>
+        <v>5.8719503971889429E-4</v>
       </c>
       <c r="H4">
-        <v>2.976442973231429E-5</v>
+        <v>-5.683802682867253E-5</v>
       </c>
       <c r="I4">
-        <v>2.6728937961888449E-5</v>
+        <v>1.2962781811681138E-5</v>
       </c>
       <c r="J4">
-        <v>4.1148245902515316E-5</v>
+        <v>8.0411296576683364E-6</v>
       </c>
       <c r="K4">
-        <v>6.2870510822546805E-5</v>
+        <v>3.4631236955086304E-5</v>
       </c>
       <c r="L4">
-        <v>3.4335274356937589E-6</v>
+        <v>-6.2752627584818259E-6</v>
       </c>
       <c r="M4">
-        <v>-4.4831727718894259E-4</v>
+        <v>-1.8745124017001866E-4</v>
       </c>
       <c r="N4">
-        <v>-4.2339523174762133E-4</v>
+        <v>-1.876365310173739E-4</v>
       </c>
       <c r="O4">
-        <v>-2.5770843396612236E-4</v>
+        <v>-1.388882832725449E-4</v>
       </c>
       <c r="P4">
-        <v>-3.6790244928033345E-4</v>
+        <v>-1.6192015913526063E-4</v>
       </c>
       <c r="Q4">
-        <v>-3.051954617120086E-4</v>
+        <v>-1.5434046213837145E-4</v>
       </c>
       <c r="R4">
-        <v>-2.6714371800515171E-4</v>
+        <v>-1.3706720043480102E-4</v>
       </c>
       <c r="S4">
-        <v>-2.6152777635922767E-4</v>
+        <v>-1.2633399493739594E-4</v>
       </c>
       <c r="T4">
-        <v>-3.6172391422070857E-4</v>
+        <v>-1.2890844974696255E-4</v>
       </c>
       <c r="U4">
-        <v>-4.2923649245604599E-4</v>
+        <v>-1.7128649949495859E-4</v>
       </c>
       <c r="V4">
-        <v>-3.2635754230038108E-4</v>
+        <v>-1.3350623327530031E-4</v>
       </c>
       <c r="W4">
-        <v>-3.0472378371160604E-4</v>
+        <v>-1.1696938037380653E-4</v>
       </c>
       <c r="X4">
-        <v>3.1598423342782539E-3</v>
+        <v>1.3172606675703532E-3</v>
       </c>
       <c r="Y4">
-        <v>-5.7366322052473115E-5</v>
+        <v>-4.6210554317454249E-6</v>
       </c>
       <c r="Z4">
-        <v>-5.0962908247237926E-3</v>
+        <v>-3.590713747542564E-3</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -5787,79 +5787,79 @@
         <v>100</v>
       </c>
       <c r="B5" s="28">
-        <v>-0.27269281364085696</v>
+        <v>-0.29395302383329419</v>
       </c>
       <c r="C5">
-        <v>6.0988703076410994E-5</v>
+        <v>5.4809003903031825E-5</v>
       </c>
       <c r="D5">
-        <v>-4.4028191089664755E-7</v>
+        <v>-3.7131540009833895E-7</v>
       </c>
       <c r="E5">
-        <v>1.0041926267817343E-3</v>
+        <v>6.5331933811645397E-4</v>
       </c>
       <c r="F5">
-        <v>1.5522899163556143E-3</v>
+        <v>8.864479532081171E-4</v>
       </c>
       <c r="G5">
-        <v>5.8509130623549295E-4</v>
+        <v>4.710968787071266E-4</v>
       </c>
       <c r="H5">
-        <v>-1.5507832220929295E-5</v>
+        <v>-6.8083728076814297E-5</v>
       </c>
       <c r="I5">
-        <v>-3.4222339019402922E-5</v>
+        <v>-1.4966712754450667E-5</v>
       </c>
       <c r="J5">
-        <v>4.7397751599940414E-5</v>
+        <v>1.479434067412174E-5</v>
       </c>
       <c r="K5">
-        <v>8.6953927290429141E-5</v>
+        <v>4.7468083932424074E-5</v>
       </c>
       <c r="L5">
-        <v>1.6382202428623648E-5</v>
+        <v>7.6138695030735556E-7</v>
       </c>
       <c r="M5">
-        <v>-3.7610140768106387E-4</v>
+        <v>-1.070704165780817E-4</v>
       </c>
       <c r="N5">
-        <v>-3.7465494538696493E-4</v>
+        <v>-1.2776670766947616E-4</v>
       </c>
       <c r="O5">
-        <v>-3.1174040395174816E-4</v>
+        <v>-8.9296990456226902E-5</v>
       </c>
       <c r="P5">
-        <v>-3.7918439509132188E-4</v>
+        <v>-1.1659716042343161E-4</v>
       </c>
       <c r="Q5">
-        <v>-3.8023980269021436E-4</v>
+        <v>-1.4844482791552904E-4</v>
       </c>
       <c r="R5">
-        <v>-2.7823869007108717E-4</v>
+        <v>-1.0247255024790043E-4</v>
       </c>
       <c r="S5">
-        <v>-2.6774173849786588E-4</v>
+        <v>-8.5871971464446272E-5</v>
       </c>
       <c r="T5">
-        <v>-2.9718166205165047E-4</v>
+        <v>-6.9829062721032292E-5</v>
       </c>
       <c r="U5">
-        <v>-4.5650319825589405E-4</v>
+        <v>-1.2778979179038668E-4</v>
       </c>
       <c r="V5">
-        <v>-2.9998103400542082E-4</v>
+        <v>-8.7746162073782519E-5</v>
       </c>
       <c r="W5">
-        <v>-3.4162095096205753E-4</v>
+        <v>-8.2532978349576227E-5</v>
       </c>
       <c r="X5">
-        <v>1.6806629907650285E-2</v>
+        <v>1.2650437214488245E-3</v>
       </c>
       <c r="Y5">
-        <v>-3.9249377718462335E-4</v>
+        <v>2.0853709752339351E-7</v>
       </c>
       <c r="Z5">
-        <v>-1.4411966902579655E-2</v>
+        <v>-4.1013676924257798E-3</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5867,79 +5867,79 @@
         <v>103</v>
       </c>
       <c r="B6" s="28">
-        <v>-2.1219240996627384E-3</v>
+        <v>8.6108629003347082E-3</v>
       </c>
       <c r="C6">
-        <v>9.9074810380162318E-4</v>
+        <v>5.3136151070727351E-4</v>
       </c>
       <c r="D6">
-        <v>-6.388396109980598E-6</v>
+        <v>-3.4717390237992772E-6</v>
       </c>
       <c r="E6">
-        <v>6.4752960705499437E-4</v>
+        <v>5.8719503971889429E-4</v>
       </c>
       <c r="F6">
-        <v>5.8509130623549295E-4</v>
+        <v>4.710968787071266E-4</v>
       </c>
       <c r="G6">
-        <v>2.7400770951757435E-2</v>
+        <v>3.883755338343263E-2</v>
       </c>
       <c r="H6">
-        <v>2.9434168276576411E-4</v>
+        <v>8.1688846746337876E-5</v>
       </c>
       <c r="I6">
-        <v>7.5782904484281849E-4</v>
+        <v>2.4447737503135135E-4</v>
       </c>
       <c r="J6">
-        <v>-1.235074849913667E-4</v>
+        <v>-3.3909078767468612E-5</v>
       </c>
       <c r="K6">
-        <v>8.8851347908823746E-7</v>
+        <v>-1.306939603770932E-4</v>
       </c>
       <c r="L6">
-        <v>1.173872549130716E-4</v>
+        <v>1.5446671979272284E-4</v>
       </c>
       <c r="M6">
-        <v>-4.2294873251084303E-4</v>
+        <v>-2.0300989717377416E-4</v>
       </c>
       <c r="N6">
-        <v>-5.219010744585092E-4</v>
+        <v>-1.6478838457802212E-4</v>
       </c>
       <c r="O6">
-        <v>-2.8911914461411171E-4</v>
+        <v>-9.2479255672741571E-5</v>
       </c>
       <c r="P6">
-        <v>-3.9753732376365597E-4</v>
+        <v>-1.3168394035841056E-4</v>
       </c>
       <c r="Q6">
-        <v>9.8221918369822985E-5</v>
+        <v>4.5569941411718624E-5</v>
       </c>
       <c r="R6">
-        <v>-2.6180768963694019E-4</v>
+        <v>-1.1988575043978423E-4</v>
       </c>
       <c r="S6">
-        <v>1.8355622887480591E-6</v>
+        <v>3.6849710356013157E-4</v>
       </c>
       <c r="T6">
-        <v>-7.875914842202323E-5</v>
+        <v>-6.9678050691199603E-6</v>
       </c>
       <c r="U6">
-        <v>-2.9133596961072438E-4</v>
+        <v>-4.8048469678683287E-5</v>
       </c>
       <c r="V6">
-        <v>-3.265505256146873E-4</v>
+        <v>-1.3279619219293704E-4</v>
       </c>
       <c r="W6">
-        <v>-2.9387536816245438E-4</v>
+        <v>-1.7427317757796705E-4</v>
       </c>
       <c r="X6">
-        <v>6.6533869360029918E-2</v>
+        <v>-4.7357994610160922E-3</v>
       </c>
       <c r="Y6">
-        <v>-1.6183289520876366E-3</v>
+        <v>4.3020456196813891E-5</v>
       </c>
       <c r="Z6">
-        <v>-8.0898714982769349E-2</v>
+        <v>-1.652608191150591E-2</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5947,79 +5947,79 @@
         <v>104</v>
       </c>
       <c r="B7" s="28">
-        <v>-7.2566355467811136E-2</v>
+        <v>5.9755508676466208E-3</v>
       </c>
       <c r="C7">
-        <v>8.8605321813985463E-5</v>
+        <v>1.5719330222309109E-5</v>
       </c>
       <c r="D7">
-        <v>-6.6697943535855135E-7</v>
+        <v>-1.3431323760227534E-7</v>
       </c>
       <c r="E7">
-        <v>2.976442973231429E-5</v>
+        <v>-5.683802682867253E-5</v>
       </c>
       <c r="F7">
-        <v>-1.5507832220929295E-5</v>
+        <v>-6.8083728076814297E-5</v>
       </c>
       <c r="G7">
-        <v>2.9434168276576411E-4</v>
+        <v>8.1688846746337876E-5</v>
       </c>
       <c r="H7">
-        <v>9.4046445689027259E-4</v>
+        <v>2.9992791893470162E-4</v>
       </c>
       <c r="I7">
-        <v>2.3926191059579771E-4</v>
+        <v>9.8633594509752506E-5</v>
       </c>
       <c r="J7">
-        <v>3.5017945303361312E-5</v>
+        <v>1.6395090225673038E-5</v>
       </c>
       <c r="K7">
-        <v>-3.4285267370081588E-6</v>
+        <v>-1.1759938707219662E-5</v>
       </c>
       <c r="L7">
-        <v>3.082069403792455E-5</v>
+        <v>8.1165611471214333E-6</v>
       </c>
       <c r="M7">
-        <v>-3.0994526086088791E-5</v>
+        <v>7.144726033959703E-5</v>
       </c>
       <c r="N7">
-        <v>-2.4083254856631939E-5</v>
+        <v>6.6232437735719686E-5</v>
       </c>
       <c r="O7">
-        <v>2.7243255109180177E-4</v>
+        <v>1.1343554402137819E-4</v>
       </c>
       <c r="P7">
-        <v>1.0969488631573573E-4</v>
+        <v>1.1103298404921977E-4</v>
       </c>
       <c r="Q7">
-        <v>9.2534945371344472E-5</v>
+        <v>8.8462451188262811E-5</v>
       </c>
       <c r="R7">
-        <v>1.6772144338213089E-4</v>
+        <v>1.1876559666307524E-4</v>
       </c>
       <c r="S7">
-        <v>3.291128565794635E-5</v>
+        <v>9.0150629224897876E-5</v>
       </c>
       <c r="T7">
-        <v>1.4007328731863796E-4</v>
+        <v>9.72192446178408E-5</v>
       </c>
       <c r="U7">
-        <v>2.6174130433815777E-5</v>
+        <v>8.5106386090931844E-5</v>
       </c>
       <c r="V7">
-        <v>-7.6026805321881535E-5</v>
+        <v>3.3903209466464739E-5</v>
       </c>
       <c r="W7">
-        <v>-3.9909402333435096E-5</v>
+        <v>5.1258372131232936E-5</v>
       </c>
       <c r="X7">
-        <v>3.5126484628456578E-3</v>
+        <v>2.3614256033634845E-4</v>
       </c>
       <c r="Y7">
-        <v>-8.0380650687744692E-5</v>
+        <v>6.6799869132560012E-7</v>
       </c>
       <c r="Z7">
-        <v>-5.7812707731220436E-3</v>
+        <v>-8.4901995721277379E-4</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -6027,79 +6027,79 @@
         <v>105</v>
       </c>
       <c r="B8" s="28">
-        <v>-0.18696864190856644</v>
+        <v>-2.0195610883445101E-2</v>
       </c>
       <c r="C8">
-        <v>3.7567933403402295E-4</v>
+        <v>1.0424941899692119E-4</v>
       </c>
       <c r="D8">
-        <v>-2.3251328124177905E-6</v>
+        <v>-6.4626443055687164E-7</v>
       </c>
       <c r="E8">
-        <v>2.6728937961888449E-5</v>
+        <v>1.2962781811681138E-5</v>
       </c>
       <c r="F8">
-        <v>-3.4222339019402922E-5</v>
+        <v>-1.4966712754450667E-5</v>
       </c>
       <c r="G8">
-        <v>7.5782904484281849E-4</v>
+        <v>2.4447737503135135E-4</v>
       </c>
       <c r="H8">
-        <v>2.3926191059579771E-4</v>
+        <v>9.8633594509752506E-5</v>
       </c>
       <c r="I8">
-        <v>5.635869284144078E-2</v>
+        <v>3.5919317808059424E-2</v>
       </c>
       <c r="J8">
-        <v>-5.51725964321257E-5</v>
+        <v>-7.2517845450541431E-6</v>
       </c>
       <c r="K8">
-        <v>1.2773057338093767E-5</v>
+        <v>1.3296496444301696E-5</v>
       </c>
       <c r="L8">
-        <v>7.8975305104289715E-5</v>
+        <v>2.3217065626595363E-6</v>
       </c>
       <c r="M8">
-        <v>5.2215717412867869E-4</v>
+        <v>2.4477117041753129E-4</v>
       </c>
       <c r="N8">
-        <v>5.073613785321169E-4</v>
+        <v>2.373408824797059E-4</v>
       </c>
       <c r="O8">
-        <v>2.1641327389217732E-4</v>
+        <v>1.3279589122628445E-4</v>
       </c>
       <c r="P8">
-        <v>6.2695343103707168E-4</v>
+        <v>2.6911297470843295E-4</v>
       </c>
       <c r="Q8">
-        <v>5.4080899331276222E-6</v>
+        <v>8.234721968269798E-6</v>
       </c>
       <c r="R8">
-        <v>4.3589338120417166E-4</v>
+        <v>2.123648566229539E-4</v>
       </c>
       <c r="S8">
-        <v>3.6465310762041556E-4</v>
+        <v>1.8529967265687062E-4</v>
       </c>
       <c r="T8">
-        <v>6.2052294914696055E-4</v>
+        <v>1.9596742889575243E-4</v>
       </c>
       <c r="U8">
-        <v>3.7722166392213652E-4</v>
+        <v>1.9142379002872058E-4</v>
       </c>
       <c r="V8">
-        <v>5.9080020060350489E-4</v>
+        <v>2.4154108930725629E-4</v>
       </c>
       <c r="W8">
-        <v>5.3643715288792266E-4</v>
+        <v>2.0866289437478021E-4</v>
       </c>
       <c r="X8">
-        <v>8.6672616631162103E-3</v>
+        <v>-4.0081121950490354E-3</v>
       </c>
       <c r="Y8">
-        <v>-2.3240115642635725E-4</v>
+        <v>2.719324280039407E-5</v>
       </c>
       <c r="Z8">
-        <v>-2.1087593042925512E-2</v>
+        <v>-8.7856550969237423E-4</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -6107,79 +6107,79 @@
         <v>85</v>
       </c>
       <c r="B9" s="28">
-        <v>5.2705088084751661E-2</v>
+        <v>2.6621479581249399E-2</v>
       </c>
       <c r="C9">
-        <v>-3.2245710373524409E-5</v>
+        <v>-8.6716598173288383E-6</v>
       </c>
       <c r="D9">
-        <v>2.1364090698061375E-7</v>
+        <v>6.0800442814289225E-8</v>
       </c>
       <c r="E9">
-        <v>4.1148245902515316E-5</v>
+        <v>8.0411296576683364E-6</v>
       </c>
       <c r="F9">
-        <v>4.7397751599940414E-5</v>
+        <v>1.479434067412174E-5</v>
       </c>
       <c r="G9">
-        <v>-1.235074849913667E-4</v>
+        <v>-3.3909078767468612E-5</v>
       </c>
       <c r="H9">
-        <v>3.5017945303361312E-5</v>
+        <v>1.6395090225673038E-5</v>
       </c>
       <c r="I9">
-        <v>-5.51725964321257E-5</v>
+        <v>-7.2517845450541431E-6</v>
       </c>
       <c r="J9">
-        <v>1.5147344644291332E-4</v>
+        <v>6.3550293279961351E-5</v>
       </c>
       <c r="K9">
-        <v>-1.1838810542074378E-5</v>
+        <v>-4.0995766540062552E-6</v>
       </c>
       <c r="L9">
-        <v>-2.6901708371575338E-6</v>
+        <v>-9.0550394732067405E-7</v>
       </c>
       <c r="M9">
-        <v>-3.4169738985624346E-6</v>
+        <v>1.7643751806232415E-6</v>
       </c>
       <c r="N9">
-        <v>-3.6473326011718951E-5</v>
+        <v>-4.0427114584778512E-6</v>
       </c>
       <c r="O9">
-        <v>8.5096436023373548E-6</v>
+        <v>-8.8368978520598118E-6</v>
       </c>
       <c r="P9">
-        <v>3.782424155320674E-7</v>
+        <v>-1.2050953682148967E-5</v>
       </c>
       <c r="Q9">
-        <v>-1.284280720018297E-5</v>
+        <v>-8.8250748936773713E-6</v>
       </c>
       <c r="R9">
-        <v>-2.9540570808990886E-7</v>
+        <v>-8.3009028212775341E-6</v>
       </c>
       <c r="S9">
-        <v>-1.0138721929766784E-5</v>
+        <v>-1.2588527064325109E-5</v>
       </c>
       <c r="T9">
-        <v>-7.9356182388963243E-5</v>
+        <v>-3.2013686017522391E-5</v>
       </c>
       <c r="U9">
-        <v>-5.3212278252600179E-5</v>
+        <v>-2.2724384780187294E-5</v>
       </c>
       <c r="V9">
-        <v>-5.1065922562041694E-5</v>
+        <v>-2.1780377932756798E-5</v>
       </c>
       <c r="W9">
-        <v>-4.0359260377752248E-5</v>
+        <v>-2.0977258111140899E-5</v>
       </c>
       <c r="X9">
-        <v>4.0996254422360559E-3</v>
+        <v>-5.5477928704799435E-5</v>
       </c>
       <c r="Y9">
-        <v>-1.0102682383742508E-4</v>
+        <v>2.7488342738027865E-7</v>
       </c>
       <c r="Z9">
-        <v>-1.7892190978239797E-3</v>
+        <v>1.8235667784556901E-4</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -6187,79 +6187,79 @@
         <v>142</v>
       </c>
       <c r="B10" s="28">
-        <v>0.61680425412761564</v>
+        <v>0.65537152015926037</v>
       </c>
       <c r="C10">
-        <v>6.1180726592585557E-5</v>
+        <v>3.5403752053530006E-5</v>
       </c>
       <c r="D10">
-        <v>-3.685521129824482E-7</v>
+        <v>-2.241420469668203E-7</v>
       </c>
       <c r="E10">
-        <v>6.2870510822546805E-5</v>
+        <v>3.4631236955086304E-5</v>
       </c>
       <c r="F10">
-        <v>8.6953927290429141E-5</v>
+        <v>4.7468083932424074E-5</v>
       </c>
       <c r="G10">
-        <v>8.8851347908823746E-7</v>
+        <v>-1.306939603770932E-4</v>
       </c>
       <c r="H10">
-        <v>-3.4285267370081588E-6</v>
+        <v>-1.1759938707219662E-5</v>
       </c>
       <c r="I10">
-        <v>1.2773057338093767E-5</v>
+        <v>1.3296496444301696E-5</v>
       </c>
       <c r="J10">
-        <v>-1.1838810542074378E-5</v>
+        <v>-4.0995766540062552E-6</v>
       </c>
       <c r="K10">
-        <v>2.1407990654368061E-4</v>
+        <v>1.0184588880747084E-4</v>
       </c>
       <c r="L10">
-        <v>-1.8721140499754438E-4</v>
+        <v>-9.3406222938625792E-5</v>
       </c>
       <c r="M10">
-        <v>-8.9657903079333657E-5</v>
+        <v>-7.4824438705388695E-6</v>
       </c>
       <c r="N10">
-        <v>-6.185508414946555E-5</v>
+        <v>-5.9230697481882269E-6</v>
       </c>
       <c r="O10">
-        <v>-9.87140455508091E-5</v>
+        <v>-9.23974099616365E-6</v>
       </c>
       <c r="P10">
-        <v>-5.7486836241456328E-5</v>
+        <v>-1.041649753167515E-5</v>
       </c>
       <c r="Q10">
-        <v>-9.8281067858276686E-5</v>
+        <v>-8.2606710942534838E-6</v>
       </c>
       <c r="R10">
-        <v>-1.0558505241095E-4</v>
+        <v>-1.0273802030676994E-5</v>
       </c>
       <c r="S10">
-        <v>-8.1550807343937204E-5</v>
+        <v>-6.3288289155188232E-6</v>
       </c>
       <c r="T10">
-        <v>-6.2599643884861893E-5</v>
+        <v>-7.2170426823549468E-7</v>
       </c>
       <c r="U10">
-        <v>-5.2945549815373421E-5</v>
+        <v>3.8449775417296911E-6</v>
       </c>
       <c r="V10">
-        <v>-5.8383616800865604E-5</v>
+        <v>-1.5852918890075585E-8</v>
       </c>
       <c r="W10">
-        <v>-4.1852713619102279E-5</v>
+        <v>6.8052853965217095E-6</v>
       </c>
       <c r="X10">
-        <v>1.5104691575832455E-3</v>
+        <v>5.6688264845188149E-5</v>
       </c>
       <c r="Y10">
-        <v>-4.1503688111632696E-5</v>
+        <v>-2.9029480309521257E-6</v>
       </c>
       <c r="Z10">
-        <v>-3.4979352171601516E-3</v>
+        <v>-1.4583407717735641E-3</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -6267,79 +6267,79 @@
         <v>143</v>
       </c>
       <c r="B11" s="28">
-        <v>0.2717489392654942</v>
+        <v>0.25628689773452606</v>
       </c>
       <c r="C11">
-        <v>-2.2895840303450293E-5</v>
+        <v>-2.2090367625242965E-5</v>
       </c>
       <c r="D11">
-        <v>1.2226728446275103E-7</v>
+        <v>1.3693892431078282E-7</v>
       </c>
       <c r="E11">
-        <v>3.4335274356937589E-6</v>
+        <v>-6.2752627584818259E-6</v>
       </c>
       <c r="F11">
-        <v>1.6382202428623648E-5</v>
+        <v>7.6138695030735556E-7</v>
       </c>
       <c r="G11">
-        <v>1.173872549130716E-4</v>
+        <v>1.5446671979272284E-4</v>
       </c>
       <c r="H11">
-        <v>3.082069403792455E-5</v>
+        <v>8.1165611471214333E-6</v>
       </c>
       <c r="I11">
-        <v>7.8975305104289715E-5</v>
+        <v>2.3217065626595363E-6</v>
       </c>
       <c r="J11">
-        <v>-2.6901708371575338E-6</v>
+        <v>-9.0550394732067405E-7</v>
       </c>
       <c r="K11">
-        <v>-1.8721140499754438E-4</v>
+        <v>-9.3406222938625792E-5</v>
       </c>
       <c r="L11">
-        <v>1.9397032488539757E-4</v>
+        <v>9.5657566803527123E-5</v>
       </c>
       <c r="M11">
-        <v>6.4390385134791516E-5</v>
+        <v>7.3751418309950107E-6</v>
       </c>
       <c r="N11">
-        <v>3.9600040446138572E-5</v>
+        <v>2.5281297609119902E-6</v>
       </c>
       <c r="O11">
-        <v>7.9549240594632115E-5</v>
+        <v>1.1503340195538964E-5</v>
       </c>
       <c r="P11">
-        <v>4.2080484503526658E-5</v>
+        <v>1.1489046851286818E-5</v>
       </c>
       <c r="Q11">
-        <v>7.7642066810250406E-5</v>
+        <v>4.6155745327249864E-6</v>
       </c>
       <c r="R11">
-        <v>8.5123306649069992E-5</v>
+        <v>1.0159821491384516E-5</v>
       </c>
       <c r="S11">
-        <v>5.6331749028422308E-5</v>
+        <v>2.519151385421269E-6</v>
       </c>
       <c r="T11">
-        <v>7.0951033153469667E-5</v>
+        <v>6.8660738098925902E-6</v>
       </c>
       <c r="U11">
-        <v>3.4478081438514844E-5</v>
+        <v>-1.6670354725429356E-6</v>
       </c>
       <c r="V11">
-        <v>5.744026542537045E-5</v>
+        <v>3.7799986466636874E-6</v>
       </c>
       <c r="W11">
-        <v>8.4147585510302371E-5</v>
+        <v>8.4024617736883165E-6</v>
       </c>
       <c r="X11">
-        <v>-8.8923418960874107E-4</v>
+        <v>9.1032644968256867E-5</v>
       </c>
       <c r="Y11">
-        <v>2.7276993853721991E-5</v>
+        <v>1.5824406699522373E-6</v>
       </c>
       <c r="Z11">
-        <v>1.3998512112419967E-3</v>
+        <v>7.542878999974665E-4</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -6347,79 +6347,79 @@
         <v>87</v>
       </c>
       <c r="B12" s="28">
-        <v>2.7642724452336748E-2</v>
+        <v>1.9160000662759708E-2</v>
       </c>
       <c r="C12">
-        <v>-9.4592243848465947E-5</v>
+        <v>-1.930560705739031E-5</v>
       </c>
       <c r="D12">
-        <v>5.7887817223021307E-7</v>
+        <v>1.0741127371869533E-7</v>
       </c>
       <c r="E12">
-        <v>-4.4831727718894259E-4</v>
+        <v>-1.8745124017001866E-4</v>
       </c>
       <c r="F12">
-        <v>-3.7610140768106387E-4</v>
+        <v>-1.070704165780817E-4</v>
       </c>
       <c r="G12">
-        <v>-4.2294873251084303E-4</v>
+        <v>-2.0300989717377416E-4</v>
       </c>
       <c r="H12">
-        <v>-3.0994526086088791E-5</v>
+        <v>7.144726033959703E-5</v>
       </c>
       <c r="I12">
-        <v>5.2215717412867869E-4</v>
+        <v>2.4477117041753129E-4</v>
       </c>
       <c r="J12">
-        <v>-3.4169738985624346E-6</v>
+        <v>1.7643751806232415E-6</v>
       </c>
       <c r="K12">
-        <v>-8.9657903079333657E-5</v>
+        <v>-7.4824438705388695E-6</v>
       </c>
       <c r="L12">
-        <v>6.4390385134791516E-5</v>
+        <v>7.3751418309950107E-6</v>
       </c>
       <c r="M12">
-        <v>6.6473658098731804E-3</v>
+        <v>2.8136546432595095E-3</v>
       </c>
       <c r="N12">
-        <v>2.654439685843178E-3</v>
+        <v>1.2747232385644175E-3</v>
       </c>
       <c r="O12">
-        <v>2.6254267222235038E-3</v>
+        <v>1.2746816510595396E-3</v>
       </c>
       <c r="P12">
-        <v>2.6449218518294119E-3</v>
+        <v>1.2847584414855981E-3</v>
       </c>
       <c r="Q12">
-        <v>2.6247497066107222E-3</v>
+        <v>1.2752769216487034E-3</v>
       </c>
       <c r="R12">
-        <v>2.6409006826128593E-3</v>
+        <v>1.2795667523874516E-3</v>
       </c>
       <c r="S12">
-        <v>2.6254807534990634E-3</v>
+        <v>1.2758371177178408E-3</v>
       </c>
       <c r="T12">
-        <v>2.6419154351883375E-3</v>
+        <v>1.2785836447541249E-3</v>
       </c>
       <c r="U12">
-        <v>2.6562086236139319E-3</v>
+        <v>1.2774636358438428E-3</v>
       </c>
       <c r="V12">
-        <v>2.6490854414151148E-3</v>
+        <v>1.2729299311109088E-3</v>
       </c>
       <c r="W12">
-        <v>2.6476074801431238E-3</v>
+        <v>1.2711420661637902E-3</v>
       </c>
       <c r="X12">
-        <v>-1.0451254913843147E-2</v>
+        <v>-1.1293239885466133E-3</v>
       </c>
       <c r="Y12">
-        <v>2.5952268483197226E-4</v>
+        <v>1.9144780041895692E-5</v>
       </c>
       <c r="Z12">
-        <v>8.1918477359313735E-3</v>
+        <v>4.9489536495758539E-4</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -6427,79 +6427,79 @@
         <v>88</v>
       </c>
       <c r="B13" s="28">
-        <v>1.459557696841024E-2</v>
+        <v>2.5228531728485333E-2</v>
       </c>
       <c r="C13">
-        <v>-6.8346612950282923E-5</v>
+        <v>2.0776557835880914E-5</v>
       </c>
       <c r="D13">
-        <v>3.9913128490829598E-7</v>
+        <v>-1.7018896511829257E-7</v>
       </c>
       <c r="E13">
-        <v>-4.2339523174762133E-4</v>
+        <v>-1.876365310173739E-4</v>
       </c>
       <c r="F13">
-        <v>-3.7465494538696493E-4</v>
+        <v>-1.2776670766947616E-4</v>
       </c>
       <c r="G13">
-        <v>-5.219010744585092E-4</v>
+        <v>-1.6478838457802212E-4</v>
       </c>
       <c r="H13">
-        <v>-2.4083254856631939E-5</v>
+        <v>6.6232437735719686E-5</v>
       </c>
       <c r="I13">
-        <v>5.073613785321169E-4</v>
+        <v>2.373408824797059E-4</v>
       </c>
       <c r="J13">
-        <v>-3.6473326011718951E-5</v>
+        <v>-4.0427114584778512E-6</v>
       </c>
       <c r="K13">
-        <v>-6.185508414946555E-5</v>
+        <v>-5.9230697481882269E-6</v>
       </c>
       <c r="L13">
-        <v>3.9600040446138572E-5</v>
+        <v>2.5281297609119902E-6</v>
       </c>
       <c r="M13">
-        <v>2.654439685843178E-3</v>
+        <v>1.2747232385644175E-3</v>
       </c>
       <c r="N13">
-        <v>3.9764245050987633E-3</v>
+        <v>1.7762036888703649E-3</v>
       </c>
       <c r="O13">
-        <v>2.6287846812610583E-3</v>
+        <v>1.2722561024018923E-3</v>
       </c>
       <c r="P13">
-        <v>2.6451510875256886E-3</v>
+        <v>1.2792710214422675E-3</v>
       </c>
       <c r="Q13">
-        <v>2.6332814371561523E-3</v>
+        <v>1.2764965337856656E-3</v>
       </c>
       <c r="R13">
-        <v>2.6493377295655654E-3</v>
+        <v>1.280690382363833E-3</v>
       </c>
       <c r="S13">
-        <v>2.6325107613275698E-3</v>
+        <v>1.277927265737219E-3</v>
       </c>
       <c r="T13">
-        <v>2.6557424899618059E-3</v>
+        <v>1.2793908166496793E-3</v>
       </c>
       <c r="U13">
-        <v>2.6664299182177311E-3</v>
+        <v>1.27352148566272E-3</v>
       </c>
       <c r="V13">
-        <v>2.6439402403564015E-3</v>
+        <v>1.2680871898239679E-3</v>
       </c>
       <c r="W13">
-        <v>2.6449435491030064E-3</v>
+        <v>1.2697342983791792E-3</v>
       </c>
       <c r="X13">
-        <v>1.2567800871521498E-2</v>
+        <v>-1.886234748059149E-3</v>
       </c>
       <c r="Y13">
-        <v>-2.7231207255908182E-4</v>
+        <v>2.2101038271362029E-5</v>
       </c>
       <c r="Z13">
-        <v>-7.6671426464842915E-3</v>
+        <v>-1.77369653603595E-4</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -6507,79 +6507,79 @@
         <v>89</v>
       </c>
       <c r="B14" s="28">
-        <v>1.2831842284793647E-2</v>
+        <v>-3.1648876356366895E-3</v>
       </c>
       <c r="C14">
-        <v>-2.6691493729107639E-5</v>
+        <v>-1.2147216036976181E-6</v>
       </c>
       <c r="D14">
-        <v>8.1953104917087177E-8</v>
+        <v>-3.6363855614194652E-8</v>
       </c>
       <c r="E14">
-        <v>-2.5770843396612236E-4</v>
+        <v>-1.388882832725449E-4</v>
       </c>
       <c r="F14">
-        <v>-3.1174040395174816E-4</v>
+        <v>-8.9296990456226902E-5</v>
       </c>
       <c r="G14">
-        <v>-2.8911914461411171E-4</v>
+        <v>-9.2479255672741571E-5</v>
       </c>
       <c r="H14">
-        <v>2.7243255109180177E-4</v>
+        <v>1.1343554402137819E-4</v>
       </c>
       <c r="I14">
-        <v>2.1641327389217732E-4</v>
+        <v>1.3279589122628445E-4</v>
       </c>
       <c r="J14">
-        <v>8.5096436023373548E-6</v>
+        <v>-8.8368978520598118E-6</v>
       </c>
       <c r="K14">
-        <v>-9.87140455508091E-5</v>
+        <v>-9.23974099616365E-6</v>
       </c>
       <c r="L14">
-        <v>7.9549240594632115E-5</v>
+        <v>1.1503340195538964E-5</v>
       </c>
       <c r="M14">
-        <v>2.6254267222235038E-3</v>
+        <v>1.2746816510595396E-3</v>
       </c>
       <c r="N14">
-        <v>2.6287846812610583E-3</v>
+        <v>1.2722561024018923E-3</v>
       </c>
       <c r="O14">
-        <v>4.7547022520887097E-3</v>
+        <v>2.0545860429161027E-3</v>
       </c>
       <c r="P14">
-        <v>2.6280447427469399E-3</v>
+        <v>1.2858175754855697E-3</v>
       </c>
       <c r="Q14">
-        <v>2.6463070973605073E-3</v>
+        <v>1.2821835417323186E-3</v>
       </c>
       <c r="R14">
-        <v>2.6651628306459743E-3</v>
+        <v>1.2907019138037176E-3</v>
       </c>
       <c r="S14">
-        <v>2.6310546785295566E-3</v>
+        <v>1.2829592165665342E-3</v>
       </c>
       <c r="T14">
-        <v>2.6585430190041635E-3</v>
+        <v>1.2900912751364719E-3</v>
       </c>
       <c r="U14">
-        <v>2.6536904009532227E-3</v>
+        <v>1.2812363158923364E-3</v>
       </c>
       <c r="V14">
-        <v>2.6060909217077021E-3</v>
+        <v>1.2679818904691434E-3</v>
       </c>
       <c r="W14">
-        <v>2.5916544104670008E-3</v>
+        <v>1.2711100495833945E-3</v>
       </c>
       <c r="X14">
-        <v>9.8335438760414756E-3</v>
+        <v>-1.1151911571332133E-3</v>
       </c>
       <c r="Y14">
-        <v>-2.3746763530111314E-4</v>
+        <v>1.4071687890389447E-5</v>
       </c>
       <c r="Z14">
-        <v>-7.1245336240059985E-3</v>
+        <v>-1.4315450701872512E-5</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -6587,79 +6587,79 @@
         <v>90</v>
       </c>
       <c r="B15" s="28">
-        <v>3.9903506549119401E-2</v>
+        <v>4.4949200228131252E-2</v>
       </c>
       <c r="C15">
-        <v>5.9759702456547732E-5</v>
+        <v>4.2734456843327058E-5</v>
       </c>
       <c r="D15">
-        <v>-4.2092067576003186E-7</v>
+        <v>-3.1098703171011699E-7</v>
       </c>
       <c r="E15">
-        <v>-3.6790244928033345E-4</v>
+        <v>-1.6192015913526063E-4</v>
       </c>
       <c r="F15">
-        <v>-3.7918439509132188E-4</v>
+        <v>-1.1659716042343161E-4</v>
       </c>
       <c r="G15">
-        <v>-3.9753732376365597E-4</v>
+        <v>-1.3168394035841056E-4</v>
       </c>
       <c r="H15">
-        <v>1.0969488631573573E-4</v>
+        <v>1.1103298404921977E-4</v>
       </c>
       <c r="I15">
-        <v>6.2695343103707168E-4</v>
+        <v>2.6911297470843295E-4</v>
       </c>
       <c r="J15">
-        <v>3.782424155320674E-7</v>
+        <v>-1.2050953682148967E-5</v>
       </c>
       <c r="K15">
-        <v>-5.7486836241456328E-5</v>
+        <v>-1.041649753167515E-5</v>
       </c>
       <c r="L15">
-        <v>4.2080484503526658E-5</v>
+        <v>1.1489046851286818E-5</v>
       </c>
       <c r="M15">
-        <v>2.6449218518294119E-3</v>
+        <v>1.2847584414855981E-3</v>
       </c>
       <c r="N15">
-        <v>2.6451510875256886E-3</v>
+        <v>1.2792710214422675E-3</v>
       </c>
       <c r="O15">
-        <v>2.6280447427469399E-3</v>
+        <v>1.2858175754855697E-3</v>
       </c>
       <c r="P15">
-        <v>4.6119371808255802E-3</v>
+        <v>2.0995407388755432E-3</v>
       </c>
       <c r="Q15">
-        <v>2.6325856371116254E-3</v>
+        <v>1.2854576060014073E-3</v>
       </c>
       <c r="R15">
-        <v>2.6343596565110831E-3</v>
+        <v>1.2935452678582676E-3</v>
       </c>
       <c r="S15">
-        <v>2.6056111389355209E-3</v>
+        <v>1.2824948509833321E-3</v>
       </c>
       <c r="T15">
-        <v>2.6479491512437815E-3</v>
+        <v>1.2917585042210122E-3</v>
       </c>
       <c r="U15">
-        <v>2.6509758552934262E-3</v>
+        <v>1.2856243947140895E-3</v>
       </c>
       <c r="V15">
-        <v>2.6223897143918258E-3</v>
+        <v>1.2729982577080723E-3</v>
       </c>
       <c r="W15">
-        <v>2.6191334915695707E-3</v>
+        <v>1.2717993055643161E-3</v>
       </c>
       <c r="X15">
-        <v>2.1833653367780224E-2</v>
+        <v>-1.9825766725243762E-4</v>
       </c>
       <c r="Y15">
-        <v>-5.3263120264350494E-4</v>
+        <v>-2.2811395067371364E-6</v>
       </c>
       <c r="Z15">
-        <v>-1.8161477096303245E-2</v>
+        <v>-2.3843492695452811E-3</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -6667,79 +6667,79 @@
         <v>91</v>
       </c>
       <c r="B16" s="28">
-        <v>1.2395415091484669E-2</v>
+        <v>2.7336824544160001E-2</v>
       </c>
       <c r="C16">
-        <v>-3.2262003646115118E-6</v>
+        <v>1.0399314842201701E-5</v>
       </c>
       <c r="D16">
-        <v>-5.3535383524400343E-9</v>
+        <v>-1.0083302118018867E-7</v>
       </c>
       <c r="E16">
-        <v>-3.051954617120086E-4</v>
+        <v>-1.5434046213837145E-4</v>
       </c>
       <c r="F16">
-        <v>-3.8023980269021436E-4</v>
+        <v>-1.4844482791552904E-4</v>
       </c>
       <c r="G16">
-        <v>9.8221918369822985E-5</v>
+        <v>4.5569941411718624E-5</v>
       </c>
       <c r="H16">
-        <v>9.2534945371344472E-5</v>
+        <v>8.8462451188262811E-5</v>
       </c>
       <c r="I16">
-        <v>5.4080899331276222E-6</v>
+        <v>8.234721968269798E-6</v>
       </c>
       <c r="J16">
-        <v>-1.284280720018297E-5</v>
+        <v>-8.8250748936773713E-6</v>
       </c>
       <c r="K16">
-        <v>-9.8281067858276686E-5</v>
+        <v>-8.2606710942534838E-6</v>
       </c>
       <c r="L16">
-        <v>7.7642066810250406E-5</v>
+        <v>4.6155745327249864E-6</v>
       </c>
       <c r="M16">
-        <v>2.6247497066107222E-3</v>
+        <v>1.2752769216487034E-3</v>
       </c>
       <c r="N16">
-        <v>2.6332814371561523E-3</v>
+        <v>1.2764965337856656E-3</v>
       </c>
       <c r="O16">
-        <v>2.6463070973605073E-3</v>
+        <v>1.2821835417323186E-3</v>
       </c>
       <c r="P16">
-        <v>2.6325856371116254E-3</v>
+        <v>1.2854576060014073E-3</v>
       </c>
       <c r="Q16">
-        <v>4.5578497217168808E-3</v>
+        <v>2.0671190642478445E-3</v>
       </c>
       <c r="R16">
-        <v>2.6404531392171977E-3</v>
+        <v>1.2897431222816556E-3</v>
       </c>
       <c r="S16">
-        <v>2.610087518325538E-3</v>
+        <v>1.2816454883691104E-3</v>
       </c>
       <c r="T16">
-        <v>2.6455616966002404E-3</v>
+        <v>1.2884484293289411E-3</v>
       </c>
       <c r="U16">
-        <v>2.6503836417729265E-3</v>
+        <v>1.2848187115470961E-3</v>
       </c>
       <c r="V16">
-        <v>2.6187660781863166E-3</v>
+        <v>1.2704388648209076E-3</v>
       </c>
       <c r="W16">
-        <v>2.6351988479916921E-3</v>
+        <v>1.2776763467245164E-3</v>
       </c>
       <c r="X16">
-        <v>-6.4315501130817465E-3</v>
+        <v>-5.7763825988162674E-4</v>
       </c>
       <c r="Y16">
-        <v>1.6912574526897848E-4</v>
+        <v>1.5397412843357009E-5</v>
       </c>
       <c r="Z16">
-        <v>1.9419798406235117E-3</v>
+        <v>-1.0010339781156077E-3</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -6747,79 +6747,79 @@
         <v>92</v>
       </c>
       <c r="B17" s="28">
-        <v>8.0298242159205571E-2</v>
+        <v>3.5872517731070939E-2</v>
       </c>
       <c r="C17">
-        <v>-6.5930193543487729E-5</v>
+        <v>2.0409188832499862E-5</v>
       </c>
       <c r="D17">
-        <v>3.3827118408761908E-7</v>
+        <v>-1.8965834056824574E-7</v>
       </c>
       <c r="E17">
-        <v>-2.6714371800515171E-4</v>
+        <v>-1.3706720043480102E-4</v>
       </c>
       <c r="F17">
-        <v>-2.7823869007108717E-4</v>
+        <v>-1.0247255024790043E-4</v>
       </c>
       <c r="G17">
-        <v>-2.6180768963694019E-4</v>
+        <v>-1.1988575043978423E-4</v>
       </c>
       <c r="H17">
-        <v>1.6772144338213089E-4</v>
+        <v>1.1876559666307524E-4</v>
       </c>
       <c r="I17">
-        <v>4.3589338120417166E-4</v>
+        <v>2.123648566229539E-4</v>
       </c>
       <c r="J17">
-        <v>-2.9540570808990886E-7</v>
+        <v>-8.3009028212775341E-6</v>
       </c>
       <c r="K17">
-        <v>-1.0558505241095E-4</v>
+        <v>-1.0273802030676994E-5</v>
       </c>
       <c r="L17">
-        <v>8.5123306649069992E-5</v>
+        <v>1.0159821491384516E-5</v>
       </c>
       <c r="M17">
-        <v>2.6409006826128593E-3</v>
+        <v>1.2795667523874516E-3</v>
       </c>
       <c r="N17">
-        <v>2.6493377295655654E-3</v>
+        <v>1.280690382363833E-3</v>
       </c>
       <c r="O17">
-        <v>2.6651628306459743E-3</v>
+        <v>1.2907019138037176E-3</v>
       </c>
       <c r="P17">
-        <v>2.6343596565110831E-3</v>
+        <v>1.2935452678582676E-3</v>
       </c>
       <c r="Q17">
-        <v>2.6404531392171977E-3</v>
+        <v>1.2897431222816556E-3</v>
       </c>
       <c r="R17">
-        <v>4.0126630432356794E-3</v>
+        <v>1.8989830942598594E-3</v>
       </c>
       <c r="S17">
-        <v>2.6413684650881935E-3</v>
+        <v>1.289657467889013E-3</v>
       </c>
       <c r="T17">
-        <v>2.6681200716919735E-3</v>
+        <v>1.3002740782589802E-3</v>
       </c>
       <c r="U17">
-        <v>2.6716879420479686E-3</v>
+        <v>1.2923413244039028E-3</v>
       </c>
       <c r="V17">
-        <v>2.6186039950588467E-3</v>
+        <v>1.2732193854143366E-3</v>
       </c>
       <c r="W17">
-        <v>2.6249131131433519E-3</v>
+        <v>1.2826559554233526E-3</v>
       </c>
       <c r="X17">
-        <v>7.7752173871977609E-4</v>
+        <v>-8.7096158698655567E-4</v>
       </c>
       <c r="Y17">
-        <v>2.5717771938350668E-5</v>
+        <v>1.8055537645629517E-5</v>
       </c>
       <c r="Z17">
-        <v>-4.7579455731514703E-4</v>
+        <v>-1.062587737781142E-3</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -6827,79 +6827,79 @@
         <v>93</v>
       </c>
       <c r="B18" s="28">
-        <v>5.5214611779628643E-2</v>
+        <v>5.2913657515805131E-2</v>
       </c>
       <c r="C18">
-        <v>-4.2587369656575495E-5</v>
+        <v>2.3163108354805687E-5</v>
       </c>
       <c r="D18">
-        <v>2.0682632061465967E-7</v>
+        <v>-1.9136278392855455E-7</v>
       </c>
       <c r="E18">
-        <v>-2.6152777635922767E-4</v>
+        <v>-1.2633399493739594E-4</v>
       </c>
       <c r="F18">
-        <v>-2.6774173849786588E-4</v>
+        <v>-8.5871971464446272E-5</v>
       </c>
       <c r="G18">
-        <v>1.8355622887480591E-6</v>
+        <v>3.6849710356013157E-4</v>
       </c>
       <c r="H18">
-        <v>3.291128565794635E-5</v>
+        <v>9.0150629224897876E-5</v>
       </c>
       <c r="I18">
-        <v>3.6465310762041556E-4</v>
+        <v>1.8529967265687062E-4</v>
       </c>
       <c r="J18">
-        <v>-1.0138721929766784E-5</v>
+        <v>-1.2588527064325109E-5</v>
       </c>
       <c r="K18">
-        <v>-8.1550807343937204E-5</v>
+        <v>-6.3288289155188232E-6</v>
       </c>
       <c r="L18">
-        <v>5.6331749028422308E-5</v>
+        <v>2.519151385421269E-6</v>
       </c>
       <c r="M18">
-        <v>2.6254807534990634E-3</v>
+        <v>1.2758371177178408E-3</v>
       </c>
       <c r="N18">
-        <v>2.6325107613275698E-3</v>
+        <v>1.277927265737219E-3</v>
       </c>
       <c r="O18">
-        <v>2.6310546785295566E-3</v>
+        <v>1.2829592165665342E-3</v>
       </c>
       <c r="P18">
-        <v>2.6056111389355209E-3</v>
+        <v>1.2824948509833321E-3</v>
       </c>
       <c r="Q18">
-        <v>2.610087518325538E-3</v>
+        <v>1.2816454883691104E-3</v>
       </c>
       <c r="R18">
-        <v>2.6413684650881935E-3</v>
+        <v>1.289657467889013E-3</v>
       </c>
       <c r="S18">
-        <v>3.4318573789728938E-3</v>
+        <v>1.6750439536085814E-3</v>
       </c>
       <c r="T18">
-        <v>2.6296704584651302E-3</v>
+        <v>1.2908864345565138E-3</v>
       </c>
       <c r="U18">
-        <v>2.6417992212542348E-3</v>
+        <v>1.2852346285027738E-3</v>
       </c>
       <c r="V18">
-        <v>2.5970153866153346E-3</v>
+        <v>1.2689813994242152E-3</v>
       </c>
       <c r="W18">
-        <v>2.5849177784297147E-3</v>
+        <v>1.266637403253233E-3</v>
       </c>
       <c r="X18">
-        <v>1.7791963511890843E-2</v>
+        <v>-2.3334016108239857E-4</v>
       </c>
       <c r="Y18">
-        <v>-4.075143993274867E-4</v>
+        <v>9.9044575108987054E-6</v>
       </c>
       <c r="Z18">
-        <v>-1.1854937581493821E-2</v>
+        <v>-1.7351826875859899E-3</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -6907,79 +6907,79 @@
         <v>94</v>
       </c>
       <c r="B19" s="28">
-        <v>-6.5251401569957707E-2</v>
+        <v>-2.3685383254163722E-2</v>
       </c>
       <c r="C19">
-        <v>6.5819183852231129E-5</v>
+        <v>3.7923589918188554E-5</v>
       </c>
       <c r="D19">
-        <v>-5.1410633012882669E-7</v>
+        <v>-3.0076477070616167E-7</v>
       </c>
       <c r="E19">
-        <v>-3.6172391422070857E-4</v>
+        <v>-1.2890844974696255E-4</v>
       </c>
       <c r="F19">
-        <v>-2.9718166205165047E-4</v>
+        <v>-6.9829062721032292E-5</v>
       </c>
       <c r="G19">
-        <v>-7.875914842202323E-5</v>
+        <v>-6.9678050691199603E-6</v>
       </c>
       <c r="H19">
-        <v>1.4007328731863796E-4</v>
+        <v>9.72192446178408E-5</v>
       </c>
       <c r="I19">
-        <v>6.2052294914696055E-4</v>
+        <v>1.9596742889575243E-4</v>
       </c>
       <c r="J19">
-        <v>-7.9356182388963243E-5</v>
+        <v>-3.2013686017522391E-5</v>
       </c>
       <c r="K19">
-        <v>-6.2599643884861893E-5</v>
+        <v>-7.2170426823549468E-7</v>
       </c>
       <c r="L19">
-        <v>7.0951033153469667E-5</v>
+        <v>6.8660738098925902E-6</v>
       </c>
       <c r="M19">
-        <v>2.6419154351883375E-3</v>
+        <v>1.2785836447541249E-3</v>
       </c>
       <c r="N19">
-        <v>2.6557424899618059E-3</v>
+        <v>1.2793908166496793E-3</v>
       </c>
       <c r="O19">
-        <v>2.6585430190041635E-3</v>
+        <v>1.2900912751364719E-3</v>
       </c>
       <c r="P19">
-        <v>2.6479491512437815E-3</v>
+        <v>1.2917585042210122E-3</v>
       </c>
       <c r="Q19">
-        <v>2.6455616966002404E-3</v>
+        <v>1.2884484293289411E-3</v>
       </c>
       <c r="R19">
-        <v>2.6681200716919735E-3</v>
+        <v>1.3002740782589802E-3</v>
       </c>
       <c r="S19">
-        <v>2.6296704584651302E-3</v>
+        <v>1.2908864345565138E-3</v>
       </c>
       <c r="T19">
-        <v>4.0863607473623029E-3</v>
+        <v>1.8166905222922122E-3</v>
       </c>
       <c r="U19">
-        <v>2.6847618472817343E-3</v>
+        <v>1.2948604453829607E-3</v>
       </c>
       <c r="V19">
-        <v>2.6358439184560353E-3</v>
+        <v>1.2764512615071127E-3</v>
       </c>
       <c r="W19">
-        <v>2.6736193353142741E-3</v>
+        <v>1.2859520114838318E-3</v>
       </c>
       <c r="X19">
-        <v>4.0115502950429649E-3</v>
+        <v>-5.7022719518375065E-4</v>
       </c>
       <c r="Y19">
-        <v>-6.530418303036167E-5</v>
+        <v>1.5484375792938572E-5</v>
       </c>
       <c r="Z19">
-        <v>-7.2509743736137583E-3</v>
+        <v>-1.9720825112908083E-3</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -6987,79 +6987,79 @@
         <v>95</v>
       </c>
       <c r="B20" s="28">
-        <v>8.0250868006236209E-2</v>
+        <v>2.1714981492603324E-2</v>
       </c>
       <c r="C20">
-        <v>-9.1381558844600558E-5</v>
+        <v>-5.7459094906387592E-6</v>
       </c>
       <c r="D20">
-        <v>5.4238921900210324E-7</v>
+        <v>-3.139509319576299E-9</v>
       </c>
       <c r="E20">
-        <v>-4.2923649245604599E-4</v>
+        <v>-1.7128649949495859E-4</v>
       </c>
       <c r="F20">
-        <v>-4.5650319825589405E-4</v>
+        <v>-1.2778979179038668E-4</v>
       </c>
       <c r="G20">
-        <v>-2.9133596961072438E-4</v>
+        <v>-4.8048469678683287E-5</v>
       </c>
       <c r="H20">
-        <v>2.6174130433815777E-5</v>
+        <v>8.5106386090931844E-5</v>
       </c>
       <c r="I20">
-        <v>3.7722166392213652E-4</v>
+        <v>1.9142379002872058E-4</v>
       </c>
       <c r="J20">
-        <v>-5.3212278252600179E-5</v>
+        <v>-2.2724384780187294E-5</v>
       </c>
       <c r="K20">
-        <v>-5.2945549815373421E-5</v>
+        <v>3.8449775417296911E-6</v>
       </c>
       <c r="L20">
-        <v>3.4478081438514844E-5</v>
+        <v>-1.6670354725429356E-6</v>
       </c>
       <c r="M20">
-        <v>2.6562086236139319E-3</v>
+        <v>1.2774636358438428E-3</v>
       </c>
       <c r="N20">
-        <v>2.6664299182177311E-3</v>
+        <v>1.27352148566272E-3</v>
       </c>
       <c r="O20">
-        <v>2.6536904009532227E-3</v>
+        <v>1.2812363158923364E-3</v>
       </c>
       <c r="P20">
-        <v>2.6509758552934262E-3</v>
+        <v>1.2856243947140895E-3</v>
       </c>
       <c r="Q20">
-        <v>2.6503836417729265E-3</v>
+        <v>1.2848187115470961E-3</v>
       </c>
       <c r="R20">
-        <v>2.6716879420479686E-3</v>
+        <v>1.2923413244039028E-3</v>
       </c>
       <c r="S20">
-        <v>2.6417992212542348E-3</v>
+        <v>1.2852346285027738E-3</v>
       </c>
       <c r="T20">
-        <v>2.6847618472817343E-3</v>
+        <v>1.2948604453829607E-3</v>
       </c>
       <c r="U20">
-        <v>6.1887269403897976E-3</v>
+        <v>2.545015229810578E-3</v>
       </c>
       <c r="V20">
-        <v>2.643132909646241E-3</v>
+        <v>1.2712402697984179E-3</v>
       </c>
       <c r="W20">
-        <v>2.6398905192997948E-3</v>
+        <v>1.2785104075294304E-3</v>
       </c>
       <c r="X20">
-        <v>1.6274634834936227E-2</v>
+        <v>-1.1298146034274389E-3</v>
       </c>
       <c r="Y20">
-        <v>-3.7623487747610179E-4</v>
+        <v>2.0155845837643022E-5</v>
       </c>
       <c r="Z20">
-        <v>-8.8560459482517305E-3</v>
+        <v>1.4559113904160856E-4</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -7067,79 +7067,79 @@
         <v>96</v>
       </c>
       <c r="B21" s="28">
-        <v>-2.3403708069883494E-2</v>
+        <v>-1.1719138980812076E-2</v>
       </c>
       <c r="C21">
-        <v>1.8962509263316385E-5</v>
+        <v>2.4339083856935242E-5</v>
       </c>
       <c r="D21">
-        <v>-1.4517630199039434E-7</v>
+        <v>-1.8219952600717935E-7</v>
       </c>
       <c r="E21">
-        <v>-3.2635754230038108E-4</v>
+        <v>-1.3350623327530031E-4</v>
       </c>
       <c r="F21">
-        <v>-2.9998103400542082E-4</v>
+        <v>-8.7746162073782519E-5</v>
       </c>
       <c r="G21">
-        <v>-3.265505256146873E-4</v>
+        <v>-1.3279619219293704E-4</v>
       </c>
       <c r="H21">
-        <v>-7.6026805321881535E-5</v>
+        <v>3.3903209466464739E-5</v>
       </c>
       <c r="I21">
-        <v>5.9080020060350489E-4</v>
+        <v>2.4154108930725629E-4</v>
       </c>
       <c r="J21">
-        <v>-5.1065922562041694E-5</v>
+        <v>-2.1780377932756798E-5</v>
       </c>
       <c r="K21">
-        <v>-5.8383616800865604E-5</v>
+        <v>-1.5852918890075585E-8</v>
       </c>
       <c r="L21">
-        <v>5.744026542537045E-5</v>
+        <v>3.7799986466636874E-6</v>
       </c>
       <c r="M21">
-        <v>2.6490854414151148E-3</v>
+        <v>1.2729299311109088E-3</v>
       </c>
       <c r="N21">
-        <v>2.6439402403564015E-3</v>
+        <v>1.2680871898239679E-3</v>
       </c>
       <c r="O21">
-        <v>2.6060909217077021E-3</v>
+        <v>1.2679818904691434E-3</v>
       </c>
       <c r="P21">
-        <v>2.6223897143918258E-3</v>
+        <v>1.2729982577080723E-3</v>
       </c>
       <c r="Q21">
-        <v>2.6187660781863166E-3</v>
+        <v>1.2704388648209076E-3</v>
       </c>
       <c r="R21">
-        <v>2.6186039950588467E-3</v>
+        <v>1.2732193854143366E-3</v>
       </c>
       <c r="S21">
-        <v>2.5970153866153346E-3</v>
+        <v>1.2689813994242152E-3</v>
       </c>
       <c r="T21">
-        <v>2.6358439184560353E-3</v>
+        <v>1.2764512615071127E-3</v>
       </c>
       <c r="U21">
-        <v>2.643132909646241E-3</v>
+        <v>1.2712402697984179E-3</v>
       </c>
       <c r="V21">
-        <v>4.7303818924698659E-3</v>
+        <v>2.1590200609572646E-3</v>
       </c>
       <c r="W21">
-        <v>2.6613174163649909E-3</v>
+        <v>1.272381584671652E-3</v>
       </c>
       <c r="X21">
-        <v>1.4503434485158805E-3</v>
+        <v>-7.3136048555891894E-4</v>
       </c>
       <c r="Y21">
-        <v>-1.7999547177687859E-5</v>
+        <v>1.5262593487825403E-5</v>
       </c>
       <c r="Z21">
-        <v>-3.9325540481387304E-3</v>
+        <v>-1.4217296184754896E-3</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -7147,159 +7147,159 @@
         <v>97</v>
       </c>
       <c r="B22" s="28">
-        <v>-0.12263826410131227</v>
+        <v>-4.995447673226288E-2</v>
       </c>
       <c r="C22">
-        <v>1.0291523765571312E-4</v>
+        <v>4.7464694847966157E-5</v>
       </c>
       <c r="D22">
-        <v>-6.8812246098283263E-7</v>
+        <v>-3.456040478281387E-7</v>
       </c>
       <c r="E22">
-        <v>-3.0472378371160604E-4</v>
+        <v>-1.1696938037380653E-4</v>
       </c>
       <c r="F22">
-        <v>-3.4162095096205753E-4</v>
+        <v>-8.2532978349576227E-5</v>
       </c>
       <c r="G22">
-        <v>-2.9387536816245438E-4</v>
+        <v>-1.7427317757796705E-4</v>
       </c>
       <c r="H22">
-        <v>-3.9909402333435096E-5</v>
+        <v>5.1258372131232936E-5</v>
       </c>
       <c r="I22">
-        <v>5.3643715288792266E-4</v>
+        <v>2.0866289437478021E-4</v>
       </c>
       <c r="J22">
-        <v>-4.0359260377752248E-5</v>
+        <v>-2.0977258111140899E-5</v>
       </c>
       <c r="K22">
-        <v>-4.1852713619102279E-5</v>
+        <v>6.8052853965217095E-6</v>
       </c>
       <c r="L22">
-        <v>8.4147585510302371E-5</v>
+        <v>8.4024617736883165E-6</v>
       </c>
       <c r="M22">
-        <v>2.6476074801431238E-3</v>
+        <v>1.2711420661637902E-3</v>
       </c>
       <c r="N22">
-        <v>2.6449435491030064E-3</v>
+        <v>1.2697342983791792E-3</v>
       </c>
       <c r="O22">
-        <v>2.5916544104670008E-3</v>
+        <v>1.2711100495833945E-3</v>
       </c>
       <c r="P22">
-        <v>2.6191334915695707E-3</v>
+        <v>1.2717993055643161E-3</v>
       </c>
       <c r="Q22">
-        <v>2.6351988479916921E-3</v>
+        <v>1.2776763467245164E-3</v>
       </c>
       <c r="R22">
-        <v>2.6249131131433519E-3</v>
+        <v>1.2826559554233526E-3</v>
       </c>
       <c r="S22">
-        <v>2.5849177784297147E-3</v>
+        <v>1.266637403253233E-3</v>
       </c>
       <c r="T22">
-        <v>2.6736193353142741E-3</v>
+        <v>1.2859520114838318E-3</v>
       </c>
       <c r="U22">
-        <v>2.6398905192997948E-3</v>
+        <v>1.2785104075294304E-3</v>
       </c>
       <c r="V22">
-        <v>2.6613174163649909E-3</v>
+        <v>1.272381584671652E-3</v>
       </c>
       <c r="W22">
-        <v>6.5374332700991874E-3</v>
+        <v>2.879957180437747E-3</v>
       </c>
       <c r="X22">
-        <v>-8.0078014539195497E-3</v>
+        <v>-3.8727743753427268E-3</v>
       </c>
       <c r="Y22">
-        <v>2.4321119376855341E-4</v>
+        <v>5.4710187630284434E-5</v>
       </c>
       <c r="Z22">
-        <v>-1.8934768328584539E-3</v>
+        <v>2.4365859235768212E-4</v>
       </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B23" s="28">
-        <v>1.8931127459031369</v>
+        <v>-0.42427894801872817</v>
       </c>
       <c r="C23">
-        <v>-2.3516350996442004E-3</v>
+        <v>-6.5626493354240673E-4</v>
       </c>
       <c r="D23">
-        <v>1.3761519885148107E-5</v>
+        <v>4.8721450278470485E-6</v>
       </c>
       <c r="E23">
-        <v>3.1598423342782539E-3</v>
+        <v>1.3172606675703532E-3</v>
       </c>
       <c r="F23">
-        <v>1.6806629907650285E-2</v>
+        <v>1.2650437214488245E-3</v>
       </c>
       <c r="G23">
-        <v>6.6533869360029918E-2</v>
+        <v>-4.7357994610160922E-3</v>
       </c>
       <c r="H23">
-        <v>3.5126484628456578E-3</v>
+        <v>2.3614256033634845E-4</v>
       </c>
       <c r="I23">
-        <v>8.6672616631162103E-3</v>
+        <v>-4.0081121950490354E-3</v>
       </c>
       <c r="J23">
-        <v>4.0996254422360559E-3</v>
+        <v>-5.5477928704799435E-5</v>
       </c>
       <c r="K23">
-        <v>1.5104691575832455E-3</v>
+        <v>5.6688264845188149E-5</v>
       </c>
       <c r="L23">
-        <v>-8.8923418960874107E-4</v>
+        <v>9.1032644968256867E-5</v>
       </c>
       <c r="M23">
-        <v>-1.0451254913843147E-2</v>
+        <v>-1.1293239885466133E-3</v>
       </c>
       <c r="N23">
-        <v>1.2567800871521498E-2</v>
+        <v>-1.886234748059149E-3</v>
       </c>
       <c r="O23">
-        <v>9.8335438760414756E-3</v>
+        <v>-1.1151911571332133E-3</v>
       </c>
       <c r="P23">
-        <v>2.1833653367780224E-2</v>
+        <v>-1.9825766725243762E-4</v>
       </c>
       <c r="Q23">
-        <v>-6.4315501130817465E-3</v>
+        <v>-5.7763825988162674E-4</v>
       </c>
       <c r="R23">
-        <v>7.7752173871977609E-4</v>
+        <v>-8.7096158698655567E-4</v>
       </c>
       <c r="S23">
-        <v>1.7791963511890843E-2</v>
+        <v>-2.3334016108239857E-4</v>
       </c>
       <c r="T23">
-        <v>4.0115502950429649E-3</v>
+        <v>-5.7022719518375065E-4</v>
       </c>
       <c r="U23">
-        <v>1.6274634834936227E-2</v>
+        <v>-1.1298146034274389E-3</v>
       </c>
       <c r="V23">
-        <v>1.4503434485158805E-3</v>
+        <v>-7.3136048555891894E-4</v>
       </c>
       <c r="W23">
-        <v>-8.0078014539195497E-3</v>
+        <v>-3.8727743753427268E-3</v>
       </c>
       <c r="X23">
-        <v>42.907615663247952</v>
+        <v>1.0147594088171559</v>
       </c>
       <c r="Y23">
-        <v>-1.0364961100669881</v>
+        <v>-8.837216263888073E-3</v>
       </c>
       <c r="Z23">
-        <v>-27.223383196415966</v>
+        <v>-0.86030600057425666</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -7307,79 +7307,79 @@
         <v>141</v>
       </c>
       <c r="B24" s="28">
-        <v>-5.9995388716100585E-2</v>
+        <v>-5.6670609689074081E-3</v>
       </c>
       <c r="C24">
-        <v>4.3539395007997223E-5</v>
+        <v>-6.339269094192846E-6</v>
       </c>
       <c r="D24">
-        <v>-2.4952345962033938E-7</v>
+        <v>3.5934411351696912E-8</v>
       </c>
       <c r="E24">
-        <v>-5.7366322052473115E-5</v>
+        <v>-4.6210554317454249E-6</v>
       </c>
       <c r="F24">
-        <v>-3.9249377718462335E-4</v>
+        <v>2.0853709752339351E-7</v>
       </c>
       <c r="G24">
-        <v>-1.6183289520876366E-3</v>
+        <v>4.3020456196813891E-5</v>
       </c>
       <c r="H24">
-        <v>-8.0380650687744692E-5</v>
+        <v>6.6799869132560012E-7</v>
       </c>
       <c r="I24">
-        <v>-2.3240115642635725E-4</v>
+        <v>2.719324280039407E-5</v>
       </c>
       <c r="J24">
-        <v>-1.0102682383742508E-4</v>
+        <v>2.7488342738027865E-7</v>
       </c>
       <c r="K24">
-        <v>-4.1503688111632696E-5</v>
+        <v>-2.9029480309521257E-6</v>
       </c>
       <c r="L24">
-        <v>2.7276993853721991E-5</v>
+        <v>1.5824406699522373E-6</v>
       </c>
       <c r="M24">
-        <v>2.5952268483197226E-4</v>
+        <v>1.9144780041895692E-5</v>
       </c>
       <c r="N24">
-        <v>-2.7231207255908182E-4</v>
+        <v>2.2101038271362029E-5</v>
       </c>
       <c r="O24">
-        <v>-2.3746763530111314E-4</v>
+        <v>1.4071687890389447E-5</v>
       </c>
       <c r="P24">
-        <v>-5.3263120264350494E-4</v>
+        <v>-2.2811395067371364E-6</v>
       </c>
       <c r="Q24">
-        <v>1.6912574526897848E-4</v>
+        <v>1.5397412843357009E-5</v>
       </c>
       <c r="R24">
-        <v>2.5717771938350668E-5</v>
+        <v>1.8055537645629517E-5</v>
       </c>
       <c r="S24">
-        <v>-4.075143993274867E-4</v>
+        <v>9.9044575108987054E-6</v>
       </c>
       <c r="T24">
-        <v>-6.530418303036167E-5</v>
+        <v>1.5484375792938572E-5</v>
       </c>
       <c r="U24">
-        <v>-3.7623487747610179E-4</v>
+        <v>2.0155845837643022E-5</v>
       </c>
       <c r="V24">
-        <v>-1.7999547177687859E-5</v>
+        <v>1.5262593487825403E-5</v>
       </c>
       <c r="W24">
-        <v>2.4321119376855341E-4</v>
+        <v>5.4710187630284434E-5</v>
       </c>
       <c r="X24">
-        <v>-1.0364961100669881</v>
+        <v>-8.837216263888073E-3</v>
       </c>
       <c r="Y24">
-        <v>2.5121488535982284E-2</v>
+        <v>1.1114309776984085E-4</v>
       </c>
       <c r="Z24">
-        <v>0.65689773175701305</v>
+        <v>7.4392522421864449E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -7387,79 +7387,79 @@
         <v>29</v>
       </c>
       <c r="B25" s="28">
-        <v>8.8043292130727249</v>
+        <v>9.0401836405445728</v>
       </c>
       <c r="C25">
-        <v>-3.0139394804159503E-2</v>
+        <v>-1.3954021316085516E-2</v>
       </c>
       <c r="D25">
-        <v>1.9735474045139059E-4</v>
+        <v>9.140888467813529E-5</v>
       </c>
       <c r="E25">
-        <v>-5.0962908247237926E-3</v>
+        <v>-3.590713747542564E-3</v>
       </c>
       <c r="F25">
-        <v>-1.4411966902579655E-2</v>
+        <v>-4.1013676924257798E-3</v>
       </c>
       <c r="G25">
-        <v>-8.0898714982769349E-2</v>
+        <v>-1.652608191150591E-2</v>
       </c>
       <c r="H25">
-        <v>-5.7812707731220436E-3</v>
+        <v>-8.4901995721277379E-4</v>
       </c>
       <c r="I25">
-        <v>-2.1087593042925512E-2</v>
+        <v>-8.7856550969237423E-4</v>
       </c>
       <c r="J25">
-        <v>-1.7892190978239797E-3</v>
+        <v>1.8235667784556901E-4</v>
       </c>
       <c r="K25">
-        <v>-3.4979352171601516E-3</v>
+        <v>-1.4583407717735641E-3</v>
       </c>
       <c r="L25">
-        <v>1.3998512112419967E-3</v>
+        <v>7.542878999974665E-4</v>
       </c>
       <c r="M25">
-        <v>8.1918477359313735E-3</v>
+        <v>4.9489536495758539E-4</v>
       </c>
       <c r="N25">
-        <v>-7.6671426464842915E-3</v>
+        <v>-1.77369653603595E-4</v>
       </c>
       <c r="O25">
-        <v>-7.1245336240059985E-3</v>
+        <v>-1.4315450701872512E-5</v>
       </c>
       <c r="P25">
-        <v>-1.8161477096303245E-2</v>
+        <v>-2.3843492695452811E-3</v>
       </c>
       <c r="Q25">
-        <v>1.9419798406235117E-3</v>
+        <v>-1.0010339781156077E-3</v>
       </c>
       <c r="R25">
-        <v>-4.7579455731514703E-4</v>
+        <v>-1.062587737781142E-3</v>
       </c>
       <c r="S25">
-        <v>-1.1854937581493821E-2</v>
+        <v>-1.7351826875859899E-3</v>
       </c>
       <c r="T25">
-        <v>-7.2509743736137583E-3</v>
+        <v>-1.9720825112908083E-3</v>
       </c>
       <c r="U25">
-        <v>-8.8560459482517305E-3</v>
+        <v>1.4559113904160856E-4</v>
       </c>
       <c r="V25">
-        <v>-3.9325540481387304E-3</v>
+        <v>-1.4217296184754896E-3</v>
       </c>
       <c r="W25">
-        <v>-1.8934768328584539E-3</v>
+        <v>2.4365859235768212E-4</v>
       </c>
       <c r="X25">
-        <v>-27.223383196415966</v>
+        <v>-0.86030600057425666</v>
       </c>
       <c r="Y25">
-        <v>0.65689773175701305</v>
+        <v>7.4392522421864449E-3</v>
       </c>
       <c r="Z25">
-        <v>18.496572735002133</v>
+        <v>1.2821792219973158</v>
       </c>
     </row>
   </sheetData>
@@ -7471,7 +7471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C2E849-502C-4818-A96C-18EB09FB1CE0}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12780,7 +12782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B61645-4A7A-45C4-916C-002E08390D37}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dasha\ESSEX\ESPON 2024\UK\regression_estimates\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0FD025-BD9C-4840-9904-618D31CE6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED081781-B95A-4855-8DCC-DC0399F4E6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="852" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="852" activeTab="5" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -33,18 +33,10 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -222,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13600,9 +13592,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13640,7 +13632,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13746,7 +13738,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13888,7 +13880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13898,18 +13890,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6ABAD6-EDFF-4112-B11C-EFA0B1D442EA}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -13921,7 +13913,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
@@ -13931,7 +13923,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -13939,7 +13931,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -13947,7 +13939,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -13955,7 +13947,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -13963,7 +13955,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -13971,7 +13963,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -13979,7 +13971,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13987,7 +13979,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -13995,7 +13987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -14003,7 +13995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -14011,7 +14003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -14019,7 +14011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -14027,7 +14019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -14035,7 +14027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -14043,7 +14035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -14073,15 +14065,15 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14.953125" customWidth="1"/>
-    <col min="3" max="3" width="10.31640625" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14173,7 +14165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -14294,7 +14286,7 @@
         <v>-7.381229946543161E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -14415,7 +14407,7 @@
         <v>-1.3621567590483692E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14536,7 +14528,7 @@
         <v>1.1762051712856238E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -14657,7 +14649,7 @@
         <v>-2.3988734421573487E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -14778,7 +14770,7 @@
         <v>-3.1842145522204972E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -14899,7 +14891,7 @@
         <v>-1.7541092288372853E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -15020,7 +15012,7 @@
         <v>-9.3788139792879972E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -15141,7 +15133,7 @@
         <v>-2.1032852869474792E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -15262,7 +15254,7 @@
         <v>-4.7242554573698604E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -15383,7 +15375,7 @@
         <v>-3.3161975995464095E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -15504,7 +15496,7 @@
         <v>-1.9879983270150261E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -15625,7 +15617,7 @@
         <v>-1.1872004731524034E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -15746,7 +15738,7 @@
         <v>3.0551457222289986E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -15867,7 +15859,7 @@
         <v>9.1554571775370687E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -15988,7 +15980,7 @@
         <v>5.914285151747581E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -16109,7 +16101,7 @@
         <v>-5.3143245041592751E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -16230,7 +16222,7 @@
         <v>-5.3356335306618688E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -16351,7 +16343,7 @@
         <v>-5.3655143857954868E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -16472,7 +16464,7 @@
         <v>-5.0223801408008737E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -16593,7 +16585,7 @@
         <v>-5.6079453676649701E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -16714,7 +16706,7 @@
         <v>-5.189780739133325E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -16835,7 +16827,7 @@
         <v>-5.0821205011674958E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -16956,7 +16948,7 @@
         <v>-4.8394136184620219E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -17077,7 +17069,7 @@
         <v>-5.2415911189422724E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -17198,7 +17190,7 @@
         <v>-4.6528357539097443E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -17319,7 +17311,7 @@
         <v>-4.9471384905915581E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -17440,7 +17432,7 @@
         <v>-4.4394662372174364E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -17578,14 +17570,14 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17650,7 +17642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -17735,7 +17727,7 @@
         <v>3.2527650032152466E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -17820,7 +17812,7 @@
         <v>-1.641663318749341</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -17905,7 +17897,7 @@
         <v>3.6798593113204436E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -17990,7 +17982,7 @@
         <v>-4.2104988468382176E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -18075,7 +18067,7 @@
         <v>9.3014580683722994E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -18160,7 +18152,7 @@
         <v>2.5610114163495984E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18245,7 +18237,7 @@
         <v>-1.029523234764973E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -18330,7 +18322,7 @@
         <v>5.4477272635106155E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -18415,7 +18407,7 @@
         <v>5.8652900044054268E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -18500,7 +18492,7 @@
         <v>-3.6758430160761774E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -18585,7 +18577,7 @@
         <v>-6.5632385544601268E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -18670,7 +18662,7 @@
         <v>-8.9013920968155691E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -18755,7 +18747,7 @@
         <v>3.494902662991739E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -18840,7 +18832,7 @@
         <v>-4.452900582267863E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -18925,7 +18917,7 @@
         <v>-0.13016671921478928</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -19010,7 +19002,7 @@
         <v>-3.6316345131751193E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -19095,7 +19087,7 @@
         <v>-6.6149020502624056E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -19180,7 +19172,7 @@
         <v>-1.2935008419206785E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -19282,14 +19274,14 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19381,7 +19373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -19502,7 +19494,7 @@
         <v>-1.6960984289857747E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -19623,7 +19615,7 @@
         <v>-2.2450450484504174E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -19744,7 +19736,7 @@
         <v>1.8289145282304979E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -19865,7 +19857,7 @@
         <v>-2.4993018443243703E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -19986,7 +19978,7 @@
         <v>-3.4268514507174099E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -20107,7 +20099,7 @@
         <v>-3.1446058584356962E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -20228,7 +20220,7 @@
         <v>-1.4165325645838819E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -20349,7 +20341,7 @@
         <v>-3.2829450992649786E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -20470,7 +20462,7 @@
         <v>-5.9905923071441576E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -20591,7 +20583,7 @@
         <v>-6.8660401084687922E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -20712,7 +20704,7 @@
         <v>-2.3258984674290773E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -20833,7 +20825,7 @@
         <v>-1.9657864156118109E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -20954,7 +20946,7 @@
         <v>4.896978941741211E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -21075,7 +21067,7 @@
         <v>8.7809173698836814E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -21196,7 +21188,7 @@
         <v>1.0940453245301764E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -21317,7 +21309,7 @@
         <v>-7.0616299191637671E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -21438,7 +21430,7 @@
         <v>-6.5192087261508182E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -21559,7 +21551,7 @@
         <v>-7.1893532733139525E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -21680,7 +21672,7 @@
         <v>-6.8886790849103166E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -21801,7 +21793,7 @@
         <v>-7.6271869052863006E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -21922,7 +21914,7 @@
         <v>-7.2080982844788602E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -22043,7 +22035,7 @@
         <v>-7.2346398601912836E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -22164,7 +22156,7 @@
         <v>-7.2538678577457698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -22285,7 +22277,7 @@
         <v>-7.2266225677759159E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -22406,7 +22398,7 @@
         <v>-6.7258469114246124E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -22527,7 +22519,7 @@
         <v>-7.2736095770873439E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -22648,7 +22640,7 @@
         <v>-7.2474852604632889E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -22786,14 +22778,14 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.76953125" customWidth="1"/>
-    <col min="2" max="2" width="13.58984375" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22873,7 +22865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -22978,7 +22970,7 @@
         <v>-4.8750170375029857E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -23083,7 +23075,7 @@
         <v>3.2189281123068929E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -23188,7 +23180,7 @@
         <v>-4.399707615729278E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -23293,7 +23285,7 @@
         <v>-3.5180221691858858E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -23398,7 +23390,7 @@
         <v>-3.1034403593836676E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -23503,7 +23495,7 @@
         <v>-3.8269880838212242E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -23608,7 +23600,7 @@
         <v>-4.9885923202199096E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -23713,7 +23705,7 @@
         <v>-7.8092984652327431E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -23818,7 +23810,7 @@
         <v>-2.5819777563516075E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -23923,7 +23915,7 @@
         <v>9.8158292348250633E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -24028,7 +24020,7 @@
         <v>-7.4925622507437516E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -24133,7 +24125,7 @@
         <v>-2.2184849506856445E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -24238,7 +24230,7 @@
         <v>-4.4994791584957762E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -24343,7 +24335,7 @@
         <v>-2.8344306804652109E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -24448,7 +24440,7 @@
         <v>-4.5811583014822906E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -24553,7 +24545,7 @@
         <v>-5.7103915319446034E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -24658,7 +24650,7 @@
         <v>-2.8544508719118098E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -24763,7 +24755,7 @@
         <v>-5.2779922038091471E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -24868,7 +24860,7 @@
         <v>-6.3713222380643725E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -24973,7 +24965,7 @@
         <v>-4.2356435869038075E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -25078,7 +25070,7 @@
         <v>-6.7393328166533411E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -25183,7 +25175,7 @@
         <v>-0.15722747801897308</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -25288,7 +25280,7 @@
         <v>1.41730578990832E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -25393,7 +25385,7 @@
         <v>0.32093317420885148</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:26">
       <c r="B26" s="3"/>
     </row>
   </sheetData>
@@ -25413,14 +25405,14 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.86328125" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25500,7 +25492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -25605,7 +25597,7 @@
         <v>-3.480012653704507E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -25710,7 +25702,7 @@
         <v>2.8843189279048409E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -25815,7 +25807,7 @@
         <v>-6.7986880740530369E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -25920,7 +25912,7 @@
         <v>-1.1627026272679E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -26025,7 +26017,7 @@
         <v>1.8354424883859917E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -26130,7 +26122,7 @@
         <v>1.4525037852668634E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -26235,7 +26227,7 @@
         <v>-4.0184526092096216E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -26340,7 +26332,7 @@
         <v>-4.0851420053439622E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -26445,7 +26437,7 @@
         <v>-1.0386975994920817E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -26550,7 +26542,7 @@
         <v>-7.1396229300182322E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -26655,7 +26647,7 @@
         <v>-2.3200686584720791E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -26760,7 +26752,7 @@
         <v>-1.3401119123268719E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -26865,7 +26857,7 @@
         <v>-1.8624356889701911E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -26970,7 +26962,7 @@
         <v>-2.2087155690023591E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -27075,7 +27067,7 @@
         <v>-1.2809865030333573E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -27180,7 +27172,7 @@
         <v>-1.4056609048310426E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -27285,7 +27277,7 @@
         <v>-1.5760951894091026E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -27390,7 +27382,7 @@
         <v>-1.7628471817870563E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -27495,7 +27487,7 @@
         <v>-2.4487292038498351E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -27600,7 +27592,7 @@
         <v>-1.9195424125114782E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -27705,7 +27697,7 @@
         <v>-1.3196341425773455E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -27810,7 +27802,7 @@
         <v>-2.6072209783299494</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -27915,7 +27907,7 @@
         <v>1.432838525686797E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -28037,13 +28029,13 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28123,7 +28115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -28228,7 +28220,7 @@
         <v>-3468.123942493899</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -28333,7 +28325,7 @@
         <v>862.06168150388658</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -28438,7 +28430,7 @@
         <v>1538.3471131644874</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -28543,7 +28535,7 @@
         <v>-1809.9300652053707</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -28648,7 +28640,7 @@
         <v>11952.31746462515</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -28753,7 +28745,7 @@
         <v>5939.7032261366185</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -28858,7 +28850,7 @@
         <v>4346.4180032654795</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -28963,7 +28955,7 @@
         <v>-1613.6521548672072</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -29068,7 +29060,7 @@
         <v>-5914.4670167351087</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -29173,7 +29165,7 @@
         <v>-266.64369533339703</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -29278,7 +29270,7 @@
         <v>-18434.636239103998</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -29383,7 +29375,7 @@
         <v>-15166.686287916104</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -29488,7 +29480,7 @@
         <v>-15968.615754071303</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -29593,7 +29585,7 @@
         <v>-10410.906255690095</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -29698,7 +29690,7 @@
         <v>-18014.750345270204</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -29803,7 +29795,7 @@
         <v>-16780.098069267704</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -29908,7 +29900,7 @@
         <v>-15048.486376422292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -30013,7 +30005,7 @@
         <v>-27982.563539052891</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -30118,7 +30110,7 @@
         <v>-23999.865244268025</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -30223,7 +30215,7 @@
         <v>-19487.553376604315</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -30328,7 +30320,7 @@
         <v>-22340.380177392541</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -30433,7 +30425,7 @@
         <v>-664493.88241170114</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -30538,7 +30530,7 @@
         <v>2992.3155283263077</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -30656,18 +30648,18 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14.953125" customWidth="1"/>
-    <col min="3" max="3" width="10.31640625" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30732,7 +30724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -30797,7 +30789,7 @@
         <v>-4.0569369817552775E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -30862,7 +30854,7 @@
         <v>-0.47035642064342931</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -30927,7 +30919,7 @@
         <v>1.0679971597215815E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -30992,7 +30984,7 @@
         <v>-4.1494495868157049E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -31057,7 +31049,7 @@
         <v>6.4313454910751625E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -31122,7 +31114,7 @@
         <v>3.6143575203704207E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31187,7 +31179,7 @@
         <v>-3.3133136671483404E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -31252,7 +31244,7 @@
         <v>-2.3953148320597688E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -31317,7 +31309,7 @@
         <v>-2.6169784576765581E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -31382,7 +31374,7 @@
         <v>-2.881618196332238E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -31447,7 +31439,7 @@
         <v>-1.3443205867742392E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -31512,7 +31504,7 @@
         <v>-3.2243323472508134E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -31577,7 +31569,7 @@
         <v>-2.4264321469330309E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -31642,7 +31634,7 @@
         <v>-3.9101033242241526E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -31707,7 +31699,7 @@
         <v>-1.4719222454386543E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -31772,7 +31764,7 @@
         <v>-1.960754491435953E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -31837,7 +31829,7 @@
         <v>-7.5682261280717554E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -31902,7 +31894,7 @@
         <v>-2.4979034516701753E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -31977,21 +31969,21 @@
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="T2" sqref="T2:V2"/>
       <selection pane="topRight" activeCell="T2" sqref="T2:V2"/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:V2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -32083,7 +32075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -32175,7 +32167,7 @@
         <v>-7.381229946543161E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -32267,7 +32259,7 @@
         <v>-1.3621567590483692E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -32359,7 +32351,7 @@
         <v>1.1762051712856238E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -32451,7 +32443,7 @@
         <v>-2.3988734421573487E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -32543,7 +32535,7 @@
         <v>-3.1842145522204972E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -32635,7 +32627,7 @@
         <v>-1.7541092288372853E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -32727,7 +32719,7 @@
         <v>-9.3788139792879972E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -32819,7 +32811,7 @@
         <v>-2.1032852869474792E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -32911,7 +32903,7 @@
         <v>-4.7242554573698604E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -33003,7 +32995,7 @@
         <v>-3.3161975995464095E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -33095,7 +33087,7 @@
         <v>-1.9879983270150261E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -33187,7 +33179,7 @@
         <v>-1.1872004731524034E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -33279,7 +33271,7 @@
         <v>3.0551457222289986E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -33371,7 +33363,7 @@
         <v>9.1554571775370687E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -33463,7 +33455,7 @@
         <v>5.914285151747581E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -33555,7 +33547,7 @@
         <v>-5.3143245041592751E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -33647,7 +33639,7 @@
         <v>-5.3356335306618688E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -33739,7 +33731,7 @@
         <v>-5.3655143857954868E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -33831,7 +33823,7 @@
         <v>-5.0223801408008737E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -33923,7 +33915,7 @@
         <v>-5.6079453676649701E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -34015,7 +34007,7 @@
         <v>-5.189780739133325E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -34107,7 +34099,7 @@
         <v>-5.0821205011674958E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -34199,7 +34191,7 @@
         <v>-4.8394136184620219E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -34291,7 +34283,7 @@
         <v>-5.2415911189422724E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -34383,7 +34375,7 @@
         <v>-4.6528357539097443E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -34475,7 +34467,7 @@
         <v>-4.9471384905915581E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -34567,7 +34559,7 @@
         <v>-4.4394662372174364E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -34673,17 +34665,17 @@
       <selection activeCell="T2" sqref="T2:V2"/>
       <selection pane="topRight" activeCell="T2" sqref="T2:V2"/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:V2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -34748,7 +34740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -34813,7 +34805,7 @@
         <v>3.2527650032152466E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -34878,7 +34870,7 @@
         <v>-1.641663318749341</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -34943,7 +34935,7 @@
         <v>3.6798593113204436E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -35008,7 +35000,7 @@
         <v>-4.2104988468382176E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -35073,7 +35065,7 @@
         <v>9.3014580683722994E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -35138,7 +35130,7 @@
         <v>2.5610114163495984E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -35203,7 +35195,7 @@
         <v>-1.029523234764973E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -35268,7 +35260,7 @@
         <v>5.4477272635106155E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -35333,7 +35325,7 @@
         <v>5.8652900044054268E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -35398,7 +35390,7 @@
         <v>-3.6758430160761774E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -35463,7 +35455,7 @@
         <v>-6.5632385544601268E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -35528,7 +35520,7 @@
         <v>-8.9013920968155691E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -35593,7 +35585,7 @@
         <v>3.494902662991739E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -35658,7 +35650,7 @@
         <v>-4.452900582267863E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -35723,7 +35715,7 @@
         <v>-0.13016671921478928</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -35788,7 +35780,7 @@
         <v>-3.6316345131751193E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -35853,7 +35845,7 @@
         <v>-6.6149020502624056E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -35918,7 +35910,7 @@
         <v>-1.2935008419206785E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -35993,21 +35985,21 @@
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="T2" sqref="T2:V2"/>
       <selection pane="topRight" activeCell="T2" sqref="T2:V2"/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:V2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36099,7 +36091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -36191,7 +36183,7 @@
         <v>-1.6960984289857747E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -36283,7 +36275,7 @@
         <v>-2.2450450484504174E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -36375,7 +36367,7 @@
         <v>1.8289145282304979E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -36467,7 +36459,7 @@
         <v>-2.4993018443243703E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -36559,7 +36551,7 @@
         <v>-3.4268514507174099E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -36651,7 +36643,7 @@
         <v>-3.1446058584356962E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -36743,7 +36735,7 @@
         <v>-1.4165325645838819E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -36835,7 +36827,7 @@
         <v>-3.2829450992649786E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -36927,7 +36919,7 @@
         <v>-5.9905923071441576E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -37019,7 +37011,7 @@
         <v>-6.8660401084687922E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -37111,7 +37103,7 @@
         <v>-2.3258984674290773E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -37203,7 +37195,7 @@
         <v>-1.9657864156118109E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -37295,7 +37287,7 @@
         <v>4.896978941741211E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -37387,7 +37379,7 @@
         <v>8.7809173698836814E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -37479,7 +37471,7 @@
         <v>1.0940453245301764E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -37571,7 +37563,7 @@
         <v>-7.0616299191637671E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -37663,7 +37655,7 @@
         <v>-6.5192087261508182E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -37755,7 +37747,7 @@
         <v>-7.1893532733139525E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -37847,7 +37839,7 @@
         <v>-6.8886790849103166E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -37939,7 +37931,7 @@
         <v>-7.6271869052863006E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -38031,7 +38023,7 @@
         <v>-7.2080982844788602E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -38123,7 +38115,7 @@
         <v>-7.2346398601912836E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -38215,7 +38207,7 @@
         <v>-7.2538678577457698E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -38307,7 +38299,7 @@
         <v>-7.2266225677759159E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -38399,7 +38391,7 @@
         <v>-6.7258469114246124E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -38491,7 +38483,7 @@
         <v>-7.2736095770873439E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -38583,7 +38575,7 @@
         <v>-7.2474852604632889E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -38682,24 +38674,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937EB1A9-9DE7-4BD1-9F77-23AC72EF4519}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="T2" sqref="T2:V2"/>
       <selection pane="topRight" activeCell="T2" sqref="T2:V2"/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:V2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.76953125" customWidth="1"/>
-    <col min="2" max="2" width="13.58984375" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38779,7 +38771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -38859,7 +38851,7 @@
         <v>-4.8750170375029857E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -38939,7 +38931,7 @@
         <v>3.2189281123068929E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -39019,7 +39011,7 @@
         <v>-4.399707615729278E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -39099,7 +39091,7 @@
         <v>-3.5180221691858858E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -39179,7 +39171,7 @@
         <v>-3.1034403593836676E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -39259,7 +39251,7 @@
         <v>-3.8269880838212242E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -39339,7 +39331,7 @@
         <v>-4.9885923202199096E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -39419,7 +39411,7 @@
         <v>-7.8092984652327431E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -39499,7 +39491,7 @@
         <v>-2.5819777563516075E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -39579,7 +39571,7 @@
         <v>9.8158292348250633E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -39659,7 +39651,7 @@
         <v>-7.4925622507437516E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -39739,7 +39731,7 @@
         <v>-2.2184849506856445E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -39819,7 +39811,7 @@
         <v>-4.4994791584957762E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -39899,7 +39891,7 @@
         <v>-2.8344306804652109E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -39979,7 +39971,7 @@
         <v>-4.5811583014822906E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -40059,7 +40051,7 @@
         <v>-5.7103915319446034E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -40139,7 +40131,7 @@
         <v>-2.8544508719118098E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -40219,7 +40211,7 @@
         <v>-5.2779922038091471E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -40299,7 +40291,7 @@
         <v>-6.3713222380643725E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -40379,7 +40371,7 @@
         <v>-4.2356435869038075E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -40459,7 +40451,7 @@
         <v>-6.7393328166533411E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -40539,7 +40531,7 @@
         <v>-0.15722747801897308</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -40619,7 +40611,7 @@
         <v>1.41730578990832E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -40698,9 +40690,6 @@
       <c r="Z25">
         <v>0.32093317420885148</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40716,16 +40705,16 @@
       <selection activeCell="T2" sqref="T2:V2"/>
       <selection pane="topRight" activeCell="T2" sqref="T2:V2"/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:V2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.86328125" customWidth="1"/>
-    <col min="2" max="3" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40805,7 +40794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -40885,7 +40874,7 @@
         <v>-3.480012653704507E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -40965,7 +40954,7 @@
         <v>2.8843189279048409E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -41045,7 +41034,7 @@
         <v>-6.7986880740530369E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -41125,7 +41114,7 @@
         <v>-1.1627026272679E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -41205,7 +41194,7 @@
         <v>1.8354424883859917E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -41285,7 +41274,7 @@
         <v>1.4525037852668634E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -41365,7 +41354,7 @@
         <v>-4.0184526092096216E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -41445,7 +41434,7 @@
         <v>-4.0851420053439622E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -41525,7 +41514,7 @@
         <v>-1.0386975994920817E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -41605,7 +41594,7 @@
         <v>-7.1396229300182322E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -41685,7 +41674,7 @@
         <v>-2.3200686584720791E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -41765,7 +41754,7 @@
         <v>-1.3401119123268719E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -41845,7 +41834,7 @@
         <v>-1.8624356889701911E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -41925,7 +41914,7 @@
         <v>-2.2087155690023591E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -42005,7 +41994,7 @@
         <v>-1.2809865030333573E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -42085,7 +42074,7 @@
         <v>-1.4056609048310426E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -42165,7 +42154,7 @@
         <v>-1.5760951894091026E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -42245,7 +42234,7 @@
         <v>-1.7628471817870563E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -42325,7 +42314,7 @@
         <v>-2.4487292038498351E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -42405,7 +42394,7 @@
         <v>-1.9195424125114782E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -42485,7 +42474,7 @@
         <v>-1.3196341425773455E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -42565,7 +42554,7 @@
         <v>-2.6072209783299494</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -42645,7 +42634,7 @@
         <v>1.432838525686797E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -42742,13 +42731,13 @@
       <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42828,7 +42817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -42908,7 +42897,7 @@
         <v>-3468.123942493899</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -42988,7 +42977,7 @@
         <v>862.06168150388658</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -43068,7 +43057,7 @@
         <v>1538.3471131644874</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -43148,7 +43137,7 @@
         <v>-1809.9300652053707</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -43228,7 +43217,7 @@
         <v>11952.31746462515</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -43308,7 +43297,7 @@
         <v>5939.7032261366185</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -43388,7 +43377,7 @@
         <v>4346.4180032654795</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -43468,7 +43457,7 @@
         <v>-1613.6521548672072</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -43548,7 +43537,7 @@
         <v>-5914.4670167351087</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -43628,7 +43617,7 @@
         <v>-266.64369533339703</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -43708,7 +43697,7 @@
         <v>-18434.636239103998</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -43788,7 +43777,7 @@
         <v>-15166.686287916104</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -43868,7 +43857,7 @@
         <v>-15968.615754071303</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -43948,7 +43937,7 @@
         <v>-10410.906255690095</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -44028,7 +44017,7 @@
         <v>-18014.750345270204</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -44108,7 +44097,7 @@
         <v>-16780.098069267704</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -44188,7 +44177,7 @@
         <v>-15048.486376422292</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -44268,7 +44257,7 @@
         <v>-27982.563539052891</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -44348,7 +44337,7 @@
         <v>-23999.865244268025</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -44428,7 +44417,7 @@
         <v>-19487.553376604315</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -44508,7 +44497,7 @@
         <v>-22340.380177392541</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -44588,7 +44577,7 @@
         <v>-664493.88241170114</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -44668,7 +44657,7 @@
         <v>2992.3155283263077</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -44764,15 +44753,15 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14.953125" customWidth="1"/>
-    <col min="3" max="3" width="10.31640625" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -44837,7 +44826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -44922,7 +44911,7 @@
         <v>-4.0569369817552775E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -45007,7 +44996,7 @@
         <v>-0.47035642064342931</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -45092,7 +45081,7 @@
         <v>1.0679971597215815E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -45177,7 +45166,7 @@
         <v>-4.1494495868157049E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -45262,7 +45251,7 @@
         <v>6.4313454910751625E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -45347,7 +45336,7 @@
         <v>3.6143575203704207E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45432,7 +45421,7 @@
         <v>-3.3133136671483404E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -45517,7 +45506,7 @@
         <v>-2.3953148320597688E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -45602,7 +45591,7 @@
         <v>-2.6169784576765581E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -45687,7 +45676,7 @@
         <v>-2.881618196332238E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -45772,7 +45761,7 @@
         <v>-1.3443205867742392E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -45857,7 +45846,7 @@
         <v>-3.2243323472508134E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -45942,7 +45931,7 @@
         <v>-2.4264321469330309E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -46027,7 +46016,7 @@
         <v>-3.9101033242241526E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -46112,7 +46101,7 @@
         <v>-1.4719222454386543E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -46197,7 +46186,7 @@
         <v>-1.960754491435953E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -46282,7 +46271,7 @@
         <v>-7.5682261280717554E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -46367,7 +46356,7 @@
         <v>-2.4979034516701753E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>2</v>
       </c>
